--- a/rulelearning/结果.xlsx
+++ b/rulelearning/结果.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rainbow/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rainbow/Desktop/test/rulelearning/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Entities</t>
   </si>
@@ -345,6 +345,28 @@
   </si>
   <si>
     <t>server:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假如去除掉频率次数少于200的</t>
+    <rPh sb="0" eb="1">
+      <t>jia ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qu chu diao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>pin lü</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ci shu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>shao yu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>de</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,7 +631,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -689,35 +711,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -1035,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1169,22 +1194,22 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>14951</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="29">
         <v>1345</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="34" t="s">
+      <c r="H6" s="32" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="15" t="s">
@@ -1193,14 +1218,14 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="32"/>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="34"/>
+      <c r="H7" s="32"/>
       <c r="I7" s="11" t="s">
         <v>16</v>
       </c>
@@ -1209,14 +1234,14 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="32"/>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="34"/>
+      <c r="H8" s="32"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
@@ -1283,7 +1308,7 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="14">
@@ -1303,7 +1328,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="36"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="17">
         <v>241158</v>
       </c>
@@ -1321,7 +1346,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="33" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="14">
@@ -1341,7 +1366,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="17">
         <v>175412</v>
       </c>
@@ -1374,46 +1399,46 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="E22" s="20" t="s">
@@ -1424,14 +1449,14 @@
       <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
     </row>
     <row r="24" spans="1:17" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
@@ -1469,10 +1494,10 @@
       </c>
     </row>
     <row r="25" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="35">
         <v>0</v>
       </c>
       <c r="C25" s="20">
@@ -1484,18 +1509,18 @@
       <c r="E25" s="20">
         <v>13</v>
       </c>
-      <c r="G25" s="26">
+      <c r="G25" s="35">
         <f>SUM(C25:E25)</f>
         <v>171</v>
       </c>
-      <c r="H25" s="26">
+      <c r="H25" s="35">
         <f>SUM(C26:E26)/3600</f>
         <v>9.5507500000000007</v>
       </c>
-      <c r="I25" s="26">
+      <c r="I25" s="35">
         <v>137</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="35" t="s">
         <v>39</v>
       </c>
       <c r="K25" s="20" t="s">
@@ -1506,8 +1531,8 @@
       </c>
     </row>
     <row r="26" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="20">
         <v>682.7</v>
       </c>
@@ -1517,19 +1542,19 @@
       <c r="E26" s="24">
         <v>32915.300000000003</v>
       </c>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
       <c r="O26" s="23" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="35">
         <v>3</v>
       </c>
       <c r="C27" s="20">
@@ -1538,18 +1563,18 @@
       <c r="D27" s="20">
         <v>353</v>
       </c>
-      <c r="G27" s="26">
+      <c r="G27" s="35">
         <f>SUM(C27:E27)</f>
         <v>359</v>
       </c>
-      <c r="H27" s="26">
+      <c r="H27" s="35">
         <f>SUM(C28:E28)/3600</f>
         <v>0.8803333333333333</v>
       </c>
-      <c r="I27" s="26">
+      <c r="I27" s="35">
         <v>1024</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="35" t="s">
         <v>39</v>
       </c>
       <c r="K27" s="20" t="s">
@@ -1558,7 +1583,7 @@
       <c r="L27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="N27" s="26">
+      <c r="N27" s="35">
         <v>3</v>
       </c>
       <c r="O27" s="23">
@@ -1572,22 +1597,22 @@
       </c>
     </row>
     <row r="28" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="23">
         <v>1538.1</v>
       </c>
       <c r="D28" s="23">
         <v>1631.1</v>
       </c>
-      <c r="G28" s="27"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="26"/>
-      <c r="N28" s="27"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="35"/>
+      <c r="N28" s="36"/>
     </row>
     <row r="29" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
+      <c r="A29" s="35"/>
       <c r="B29" s="19">
         <v>12</v>
       </c>
@@ -1602,7 +1627,7 @@
       </c>
     </row>
     <row r="30" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="19">
         <v>27</v>
       </c>
@@ -1617,7 +1642,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="26"/>
+      <c r="A31" s="35"/>
       <c r="B31" s="19">
         <v>47</v>
       </c>
@@ -1632,7 +1657,7 @@
       </c>
     </row>
     <row r="32" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="35" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="20">
@@ -1644,18 +1669,18 @@
       <c r="D32" s="20">
         <v>0</v>
       </c>
-      <c r="G32" s="28">
+      <c r="G32" s="37">
         <f>SUM(C32:E32)</f>
         <v>43</v>
       </c>
-      <c r="H32" s="26">
+      <c r="H32" s="35">
         <f>SUM(C33:E33)/3600</f>
         <v>0.47233333333333338</v>
       </c>
-      <c r="I32" s="28">
+      <c r="I32" s="37">
         <v>52</v>
       </c>
-      <c r="J32" s="26" t="s">
+      <c r="J32" s="35" t="s">
         <v>39</v>
       </c>
       <c r="K32" s="20" t="s">
@@ -1675,17 +1700,17 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
+      <c r="A33" s="35"/>
       <c r="C33" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="23">
         <v>1700.4</v>
       </c>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
     </row>
     <row r="34" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
@@ -1724,7 +1749,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="20">
@@ -1736,18 +1761,18 @@
       <c r="D35" s="23">
         <v>165</v>
       </c>
-      <c r="G35" s="26">
+      <c r="G35" s="35">
         <f>SUM(C35:F35)</f>
         <v>182</v>
       </c>
-      <c r="H35" s="26">
+      <c r="H35" s="35">
         <f>SUM(C36:E36)/3600</f>
         <v>0.53941666666666666</v>
       </c>
-      <c r="I35" s="26">
+      <c r="I35" s="35">
         <v>229</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="35" t="s">
         <v>39</v>
       </c>
       <c r="K35" s="20" t="s">
@@ -1758,7 +1783,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="26"/>
+      <c r="A36" s="35"/>
       <c r="C36" s="23">
         <v>957.2</v>
       </c>
@@ -1766,10 +1791,10 @@
         <v>984.7</v>
       </c>
       <c r="E36" s="23"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
@@ -1781,6 +1806,12 @@
       <c r="D38" s="24">
         <v>143</v>
       </c>
+      <c r="F38">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>156</v>
+      </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C39">
@@ -1789,63 +1820,104 @@
       <c r="D39" s="24">
         <v>504.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="21" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="F39">
+        <v>122.4</v>
+      </c>
+      <c r="G39">
+        <v>407.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D40" s="26"/>
+      <c r="J40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41" s="26">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <v>1447.1</v>
+      </c>
+      <c r="D42" s="26">
+        <v>997.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D43" s="26"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D44" s="26"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D45" s="26"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D46" s="26"/>
+    </row>
+    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B48" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C48" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D48" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="21" t="s">
+      <c r="E48" s="21" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>51</v>
       </c>
-      <c r="B42">
+      <c r="B49">
         <v>403</v>
       </c>
-      <c r="C42">
+      <c r="C49">
         <v>6</v>
       </c>
-      <c r="D42">
+      <c r="D49">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C43">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C50">
         <v>7499.3</v>
       </c>
-      <c r="D43">
+      <c r="D50">
         <v>35248.199999999997</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="C23:H23"/>
@@ -1859,17 +1931,16 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rulelearning/结果.xlsx
+++ b/rulelearning/结果.xlsx
@@ -1,33 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rainbow/Desktop/test/rulelearning/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E736F1A8-4474-4FDA-969A-FFC6A63EA7AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
   <si>
     <t>Entities</t>
   </si>
@@ -369,12 +365,56 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有过滤谓词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过滤谓词了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去掉小于100的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改了factdic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假如最大长度=4的结果已经比他好了，则fb的可以到此为止了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则要加，用小的k来评估，并且长度设为5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还可以将里面20个谓词跑一下计算一下平均时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top 200  (39 syn)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否则，改变len=4时筛选的规则频率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +530,12 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -631,7 +677,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -712,6 +758,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -735,15 +790,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1059,28 +1106,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27:G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" customWidth="1"/>
+    <col min="1" max="1" width="26.625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" customWidth="1"/>
-    <col min="5" max="5" width="9.1640625" customWidth="1"/>
-    <col min="6" max="6" width="8.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="9.125" customWidth="1"/>
+    <col min="6" max="6" width="8.125" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="9" max="9" width="9.125" customWidth="1"/>
+    <col min="10" max="10" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="19.375" customWidth="1"/>
+    <col min="19" max="19" width="14.875" customWidth="1"/>
+    <col min="20" max="20" width="22.625" customWidth="1"/>
+    <col min="21" max="21" width="14.375" customWidth="1"/>
+    <col min="22" max="22" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>21</v>
@@ -1104,7 +1155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
@@ -1133,7 +1184,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1153,7 +1204,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1194,22 +1245,22 @@
       <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="32">
         <v>14951</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="32">
         <v>1345</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="35" t="s">
         <v>6</v>
       </c>
       <c r="I6" s="15" t="s">
@@ -1218,14 +1269,14 @@
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:11" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="32"/>
+      <c r="H7" s="35"/>
       <c r="I7" s="11" t="s">
         <v>16</v>
       </c>
@@ -1234,18 +1285,18 @@
       </c>
     </row>
     <row r="8" spans="1:11" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="32"/>
+      <c r="H8" s="35"/>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
     </row>
-    <row r="9" spans="1:11" s="1" customFormat="1" ht="42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1318,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
@@ -1287,7 +1338,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>11</v>
       </c>
@@ -1308,7 +1359,7 @@
       <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="36" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="14">
@@ -1328,7 +1379,7 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="17">
         <v>241158</v>
       </c>
@@ -1346,7 +1397,7 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="36" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="14">
@@ -1366,7 +1417,7 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:11" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="17">
         <v>175412</v>
       </c>
@@ -1383,7 +1434,7 @@
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="14"/>
       <c r="C16" s="6"/>
@@ -1395,70 +1446,70 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+    <row r="18" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="E22" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="20" customFormat="1" ht="21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" s="20" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="35" t="s">
+      <c r="C23" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-    </row>
-    <row r="24" spans="1:17" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+    </row>
+    <row r="24" spans="1:23" s="20" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A24" s="20" t="s">
         <v>30</v>
       </c>
@@ -1492,12 +1543,21 @@
       <c r="K24" s="20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="T24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="35">
+      <c r="B25" s="27">
         <v>0</v>
       </c>
       <c r="C25" s="20">
@@ -1509,18 +1569,18 @@
       <c r="E25" s="20">
         <v>13</v>
       </c>
-      <c r="G25" s="35">
+      <c r="G25" s="27">
         <f>SUM(C25:E25)</f>
         <v>171</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H25" s="27">
         <f>SUM(C26:E26)/3600</f>
         <v>9.5507500000000007</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="27">
         <v>137</v>
       </c>
-      <c r="J25" s="35" t="s">
+      <c r="J25" s="27" t="s">
         <v>39</v>
       </c>
       <c r="K25" s="20" t="s">
@@ -1529,10 +1589,19 @@
       <c r="L25" s="20" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
+      <c r="S25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="T25" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+    </row>
+    <row r="26" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="20">
         <v>682.7</v>
       </c>
@@ -1542,19 +1611,28 @@
       <c r="E26" s="24">
         <v>32915.300000000003</v>
       </c>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
       <c r="O26" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="S26" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U26" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="35">
+      <c r="B27" s="27">
         <v>3</v>
       </c>
       <c r="C27" s="20">
@@ -1563,18 +1641,18 @@
       <c r="D27" s="20">
         <v>353</v>
       </c>
-      <c r="G27" s="35">
+      <c r="G27" s="27">
         <f>SUM(C27:E27)</f>
         <v>359</v>
       </c>
-      <c r="H27" s="35">
+      <c r="H27" s="27">
         <f>SUM(C28:E28)/3600</f>
         <v>0.8803333333333333</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="27">
         <v>1024</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="27" t="s">
         <v>39</v>
       </c>
       <c r="K27" s="20" t="s">
@@ -1583,7 +1661,7 @@
       <c r="L27" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="N27" s="35">
+      <c r="N27" s="27">
         <v>3</v>
       </c>
       <c r="O27" s="23">
@@ -1595,24 +1673,50 @@
       <c r="Q27" s="23">
         <v>561</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
+      <c r="S27" s="20">
+        <v>16</v>
+      </c>
+      <c r="T27" s="20">
+        <v>153</v>
+      </c>
+      <c r="U27" s="20">
+        <v>14</v>
+      </c>
+      <c r="V27" s="20">
+        <f>SUM(S27:U27)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="23">
         <v>1538.1</v>
       </c>
       <c r="D28" s="23">
         <v>1631.1</v>
       </c>
-      <c r="G28" s="36"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="35"/>
-      <c r="N28" s="36"/>
-    </row>
-    <row r="29" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="27"/>
+      <c r="N28" s="28"/>
+      <c r="S28" s="38">
+        <v>57.1</v>
+      </c>
+      <c r="T28" s="38">
+        <v>258.5</v>
+      </c>
+      <c r="U28" s="38">
+        <v>8905.7999999999993</v>
+      </c>
+      <c r="V28" s="23">
+        <f>SUM(S28:U28)/3600</f>
+        <v>2.5615000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27"/>
       <c r="B29" s="19">
         <v>12</v>
       </c>
@@ -1626,8 +1730,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
+    <row r="30" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="27"/>
       <c r="B30" s="19">
         <v>27</v>
       </c>
@@ -1641,8 +1745,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="35"/>
+    <row r="31" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="27"/>
       <c r="B31" s="19">
         <v>47</v>
       </c>
@@ -1656,8 +1760,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
+    <row r="32" spans="1:23" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="20">
@@ -1669,18 +1773,18 @@
       <c r="D32" s="20">
         <v>0</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="29">
         <f>SUM(C32:E32)</f>
         <v>43</v>
       </c>
-      <c r="H32" s="35">
+      <c r="H32" s="27">
         <f>SUM(C33:E33)/3600</f>
         <v>0.47233333333333338</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="29">
         <v>52</v>
       </c>
-      <c r="J32" s="35" t="s">
+      <c r="J32" s="27" t="s">
         <v>39</v>
       </c>
       <c r="K32" s="20" t="s">
@@ -1700,17 +1804,17 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35"/>
+      <c r="A33" s="27"/>
       <c r="C33" s="23" t="s">
         <v>57</v>
       </c>
       <c r="D33" s="23">
         <v>1700.4</v>
       </c>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
     </row>
     <row r="34" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
@@ -1749,7 +1853,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="27" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="20">
@@ -1761,18 +1865,18 @@
       <c r="D35" s="23">
         <v>165</v>
       </c>
-      <c r="G35" s="35">
+      <c r="G35" s="27">
         <f>SUM(C35:F35)</f>
         <v>182</v>
       </c>
-      <c r="H35" s="35">
+      <c r="H35" s="27">
         <f>SUM(C36:E36)/3600</f>
         <v>0.53941666666666666</v>
       </c>
-      <c r="I35" s="35">
+      <c r="I35" s="27">
         <v>229</v>
       </c>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="27" t="s">
         <v>39</v>
       </c>
       <c r="K35" s="20" t="s">
@@ -1783,7 +1887,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35"/>
+      <c r="A36" s="27"/>
       <c r="C36" s="23">
         <v>957.2</v>
       </c>
@@ -1791,10 +1895,16 @@
         <v>984.7</v>
       </c>
       <c r="E36" s="23"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F37" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="30"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
@@ -1829,6 +1939,9 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D40" s="26"/>
+      <c r="G40">
+        <v>145</v>
+      </c>
       <c r="J40" t="s">
         <v>62</v>
       </c>
@@ -1840,6 +1953,9 @@
       <c r="D41" s="26">
         <v>346</v>
       </c>
+      <c r="G41">
+        <v>380.3</v>
+      </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C42">
@@ -1861,9 +1977,12 @@
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D46" s="26"/>
     </row>
-    <row r="47" spans="1:12" ht="21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>50</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -1883,7 +2002,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -1896,8 +2015,11 @@
       <c r="D49">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>7499.3</v>
       </c>
@@ -1906,18 +2028,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
+  <mergeCells count="36">
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A18:J18"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="C23:H23"/>
@@ -1931,16 +2054,17 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A18:J18"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I35:I36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rulelearning/结果.xlsx
+++ b/rulelearning/结果.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5444DC0-52D3-41A6-8A63-B4107CE51D6D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA3D6A0-9AD2-4CC1-8739-4E78D0CDBC37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6375" yWindow="3255" windowWidth="13635" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对于index=53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>if 1的时间过长，则将len=4时，用小的K‘筛选FB吧？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +461,10 @@
   </si>
   <si>
     <t>FB实验里的那四个特殊谓词（为了对比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于index=52</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +656,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1240,6 +1240,17 @@
       <bottom style="medium">
         <color rgb="FFC00000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1282,7 +1293,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1442,14 +1453,265 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1457,262 +1719,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -2032,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I90" sqref="I90"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2189,16 +2204,16 @@
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="134" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="138">
+      <c r="C6" s="131">
         <v>14951</v>
       </c>
-      <c r="D6" s="138">
+      <c r="D6" s="131">
         <v>1345</v>
       </c>
       <c r="E6" s="18"/>
@@ -2207,7 +2222,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="135" t="s">
+      <c r="K6" s="140" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="15" t="s">
@@ -2216,17 +2231,17 @@
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="145"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="139"/>
-      <c r="D7" s="139"/>
+      <c r="A7" s="135"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
       <c r="E7" s="18"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="136"/>
+      <c r="K7" s="141"/>
       <c r="L7" s="11" t="s">
         <v>16</v>
       </c>
@@ -2235,17 +2250,17 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="146"/>
-      <c r="B8" s="143"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
+      <c r="A8" s="136"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
       <c r="E8" s="18"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="137"/>
+      <c r="K8" s="142"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
     </row>
@@ -2321,7 +2336,7 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="129" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="14">
@@ -2344,7 +2359,7 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="61"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="17">
         <v>241158</v>
       </c>
@@ -2365,7 +2380,7 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="129" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="14">
@@ -2388,7 +2403,7 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="17">
         <v>175412</v>
       </c>
@@ -2427,55 +2442,55 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="144"/>
+      <c r="I18" s="144"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="143"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="143"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="143"/>
+      <c r="L19" s="143"/>
+      <c r="M19" s="143"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="58"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="143"/>
+      <c r="M20" s="143"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -2506,8 +2521,8 @@
       <c r="E26" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="100"/>
-      <c r="G26" s="100"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
       <c r="H26" s="31" t="s">
         <v>44</v>
       </c>
@@ -2520,21 +2535,21 @@
       <c r="A27" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="55" t="s">
+      <c r="C27" s="146"/>
+      <c r="D27" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="56"/>
+      <c r="E27" s="146"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
-      <c r="H27" s="132" t="s">
+      <c r="H27" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="133"/>
-      <c r="J27" s="96"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="87"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="48">
@@ -2552,8 +2567,8 @@
       <c r="E28" s="52">
         <v>212.6</v>
       </c>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
       <c r="H28" s="49">
         <f>SUM(B28+D28)</f>
         <v>173</v>
@@ -2562,7 +2577,7 @@
         <f>SUM(C28+E28)</f>
         <v>237.09</v>
       </c>
-      <c r="J28" s="97"/>
+      <c r="J28" s="88"/>
       <c r="L28" s="25">
         <v>137</v>
       </c>
@@ -2614,9 +2629,9 @@
       <c r="E30" s="52">
         <v>53.54</v>
       </c>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="130">
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="121">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -2624,7 +2639,7 @@
         <f>SUM(C30+E30)</f>
         <v>87.960000000000008</v>
       </c>
-      <c r="J30" s="97"/>
+      <c r="J30" s="88"/>
       <c r="L30" s="25">
         <v>52</v>
       </c>
@@ -2643,8 +2658,8 @@
         <v>0</v>
       </c>
       <c r="E31" s="41"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
       <c r="H31" s="47">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2682,8 +2697,8 @@
       <c r="E34" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="31" t="s">
         <v>44</v>
       </c>
@@ -2696,21 +2711,21 @@
       <c r="A35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="56"/>
-      <c r="D35" s="55" t="s">
+      <c r="C35" s="146"/>
+      <c r="D35" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="56"/>
+      <c r="E35" s="146"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="132" t="s">
+      <c r="H35" s="125" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="133"/>
-      <c r="J35" s="96"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="87"/>
       <c r="K35" s="24" t="s">
         <v>51</v>
       </c>
@@ -2823,8 +2838,8 @@
       <c r="E39" s="41">
         <v>531</v>
       </c>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
       <c r="H39" s="47">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -2847,17 +2862,17 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="128" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
+      <c r="B43" s="128"/>
+      <c r="C43" s="128"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
       <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2884,8 +2899,8 @@
       <c r="E45" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="100"/>
-      <c r="G45" s="100"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
       <c r="H45" s="31" t="s">
         <v>44</v>
       </c>
@@ -2902,21 +2917,21 @@
       <c r="A46" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="55" t="s">
+      <c r="C46" s="146"/>
+      <c r="D46" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="56"/>
+      <c r="E46" s="146"/>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
-      <c r="H46" s="132" t="s">
+      <c r="H46" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="I46" s="133"/>
-      <c r="J46" s="96"/>
+      <c r="I46" s="126"/>
+      <c r="J46" s="87"/>
       <c r="N46" s="20"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
@@ -2938,8 +2953,8 @@
       <c r="E47" s="52">
         <v>230.9</v>
       </c>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
       <c r="H47" s="49">
         <f>SUM(B47+D47)</f>
         <v>227</v>
@@ -2948,7 +2963,7 @@
         <f>SUM(C47+E47)</f>
         <v>278.84000000000003</v>
       </c>
-      <c r="J47" s="97"/>
+      <c r="J47" s="88"/>
       <c r="L47" s="25">
         <v>137</v>
       </c>
@@ -2958,32 +2973,32 @@
       <c r="Q47" s="23"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="67">
+      <c r="A48" s="60">
         <v>3</v>
       </c>
-      <c r="B48" s="68">
+      <c r="B48" s="61">
         <v>51</v>
       </c>
-      <c r="C48" s="69">
+      <c r="C48" s="62">
         <v>112.1</v>
       </c>
-      <c r="D48" s="70">
+      <c r="D48" s="63">
         <v>395</v>
       </c>
-      <c r="E48" s="71">
+      <c r="E48" s="64">
         <v>340</v>
       </c>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
-      <c r="H48" s="70">
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
+      <c r="H48" s="63">
         <f t="shared" ref="H48:H50" si="4">SUM(B48+D48)</f>
         <v>446</v>
       </c>
-      <c r="I48" s="69">
+      <c r="I48" s="62">
         <f>SUM(C48+E48)</f>
         <v>452.1</v>
       </c>
-      <c r="J48" s="98"/>
+      <c r="J48" s="89"/>
       <c r="K48" t="s">
         <v>54</v>
       </c>
@@ -3007,9 +3022,9 @@
       <c r="E49" s="52">
         <v>95.87</v>
       </c>
-      <c r="F49" s="94"/>
-      <c r="G49" s="94"/>
-      <c r="H49" s="130">
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="121">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
@@ -3017,7 +3032,7 @@
         <f>SUM(C49+E49)</f>
         <v>134.09</v>
       </c>
-      <c r="J49" s="97"/>
+      <c r="J49" s="88"/>
       <c r="L49" s="25">
         <v>52</v>
       </c>
@@ -3038,8 +3053,8 @@
       <c r="E50" s="41">
         <v>424.8</v>
       </c>
-      <c r="F50" s="101"/>
-      <c r="G50" s="101"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
       <c r="H50" s="47">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -3071,14 +3086,14 @@
       <c r="C53" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="62" t="s">
+      <c r="D53" s="55" t="s">
         <v>44</v>
       </c>
       <c r="E53" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="100"/>
-      <c r="G53" s="100"/>
+      <c r="F53" s="91"/>
+      <c r="G53" s="91"/>
       <c r="H53" s="31" t="s">
         <v>44</v>
       </c>
@@ -3091,21 +3106,21 @@
       <c r="A54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="55" t="s">
+      <c r="C54" s="146"/>
+      <c r="D54" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="56"/>
+      <c r="E54" s="146"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
-      <c r="H54" s="132" t="s">
+      <c r="H54" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="133"/>
-      <c r="J54" s="96"/>
+      <c r="I54" s="126"/>
+      <c r="J54" s="87"/>
       <c r="K54" s="24" t="s">
         <v>51</v>
       </c>
@@ -3120,7 +3135,7 @@
       <c r="C55" s="34">
         <v>112.1</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D55" s="56">
         <v>395</v>
       </c>
       <c r="E55" s="44">
@@ -3137,7 +3152,7 @@
         <v>452.1</v>
       </c>
       <c r="J55" s="42"/>
-      <c r="K55" s="65">
+      <c r="K55" s="58">
         <f>SUM(H55:H58)</f>
         <v>1320</v>
       </c>
@@ -3155,7 +3170,7 @@
       <c r="C56" s="34">
         <v>167.1</v>
       </c>
-      <c r="D56" s="63">
+      <c r="D56" s="56">
         <v>494</v>
       </c>
       <c r="E56" s="44">
@@ -3183,7 +3198,7 @@
       <c r="C57" s="34">
         <v>263.3</v>
       </c>
-      <c r="D57" s="63">
+      <c r="D57" s="56">
         <v>202</v>
       </c>
       <c r="E57" s="44">
@@ -3212,15 +3227,15 @@
       <c r="C58" s="36">
         <v>139.9</v>
       </c>
-      <c r="D58" s="64">
+      <c r="D58" s="57">
         <v>105</v>
       </c>
       <c r="E58" s="41">
         <v>510.9</v>
       </c>
-      <c r="F58" s="101"/>
-      <c r="G58" s="101"/>
-      <c r="H58" s="66">
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="59">
         <f>SUM(B58+D58)</f>
         <v>111</v>
       </c>
@@ -3257,8 +3272,8 @@
       <c r="E61" s="41">
         <v>566.1</v>
       </c>
-      <c r="F61" s="101"/>
-      <c r="G61" s="101"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
       <c r="H61" s="47">
         <f t="shared" ref="H61" si="8">SUM(B61+D61)</f>
         <v>201</v>
@@ -3288,9 +3303,9 @@
       <c r="E62" s="41">
         <v>919.4</v>
       </c>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="66">
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="59">
         <f>SUM(B62+D62)</f>
         <v>240</v>
       </c>
@@ -3319,8 +3334,8 @@
       <c r="E63" s="41">
         <v>629.79999999999995</v>
       </c>
-      <c r="F63" s="101"/>
-      <c r="G63" s="101"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="92"/>
       <c r="H63" s="47">
         <f t="shared" ref="H63:H64" si="10">SUM(B63+D63)</f>
         <v>157</v>
@@ -3350,8 +3365,8 @@
       <c r="E64" s="41">
         <v>583.79999999999995</v>
       </c>
-      <c r="F64" s="101"/>
-      <c r="G64" s="101"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
       <c r="H64" s="47">
         <f t="shared" si="10"/>
         <v>194</v>
@@ -3370,8 +3385,8 @@
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
-      <c r="J65" s="99"/>
-      <c r="K65" s="76"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="69"/>
     </row>
     <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -3380,72 +3395,72 @@
       <c r="B66" t="s">
         <v>62</v>
       </c>
-      <c r="J66" s="96"/>
-      <c r="K66" s="91"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="82"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="106" t="s">
+      <c r="A67" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="107" t="s">
+      <c r="B67" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="108" t="s">
+      <c r="C67" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="D67" s="107" t="s">
+      <c r="D67" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="108" t="s">
+      <c r="E67" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="F67" s="107" t="s">
+      <c r="F67" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="108" t="s">
+      <c r="G67" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="H67" s="107" t="s">
+      <c r="H67" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="I67" s="109" t="s">
+      <c r="I67" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="J67" s="99"/>
-      <c r="L67" s="76"/>
-      <c r="O67" s="72" t="s">
+      <c r="J67" s="90"/>
+      <c r="L67" s="69"/>
+      <c r="O67" s="65" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="124"/>
+      <c r="D68" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="E68" s="124"/>
+      <c r="F68" s="123" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="B68" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="79"/>
-      <c r="D68" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E68" s="79"/>
-      <c r="F68" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="G68" s="79"/>
-      <c r="H68" s="132" t="s">
+      <c r="G68" s="124"/>
+      <c r="H68" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="I68" s="134"/>
-      <c r="J68" s="99"/>
-      <c r="K68" s="76"/>
-      <c r="L68" s="76"/>
+      <c r="I68" s="127"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
       <c r="O68" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="111">
+      <c r="A69" s="102">
         <v>0</v>
       </c>
       <c r="B69" s="50">
@@ -3457,32 +3472,32 @@
       <c r="D69" s="49">
         <v>245</v>
       </c>
-      <c r="E69" s="94">
+      <c r="E69" s="85">
         <v>608.79999999999995</v>
       </c>
       <c r="F69" s="49"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="105">
+      <c r="G69" s="85"/>
+      <c r="H69" s="96">
         <f>SUM(B69+D69+F69)</f>
         <v>265</v>
       </c>
-      <c r="I69" s="122">
+      <c r="I69" s="113">
         <f>SUM(C69+E69+G69)</f>
         <v>681.64</v>
       </c>
-      <c r="J69" s="84">
+      <c r="J69" s="75">
         <v>137</v>
       </c>
-      <c r="K69" s="76"/>
+      <c r="K69" s="69"/>
       <c r="N69">
         <v>1</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="111">
+      <c r="A70" s="102">
         <v>3</v>
       </c>
       <c r="B70" s="50">
@@ -3494,204 +3509,208 @@
       <c r="D70" s="49">
         <v>373</v>
       </c>
-      <c r="E70" s="94">
+      <c r="E70" s="85">
         <v>1826</v>
       </c>
       <c r="F70" s="49"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="105">
+      <c r="G70" s="85"/>
+      <c r="H70" s="96">
         <f t="shared" ref="H70:H72" si="12">SUM(B70+D70+F70)</f>
         <v>382</v>
       </c>
-      <c r="I70" s="122">
+      <c r="I70" s="113">
         <f>SUM(C70+E70+G70)</f>
         <v>1930</v>
       </c>
-      <c r="J70" s="84">
+      <c r="J70" s="75">
         <v>1024</v>
       </c>
-      <c r="K70" s="76"/>
+      <c r="K70" s="69"/>
       <c r="N70">
         <v>2</v>
       </c>
-      <c r="O70" s="26" t="s">
+      <c r="O70" s="147" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="131">
+      <c r="A71" s="122">
         <v>52</v>
       </c>
-      <c r="B71" s="80">
-        <v>43</v>
-      </c>
-      <c r="C71" s="81">
-        <v>53.2</v>
-      </c>
-      <c r="D71" s="82">
+      <c r="B71" s="71">
+        <v>5</v>
+      </c>
+      <c r="C71" s="72">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="D71" s="73">
         <v>0</v>
       </c>
-      <c r="E71" s="95">
-        <v>86.38</v>
-      </c>
-      <c r="F71" s="82"/>
-      <c r="G71" s="95"/>
-      <c r="H71" s="118">
+      <c r="E71" s="86">
+        <v>0</v>
+      </c>
+      <c r="F71" s="73"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="109">
         <f t="shared" si="12"/>
-        <v>43</v>
-      </c>
-      <c r="I71" s="123">
+        <v>5</v>
+      </c>
+      <c r="I71" s="114">
         <f>SUM(C71+E71+G71)</f>
-        <v>139.57999999999998</v>
-      </c>
-      <c r="J71" s="129">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="J71" s="120">
         <v>52</v>
       </c>
-      <c r="K71" s="76"/>
+      <c r="K71" s="69"/>
       <c r="N71">
         <v>3</v>
       </c>
       <c r="O71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="112">
+      <c r="A72" s="103">
         <v>163</v>
       </c>
-      <c r="B72" s="113">
+      <c r="B72" s="104">
         <v>17</v>
       </c>
-      <c r="C72" s="114">
+      <c r="C72" s="105">
         <v>55.53</v>
       </c>
-      <c r="D72" s="115">
-        <v>231</v>
-      </c>
-      <c r="E72" s="116">
-        <v>951.7</v>
-      </c>
-      <c r="F72" s="115"/>
-      <c r="G72" s="116"/>
-      <c r="H72" s="117">
+      <c r="D72" s="106">
+        <v>236</v>
+      </c>
+      <c r="E72" s="107">
+        <v>917.2</v>
+      </c>
+      <c r="F72" s="106"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="108">
         <f t="shared" si="12"/>
-        <v>248</v>
-      </c>
-      <c r="I72" s="124">
+        <v>253</v>
+      </c>
+      <c r="I72" s="115">
         <f t="shared" ref="I72" si="13">SUM(C72+E72+G72)</f>
-        <v>1007.23</v>
-      </c>
-      <c r="J72" s="84">
+        <v>972.73</v>
+      </c>
+      <c r="J72" s="75">
         <v>229</v>
       </c>
-      <c r="K72" s="91"/>
+      <c r="K72" s="82"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="76"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="76"/>
-      <c r="J73" s="76"/>
+      <c r="A73" s="69"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="148">
+        <v>237</v>
+      </c>
+      <c r="E73" s="88">
+        <v>1001</v>
+      </c>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
       <c r="O73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B74" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="O74" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="76"/>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="76"/>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
-      <c r="I74" s="76"/>
-      <c r="J74" s="76"/>
-      <c r="K74" s="76"/>
-      <c r="O74" t="s">
-        <v>72</v>
-      </c>
       <c r="P74" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q74" t="s">
         <v>74</v>
       </c>
-      <c r="Q74" t="s">
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="B75" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="D75" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="E75" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" s="98" t="s">
+        <v>44</v>
+      </c>
+      <c r="I75" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="J75" s="69"/>
+      <c r="K75" s="69"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="101" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="123" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="124"/>
+      <c r="D76" s="123" t="s">
+        <v>43</v>
+      </c>
+      <c r="E76" s="124"/>
+      <c r="F76" s="123" t="s">
+        <v>69</v>
+      </c>
+      <c r="G76" s="124"/>
+      <c r="H76" s="125" t="s">
+        <v>58</v>
+      </c>
+      <c r="I76" s="127"/>
+      <c r="J76" s="69"/>
+      <c r="K76" s="82"/>
+      <c r="O76" t="s">
+        <v>77</v>
+      </c>
+      <c r="P76" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q76" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="106" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="D75" s="119" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="G75" s="108" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" s="107" t="s">
-        <v>44</v>
-      </c>
-      <c r="I75" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="J75" s="76"/>
-      <c r="K75" s="76"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" s="79"/>
-      <c r="D76" s="78" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="79"/>
-      <c r="F76" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76" s="79"/>
-      <c r="H76" s="132" t="s">
-        <v>58</v>
-      </c>
-      <c r="I76" s="134"/>
-      <c r="J76" s="76"/>
-      <c r="K76" s="91"/>
-      <c r="O76" t="s">
-        <v>78</v>
-      </c>
-      <c r="P76" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>76</v>
-      </c>
-    </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="111">
+      <c r="A77" s="102">
         <v>3</v>
       </c>
       <c r="B77" s="50">
@@ -3708,18 +3727,18 @@
       </c>
       <c r="F77" s="49"/>
       <c r="G77" s="52"/>
-      <c r="H77" s="105">
+      <c r="H77" s="96">
         <f>SUM(B77+D77+F77)</f>
         <v>382</v>
       </c>
-      <c r="I77" s="126">
+      <c r="I77" s="117">
         <f>SUM(C77+E77+G77)</f>
         <v>1930</v>
       </c>
-      <c r="J77" s="84"/>
+      <c r="J77" s="75"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="111">
+      <c r="A78" s="102">
         <v>12</v>
       </c>
       <c r="B78" s="50">
@@ -3728,28 +3747,28 @@
       <c r="C78" s="51">
         <v>182.1</v>
       </c>
-      <c r="D78" s="120">
+      <c r="D78" s="111">
         <v>490</v>
       </c>
       <c r="E78" s="52">
         <v>1966</v>
       </c>
-      <c r="F78" s="120"/>
+      <c r="F78" s="111"/>
       <c r="G78" s="52"/>
-      <c r="H78" s="105">
+      <c r="H78" s="96">
         <f t="shared" ref="H78" si="14">SUM(B78+D78+F78)</f>
         <v>642</v>
       </c>
-      <c r="I78" s="126">
+      <c r="I78" s="117">
         <f>SUM(C78+E78+G78)</f>
         <v>2148.1</v>
       </c>
-      <c r="J78" s="99"/>
-      <c r="K78" s="76"/>
-      <c r="L78" s="76"/>
+      <c r="J78" s="90"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="111">
+      <c r="A79" s="102">
         <v>27</v>
       </c>
       <c r="B79" s="50">
@@ -3758,449 +3777,449 @@
       <c r="C79" s="51">
         <v>102</v>
       </c>
-      <c r="D79" s="120">
+      <c r="D79" s="111">
         <v>307</v>
       </c>
       <c r="E79" s="52">
         <v>1386</v>
       </c>
-      <c r="F79" s="120"/>
+      <c r="F79" s="111"/>
       <c r="G79" s="52"/>
-      <c r="H79" s="105">
+      <c r="H79" s="96">
         <f>SUM(B79+D79+F79)</f>
         <v>331</v>
       </c>
-      <c r="I79" s="126">
+      <c r="I79" s="117">
         <f t="shared" ref="I79:I80" si="15">SUM(C79+E79+G79)</f>
         <v>1488</v>
       </c>
-      <c r="J79" s="99"/>
-      <c r="K79" s="76"/>
-      <c r="L79" s="84"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="69"/>
+      <c r="L79" s="75"/>
     </row>
     <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="112">
+      <c r="A80" s="103">
         <v>47</v>
       </c>
-      <c r="B80" s="113">
+      <c r="B80" s="104">
         <v>75</v>
       </c>
-      <c r="C80" s="114">
+      <c r="C80" s="105">
         <v>155.80000000000001</v>
       </c>
-      <c r="D80" s="121">
+      <c r="D80" s="112">
         <v>377</v>
       </c>
-      <c r="E80" s="127">
+      <c r="E80" s="118">
         <v>2233</v>
       </c>
-      <c r="F80" s="115"/>
-      <c r="G80" s="127"/>
-      <c r="H80" s="117">
+      <c r="F80" s="106"/>
+      <c r="G80" s="118"/>
+      <c r="H80" s="108">
         <f>SUM(B80+D80+F80)</f>
         <v>452</v>
       </c>
-      <c r="I80" s="128">
+      <c r="I80" s="119">
         <f t="shared" si="15"/>
         <v>2388.8000000000002</v>
       </c>
-      <c r="J80" s="99"/>
-      <c r="K80" s="76"/>
-      <c r="L80" s="84"/>
+      <c r="J80" s="90"/>
+      <c r="K80" s="69"/>
+      <c r="L80" s="75"/>
     </row>
     <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="76"/>
-      <c r="B81" s="76"/>
-      <c r="C81" s="76"/>
-      <c r="D81" s="76"/>
-      <c r="E81" s="76"/>
-      <c r="F81" s="76"/>
-      <c r="G81" s="76"/>
-      <c r="H81" s="125">
+      <c r="A81" s="69"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="69"/>
+      <c r="D81" s="69"/>
+      <c r="E81" s="69"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="69"/>
+      <c r="H81" s="116">
         <f>SUM(H77:H80)</f>
         <v>1807</v>
       </c>
-      <c r="I81" s="84">
+      <c r="I81" s="75">
         <v>1024</v>
       </c>
-      <c r="J81" s="76"/>
-      <c r="K81" s="76"/>
-      <c r="L81" s="76"/>
+      <c r="J81" s="69"/>
+      <c r="K81" s="69"/>
+      <c r="L81" s="69"/>
     </row>
     <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="76" t="s">
+      <c r="A82" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="76" t="s">
+      <c r="B82" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="76"/>
-      <c r="D82" s="76"/>
-      <c r="E82" s="76"/>
-      <c r="F82" s="76"/>
-      <c r="G82" s="76"/>
-      <c r="H82" s="76"/>
-      <c r="I82" s="76"/>
-      <c r="J82" s="76"/>
-      <c r="K82" s="76"/>
-      <c r="L82" s="76"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="69"/>
+      <c r="F82" s="69"/>
+      <c r="G82" s="69"/>
+      <c r="H82" s="69"/>
+      <c r="I82" s="69"/>
+      <c r="J82" s="69"/>
+      <c r="K82" s="69"/>
+      <c r="L82" s="69"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="73" t="s">
+      <c r="A83" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="74" t="s">
+      <c r="B83" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="75" t="s">
+      <c r="C83" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D83" s="74" t="s">
+      <c r="D83" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="75" t="s">
+      <c r="E83" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="74" t="s">
+      <c r="F83" s="94"/>
+      <c r="G83" s="94"/>
+      <c r="H83" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="I83" s="75" t="s">
+      <c r="I83" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="J83" s="99"/>
-      <c r="K83" s="76"/>
-      <c r="L83" s="76"/>
+      <c r="J83" s="90"/>
+      <c r="K83" s="69"/>
+      <c r="L83" s="69"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="77" t="s">
+      <c r="A84" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="78" t="s">
+      <c r="B84" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="79"/>
-      <c r="D84" s="78" t="s">
+      <c r="C84" s="124"/>
+      <c r="D84" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="79"/>
-      <c r="F84" s="95"/>
-      <c r="G84" s="95"/>
-      <c r="H84" s="132" t="s">
+      <c r="E84" s="124"/>
+      <c r="F84" s="86"/>
+      <c r="G84" s="86"/>
+      <c r="H84" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="I84" s="133"/>
-      <c r="J84" s="96"/>
-      <c r="K84" s="76"/>
-      <c r="L84" s="76"/>
+      <c r="I84" s="126"/>
+      <c r="J84" s="87"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="77">
+      <c r="A85" s="70">
         <v>0</v>
       </c>
-      <c r="B85" s="80">
+      <c r="B85" s="71">
         <v>20</v>
       </c>
-      <c r="C85" s="81">
+      <c r="C85" s="72">
         <v>47.96</v>
       </c>
-      <c r="D85" s="82">
+      <c r="D85" s="73">
         <v>254</v>
       </c>
-      <c r="E85" s="83">
+      <c r="E85" s="74">
         <v>540.29999999999995</v>
       </c>
-      <c r="F85" s="95"/>
-      <c r="G85" s="95"/>
+      <c r="F85" s="86"/>
+      <c r="G85" s="86"/>
       <c r="H85" s="49">
         <f>SUM(B85+D85)</f>
         <v>274</v>
       </c>
-      <c r="I85" s="81">
+      <c r="I85" s="72">
         <f>SUM(C85+E85)</f>
         <v>588.26</v>
       </c>
-      <c r="J85" s="99"/>
-      <c r="K85" s="76"/>
-      <c r="L85" s="84">
+      <c r="J85" s="90"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="75">
         <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="77">
+      <c r="A86" s="70">
         <v>3</v>
       </c>
-      <c r="B86" s="80">
+      <c r="B86" s="71">
         <v>8</v>
       </c>
-      <c r="C86" s="81">
+      <c r="C86" s="72">
         <v>87.97</v>
       </c>
-      <c r="D86" s="82">
+      <c r="D86" s="73">
         <v>336</v>
       </c>
-      <c r="E86" s="83">
+      <c r="E86" s="74">
         <v>1643</v>
       </c>
-      <c r="F86" s="95"/>
-      <c r="G86" s="95"/>
-      <c r="H86" s="82">
+      <c r="F86" s="86"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="73">
         <f t="shared" ref="H86:H87" si="16">SUM(B86+D86)</f>
         <v>344</v>
       </c>
-      <c r="I86" s="81">
+      <c r="I86" s="72">
         <f>SUM(C86+E86)</f>
         <v>1730.97</v>
       </c>
-      <c r="J86" s="99"/>
-      <c r="K86" s="76" t="s">
+      <c r="J86" s="90"/>
+      <c r="K86" s="69" t="s">
         <v>54</v>
       </c>
-      <c r="L86" s="84">
+      <c r="L86" s="75">
         <v>1024</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="85">
+      <c r="A87" s="76">
         <v>163</v>
       </c>
-      <c r="B87" s="86">
+      <c r="B87" s="77">
         <v>17</v>
       </c>
-      <c r="C87" s="87">
+      <c r="C87" s="78">
         <v>53.38</v>
       </c>
-      <c r="D87" s="88">
+      <c r="D87" s="79">
         <v>6</v>
       </c>
-      <c r="E87" s="89">
+      <c r="E87" s="80">
         <v>976.9</v>
       </c>
-      <c r="F87" s="104"/>
-      <c r="G87" s="104"/>
-      <c r="H87" s="88">
+      <c r="F87" s="95"/>
+      <c r="G87" s="95"/>
+      <c r="H87" s="79">
         <f t="shared" si="16"/>
         <v>23</v>
       </c>
-      <c r="I87" s="87">
+      <c r="I87" s="78">
         <f t="shared" ref="I87" si="17">SUM(C87+E87)</f>
         <v>1030.28</v>
       </c>
-      <c r="J87" s="99"/>
-      <c r="K87" s="76"/>
-      <c r="L87" s="84">
+      <c r="J87" s="90"/>
+      <c r="K87" s="69"/>
+      <c r="L87" s="75">
         <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="76"/>
-      <c r="B88" s="76"/>
-      <c r="C88" s="76"/>
-      <c r="D88" s="76"/>
-      <c r="E88" s="76"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="76"/>
-      <c r="H88" s="76"/>
-      <c r="I88" s="76"/>
-      <c r="J88" s="76"/>
-      <c r="K88" s="76"/>
-      <c r="L88" s="76"/>
+      <c r="A88" s="69"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="69"/>
+      <c r="D88" s="69"/>
+      <c r="E88" s="69"/>
+      <c r="F88" s="69"/>
+      <c r="G88" s="69"/>
+      <c r="H88" s="69"/>
+      <c r="I88" s="69"/>
+      <c r="J88" s="69"/>
+      <c r="K88" s="69"/>
+      <c r="L88" s="69"/>
     </row>
     <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="76" t="s">
+      <c r="B89" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="76"/>
-      <c r="D89" s="76"/>
-      <c r="E89" s="76"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="76"/>
-      <c r="H89" s="76"/>
-      <c r="I89" s="76"/>
-      <c r="J89" s="76"/>
-      <c r="K89" s="76"/>
-      <c r="L89" s="76"/>
+      <c r="C89" s="69"/>
+      <c r="D89" s="69"/>
+      <c r="E89" s="69"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="69"/>
+      <c r="H89" s="69"/>
+      <c r="I89" s="69"/>
+      <c r="J89" s="69"/>
+      <c r="K89" s="69"/>
+      <c r="L89" s="69"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="73" t="s">
+      <c r="A90" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B90" s="74" t="s">
+      <c r="B90" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="75" t="s">
+      <c r="C90" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D90" s="90" t="s">
+      <c r="D90" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="75" t="s">
+      <c r="E90" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F90" s="103"/>
-      <c r="G90" s="103"/>
-      <c r="H90" s="74" t="s">
+      <c r="F90" s="94"/>
+      <c r="G90" s="94"/>
+      <c r="H90" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="I90" s="75" t="s">
+      <c r="I90" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="J90" s="99"/>
-      <c r="K90" s="76"/>
-      <c r="L90" s="76"/>
+      <c r="J90" s="90"/>
+      <c r="K90" s="69"/>
+      <c r="L90" s="69"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="77" t="s">
+      <c r="A91" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="78" t="s">
+      <c r="B91" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="C91" s="79"/>
-      <c r="D91" s="78" t="s">
+      <c r="C91" s="124"/>
+      <c r="D91" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="79"/>
-      <c r="F91" s="95"/>
-      <c r="G91" s="95"/>
-      <c r="H91" s="132" t="s">
+      <c r="E91" s="124"/>
+      <c r="F91" s="86"/>
+      <c r="G91" s="86"/>
+      <c r="H91" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="I91" s="133"/>
-      <c r="J91" s="96"/>
-      <c r="K91" s="91" t="s">
+      <c r="I91" s="126"/>
+      <c r="J91" s="87"/>
+      <c r="K91" s="82" t="s">
         <v>51</v>
       </c>
-      <c r="L91" s="76"/>
+      <c r="L91" s="69"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="77">
+      <c r="A92" s="70">
         <v>3</v>
       </c>
-      <c r="B92" s="80">
+      <c r="B92" s="71">
         <v>8</v>
       </c>
-      <c r="C92" s="81">
+      <c r="C92" s="72">
         <v>87.97</v>
       </c>
-      <c r="D92" s="82">
+      <c r="D92" s="73">
         <v>336</v>
       </c>
-      <c r="E92" s="83">
+      <c r="E92" s="74">
         <v>1643</v>
       </c>
-      <c r="F92" s="95"/>
-      <c r="G92" s="95"/>
+      <c r="F92" s="86"/>
+      <c r="G92" s="86"/>
       <c r="H92" s="49">
         <f>SUM(B92+D92)</f>
         <v>344</v>
       </c>
-      <c r="I92" s="81">
+      <c r="I92" s="72">
         <f>SUM(C92+E92)</f>
         <v>1730.97</v>
       </c>
-      <c r="J92" s="99"/>
-      <c r="K92" s="65">
+      <c r="J92" s="90"/>
+      <c r="K92" s="58">
         <f>SUM(H92:H95)</f>
         <v>2053</v>
       </c>
-      <c r="L92" s="84">
+      <c r="L92" s="75">
         <v>1024</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="77">
+      <c r="A93" s="70">
         <v>12</v>
       </c>
-      <c r="B93" s="80">
+      <c r="B93" s="71">
         <v>134</v>
       </c>
-      <c r="C93" s="81">
+      <c r="C93" s="72">
         <v>160.69999999999999</v>
       </c>
-      <c r="D93" s="92">
+      <c r="D93" s="83">
         <v>495</v>
       </c>
-      <c r="E93" s="83">
+      <c r="E93" s="74">
         <v>1844</v>
       </c>
-      <c r="F93" s="95"/>
-      <c r="G93" s="95"/>
+      <c r="F93" s="86"/>
+      <c r="G93" s="86"/>
       <c r="H93" s="49">
         <f t="shared" ref="H93" si="18">SUM(B93+D93)</f>
         <v>629</v>
       </c>
-      <c r="I93" s="81">
+      <c r="I93" s="72">
         <f>SUM(C93+E93)</f>
         <v>2004.7</v>
       </c>
-      <c r="J93" s="99"/>
-      <c r="K93" s="76"/>
-      <c r="L93" s="76"/>
+      <c r="J93" s="90"/>
+      <c r="K93" s="69"/>
+      <c r="L93" s="69"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="77">
+      <c r="A94" s="70">
         <v>27</v>
       </c>
-      <c r="B94" s="80">
+      <c r="B94" s="71">
         <v>31</v>
       </c>
-      <c r="C94" s="81">
+      <c r="C94" s="72">
         <v>228.8</v>
       </c>
-      <c r="D94" s="92">
+      <c r="D94" s="83">
         <v>34</v>
       </c>
-      <c r="E94" s="83">
+      <c r="E94" s="74">
         <v>1353</v>
       </c>
-      <c r="F94" s="95"/>
-      <c r="G94" s="95"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="86"/>
       <c r="H94" s="49">
         <f>SUM(B94+D95)</f>
         <v>505</v>
       </c>
-      <c r="I94" s="81">
+      <c r="I94" s="72">
         <f>SUM(C94+E94)</f>
         <v>1581.8</v>
       </c>
-      <c r="J94" s="99"/>
-      <c r="K94" s="76"/>
-      <c r="L94" s="84"/>
+      <c r="J94" s="90"/>
+      <c r="K94" s="69"/>
+      <c r="L94" s="75"/>
     </row>
     <row r="95" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="85">
+      <c r="A95" s="76">
         <v>47</v>
       </c>
-      <c r="B95" s="86">
+      <c r="B95" s="77">
         <v>101</v>
       </c>
-      <c r="C95" s="87">
+      <c r="C95" s="78">
         <v>159.30000000000001</v>
       </c>
-      <c r="D95" s="93">
+      <c r="D95" s="84">
         <v>474</v>
       </c>
-      <c r="E95" s="89">
+      <c r="E95" s="80">
         <v>1953</v>
       </c>
-      <c r="F95" s="104"/>
-      <c r="G95" s="104"/>
-      <c r="H95" s="66">
+      <c r="F95" s="95"/>
+      <c r="G95" s="95"/>
+      <c r="H95" s="59">
         <f>SUM(B95+D95)</f>
         <v>575</v>
       </c>
-      <c r="I95" s="87">
+      <c r="I95" s="78">
         <f t="shared" ref="I95" si="19">SUM(C95+E95)</f>
         <v>2112.3000000000002</v>
       </c>
-      <c r="J95" s="99"/>
-      <c r="K95" s="76"/>
-      <c r="L95" s="84"/>
+      <c r="J95" s="90"/>
+      <c r="K95" s="69"/>
+      <c r="L95" s="75"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D103" s="22"/>
@@ -4288,49 +4307,24 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B109" s="26"/>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="143" t="s">
         <v>38</v>
       </c>
-      <c r="D109" s="58"/>
-      <c r="E109" s="58"/>
-      <c r="F109" s="58"/>
-      <c r="G109" s="58"/>
-      <c r="H109" s="58"/>
-      <c r="I109" s="58" t="s">
+      <c r="D109" s="143"/>
+      <c r="E109" s="143"/>
+      <c r="F109" s="143"/>
+      <c r="G109" s="143"/>
+      <c r="H109" s="143"/>
+      <c r="I109" s="143" t="s">
         <v>39</v>
       </c>
-      <c r="J109" s="58"/>
-      <c r="K109" s="58"/>
-      <c r="L109" s="58"/>
-      <c r="M109" s="58"/>
+      <c r="J109" s="143"/>
+      <c r="K109" s="143"/>
+      <c r="L109" s="143"/>
+      <c r="M109" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A18:M18"/>
     <mergeCell ref="C109:H109"/>
     <mergeCell ref="I109:M109"/>
     <mergeCell ref="B27:C27"/>
@@ -4345,6 +4339,31 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="H54:I54"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="H76:I76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rulelearning/结果.xlsx
+++ b/rulelearning/结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA3D6A0-9AD2-4CC1-8739-4E78D0CDBC37}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA8C2AC-4A2E-4388-B12C-3A4DD6F35821}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="88">
   <si>
     <t>Entities</t>
   </si>
@@ -400,10 +400,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notop.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不要去掉，不要上限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>github之前注意win被改成了DB的参数！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>len=4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -465,6 +457,50 @@
   </si>
   <si>
     <t>对于index=52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100-300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始跑DB的了，即使是在大的K上进行评估，看看效果？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RLvLR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time( s )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time( h )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time( h )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notoplen=4.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memorry error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5h limit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,8 +691,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -982,57 +1024,76 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right/>
       <top style="medium">
         <color rgb="FFC00000"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="medium">
         <color rgb="FFC00000"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC00000"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color rgb="FFC00000"/>
       </right>
       <top style="medium">
         <color rgb="FFC00000"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1042,8 +1103,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -1055,12 +1116,8 @@
       <right style="medium">
         <color rgb="FFC00000"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1074,33 +1131,25 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FFC00000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color rgb="FFC00000"/>
       </bottom>
@@ -1110,12 +1159,10 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color rgb="FFC00000"/>
       </bottom>
@@ -1123,86 +1170,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFC00000"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC00000"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC00000"/>
-      </left>
       <right style="medium">
         <color rgb="FFC00000"/>
       </right>
@@ -1213,33 +1180,38 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FFC00000"/>
       </left>
       <right style="medium">
-        <color rgb="FFC00000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color rgb="FFC00000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFC00000"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1249,8 +1221,108 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC00000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1293,7 +1365,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1481,9 +1553,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1572,91 +1641,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1665,10 +1669,49 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,56 +1720,129 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2045,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2067,7 +2183,7 @@
     <col min="13" max="13" width="10.875" customWidth="1"/>
     <col min="14" max="14" width="16.375" customWidth="1"/>
     <col min="15" max="15" width="50.125" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="16" max="16" width="19.125" customWidth="1"/>
     <col min="21" max="21" width="8.5" customWidth="1"/>
     <col min="22" max="22" width="22.5" customWidth="1"/>
     <col min="23" max="23" width="22.625" customWidth="1"/>
@@ -2204,16 +2320,16 @@
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="137" t="s">
+      <c r="B6" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="131">
+      <c r="C6" s="105">
         <v>14951</v>
       </c>
-      <c r="D6" s="131">
+      <c r="D6" s="105">
         <v>1345</v>
       </c>
       <c r="E6" s="18"/>
@@ -2222,7 +2338,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="140" t="s">
+      <c r="K6" s="114" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="15" t="s">
@@ -2231,17 +2347,17 @@
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="135"/>
-      <c r="B7" s="138"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="18"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="141"/>
+      <c r="K7" s="115"/>
       <c r="L7" s="11" t="s">
         <v>16</v>
       </c>
@@ -2250,17 +2366,17 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="136"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
+      <c r="A8" s="110"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="107"/>
+      <c r="D8" s="107"/>
       <c r="E8" s="18"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="142"/>
+      <c r="K8" s="116"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
     </row>
@@ -2336,7 +2452,7 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="120" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="14">
@@ -2359,7 +2475,7 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="130"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="17">
         <v>241158</v>
       </c>
@@ -2380,7 +2496,7 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="120" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="14">
@@ -2403,7 +2519,7 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="130"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="17">
         <v>175412</v>
       </c>
@@ -2442,55 +2558,55 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="144"/>
-      <c r="I18" s="144"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
+      <c r="B18" s="122"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="122"/>
+      <c r="M18" s="122"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
-      <c r="J19" s="143"/>
-      <c r="K19" s="143"/>
-      <c r="L19" s="143"/>
-      <c r="M19" s="143"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100"/>
+      <c r="M19" s="100"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="100" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="143"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="143"/>
-      <c r="M20" s="143"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100"/>
+      <c r="M20" s="100"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -2521,8 +2637,8 @@
       <c r="E26" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
       <c r="H26" s="31" t="s">
         <v>44</v>
       </c>
@@ -2535,21 +2651,21 @@
       <c r="A27" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="145" t="s">
+      <c r="B27" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="146"/>
-      <c r="D27" s="145" t="s">
+      <c r="C27" s="102"/>
+      <c r="D27" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="146"/>
+      <c r="E27" s="102"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
-      <c r="H27" s="125" t="s">
+      <c r="H27" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="126"/>
-      <c r="J27" s="87"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="86"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="48">
@@ -2567,8 +2683,8 @@
       <c r="E28" s="52">
         <v>212.6</v>
       </c>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
       <c r="H28" s="49">
         <f>SUM(B28+D28)</f>
         <v>173</v>
@@ -2577,7 +2693,7 @@
         <f>SUM(C28+E28)</f>
         <v>237.09</v>
       </c>
-      <c r="J28" s="88"/>
+      <c r="J28" s="87"/>
       <c r="L28" s="25">
         <v>137</v>
       </c>
@@ -2629,9 +2745,9 @@
       <c r="E30" s="52">
         <v>53.54</v>
       </c>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="121">
+      <c r="F30" s="84"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="96">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
@@ -2639,7 +2755,7 @@
         <f>SUM(C30+E30)</f>
         <v>87.960000000000008</v>
       </c>
-      <c r="J30" s="88"/>
+      <c r="J30" s="87"/>
       <c r="L30" s="25">
         <v>52</v>
       </c>
@@ -2658,8 +2774,8 @@
         <v>0</v>
       </c>
       <c r="E31" s="41"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="92"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
       <c r="H31" s="47">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2697,8 +2813,8 @@
       <c r="E34" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
       <c r="H34" s="31" t="s">
         <v>44</v>
       </c>
@@ -2711,21 +2827,21 @@
       <c r="A35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="145" t="s">
+      <c r="B35" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="146"/>
-      <c r="D35" s="145" t="s">
+      <c r="C35" s="102"/>
+      <c r="D35" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="146"/>
+      <c r="E35" s="102"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="125" t="s">
+      <c r="H35" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="126"/>
-      <c r="J35" s="87"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="86"/>
       <c r="K35" s="24" t="s">
         <v>51</v>
       </c>
@@ -2838,8 +2954,8 @@
       <c r="E39" s="41">
         <v>531</v>
       </c>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
+      <c r="F39" s="91"/>
+      <c r="G39" s="91"/>
       <c r="H39" s="47">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -2862,17 +2978,17 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="128" t="s">
+      <c r="A43" s="117" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="128"/>
-      <c r="G43" s="128"/>
-      <c r="H43" s="128"/>
-      <c r="I43" s="128"/>
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
       <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -2899,8 +3015,8 @@
       <c r="E45" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
+      <c r="F45" s="90"/>
+      <c r="G45" s="90"/>
       <c r="H45" s="31" t="s">
         <v>44</v>
       </c>
@@ -2917,21 +3033,21 @@
       <c r="A46" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="145" t="s">
+      <c r="B46" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="146"/>
-      <c r="D46" s="145" t="s">
+      <c r="C46" s="102"/>
+      <c r="D46" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="146"/>
+      <c r="E46" s="102"/>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
-      <c r="H46" s="125" t="s">
+      <c r="H46" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="I46" s="126"/>
-      <c r="J46" s="87"/>
+      <c r="I46" s="104"/>
+      <c r="J46" s="86"/>
       <c r="N46" s="20"/>
       <c r="O46" s="20"/>
       <c r="P46" s="20"/>
@@ -2953,8 +3069,8 @@
       <c r="E47" s="52">
         <v>230.9</v>
       </c>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="84"/>
       <c r="H47" s="49">
         <f>SUM(B47+D47)</f>
         <v>227</v>
@@ -2963,7 +3079,7 @@
         <f>SUM(C47+E47)</f>
         <v>278.84000000000003</v>
       </c>
-      <c r="J47" s="88"/>
+      <c r="J47" s="87"/>
       <c r="L47" s="25">
         <v>137</v>
       </c>
@@ -2988,8 +3104,8 @@
       <c r="E48" s="64">
         <v>340</v>
       </c>
-      <c r="F48" s="93"/>
-      <c r="G48" s="93"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
       <c r="H48" s="63">
         <f t="shared" ref="H48:H50" si="4">SUM(B48+D48)</f>
         <v>446</v>
@@ -2998,7 +3114,7 @@
         <f>SUM(C48+E48)</f>
         <v>452.1</v>
       </c>
-      <c r="J48" s="89"/>
+      <c r="J48" s="88"/>
       <c r="K48" t="s">
         <v>54</v>
       </c>
@@ -3022,9 +3138,9 @@
       <c r="E49" s="52">
         <v>95.87</v>
       </c>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="121">
+      <c r="F49" s="84"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="96">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
@@ -3032,7 +3148,7 @@
         <f>SUM(C49+E49)</f>
         <v>134.09</v>
       </c>
-      <c r="J49" s="88"/>
+      <c r="J49" s="87"/>
       <c r="L49" s="25">
         <v>52</v>
       </c>
@@ -3053,8 +3169,8 @@
       <c r="E50" s="41">
         <v>424.8</v>
       </c>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
+      <c r="F50" s="91"/>
+      <c r="G50" s="91"/>
       <c r="H50" s="47">
         <f t="shared" si="4"/>
         <v>19</v>
@@ -3092,8 +3208,8 @@
       <c r="E53" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="91"/>
-      <c r="G53" s="91"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
       <c r="H53" s="31" t="s">
         <v>44</v>
       </c>
@@ -3106,21 +3222,21 @@
       <c r="A54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="145" t="s">
+      <c r="B54" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="146"/>
-      <c r="D54" s="145" t="s">
+      <c r="C54" s="102"/>
+      <c r="D54" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="146"/>
+      <c r="E54" s="102"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
-      <c r="H54" s="125" t="s">
+      <c r="H54" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="126"/>
-      <c r="J54" s="87"/>
+      <c r="I54" s="104"/>
+      <c r="J54" s="86"/>
       <c r="K54" s="24" t="s">
         <v>51</v>
       </c>
@@ -3233,8 +3349,8 @@
       <c r="E58" s="41">
         <v>510.9</v>
       </c>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
+      <c r="F58" s="91"/>
+      <c r="G58" s="91"/>
       <c r="H58" s="59">
         <f>SUM(B58+D58)</f>
         <v>111</v>
@@ -3272,8 +3388,8 @@
       <c r="E61" s="41">
         <v>566.1</v>
       </c>
-      <c r="F61" s="92"/>
-      <c r="G61" s="92"/>
+      <c r="F61" s="91"/>
+      <c r="G61" s="91"/>
       <c r="H61" s="47">
         <f t="shared" ref="H61" si="8">SUM(B61+D61)</f>
         <v>201</v>
@@ -3303,8 +3419,8 @@
       <c r="E62" s="41">
         <v>919.4</v>
       </c>
-      <c r="F62" s="92"/>
-      <c r="G62" s="92"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
       <c r="H62" s="59">
         <f>SUM(B62+D62)</f>
         <v>240</v>
@@ -3334,8 +3450,8 @@
       <c r="E63" s="41">
         <v>629.79999999999995</v>
       </c>
-      <c r="F63" s="92"/>
-      <c r="G63" s="92"/>
+      <c r="F63" s="91"/>
+      <c r="G63" s="91"/>
       <c r="H63" s="47">
         <f t="shared" ref="H63:H64" si="10">SUM(B63+D63)</f>
         <v>157</v>
@@ -3365,8 +3481,8 @@
       <c r="E64" s="41">
         <v>583.79999999999995</v>
       </c>
-      <c r="F64" s="92"/>
-      <c r="G64" s="92"/>
+      <c r="F64" s="91"/>
+      <c r="G64" s="91"/>
       <c r="H64" s="47">
         <f t="shared" si="10"/>
         <v>194</v>
@@ -3385,948 +3501,1135 @@
       <c r="B65" s="27"/>
       <c r="C65" s="27"/>
       <c r="D65" s="27"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="69"/>
+      <c r="J65" s="89"/>
+      <c r="K65" s="68"/>
     </row>
     <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="27"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="27"/>
+      <c r="J66" s="89"/>
+      <c r="K66" s="68"/>
+    </row>
+    <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="C67" s="131"/>
+      <c r="D67" s="131"/>
+      <c r="E67" s="131"/>
+      <c r="F67" s="131"/>
+      <c r="G67" s="131"/>
+      <c r="H67" s="131"/>
+      <c r="I67" s="131"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="133"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A68" s="134" t="s">
         <v>62</v>
       </c>
-      <c r="J66" s="87"/>
-      <c r="K66" s="82"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A67" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="B67" s="98" t="s">
+      <c r="B68" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C67" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" s="98" t="s">
+      <c r="C68" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E67" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="98" t="s">
+      <c r="E68" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G67" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="H67" s="98" t="s">
+      <c r="G68" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="I67" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="J67" s="90"/>
-      <c r="L67" s="69"/>
-      <c r="O67" s="65" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="101" t="s">
+      <c r="I68" s="67" t="s">
+        <v>83</v>
+      </c>
+      <c r="J68" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="K68" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="L68" s="68"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B68" s="123" t="s">
+      <c r="B69" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C68" s="124"/>
-      <c r="D68" s="123" t="s">
+      <c r="C69" s="119"/>
+      <c r="D69" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="E68" s="124"/>
-      <c r="F68" s="123" t="s">
-        <v>69</v>
-      </c>
-      <c r="G68" s="124"/>
-      <c r="H68" s="125" t="s">
+      <c r="E69" s="119"/>
+      <c r="F69" s="118" t="s">
+        <v>67</v>
+      </c>
+      <c r="G69" s="119"/>
+      <c r="H69" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="I68" s="127"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="69"/>
-      <c r="L68" s="69"/>
-      <c r="O68" t="s">
+      <c r="I69" s="104"/>
+      <c r="J69" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="K69" s="136"/>
+      <c r="L69" s="68"/>
+    </row>
+    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="155">
+        <v>0</v>
+      </c>
+      <c r="B70" s="156">
+        <v>20</v>
+      </c>
+      <c r="C70" s="157">
+        <v>54.03</v>
+      </c>
+      <c r="D70" s="158">
+        <v>239</v>
+      </c>
+      <c r="E70" s="159">
+        <v>605.79999999999995</v>
+      </c>
+      <c r="F70" s="158">
+        <v>142</v>
+      </c>
+      <c r="G70" s="159">
+        <v>3415</v>
+      </c>
+      <c r="H70" s="158">
+        <f>SUM(B70+D70+F70)</f>
+        <v>401</v>
+      </c>
+      <c r="I70" s="159">
+        <f>SUM(C70+E70+G70)/3600</f>
+        <v>1.1318972222222221</v>
+      </c>
+      <c r="J70" s="87">
+        <v>137</v>
+      </c>
+      <c r="K70" s="137" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A71" s="165">
+        <v>3</v>
+      </c>
+      <c r="B71" s="166">
+        <v>11</v>
+      </c>
+      <c r="C71" s="167">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="D71" s="168">
+        <v>368</v>
+      </c>
+      <c r="E71" s="169">
+        <v>1813</v>
+      </c>
+      <c r="F71" s="168">
+        <v>82</v>
+      </c>
+      <c r="G71" s="169">
+        <v>11701</v>
+      </c>
+      <c r="H71" s="66">
+        <f>SUM(B71+D71+F71)</f>
+        <v>461</v>
+      </c>
+      <c r="I71" s="170">
+        <f>SUM(C71+E71+G71)/3600</f>
+        <v>3.7910555555555554</v>
+      </c>
+      <c r="J71" s="89">
+        <v>1024</v>
+      </c>
+      <c r="K71" s="135" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="69">
+        <v>12</v>
+      </c>
+      <c r="B72" s="97">
+        <v>152</v>
+      </c>
+      <c r="C72" s="71">
+        <v>182.1</v>
+      </c>
+      <c r="D72" s="72">
+        <v>490</v>
+      </c>
+      <c r="E72" s="98">
+        <v>1966</v>
+      </c>
+      <c r="F72" s="72"/>
+      <c r="G72" s="98"/>
+      <c r="H72" s="72">
+        <f t="shared" ref="H72:H76" si="12">SUM(B72+D72+F72)</f>
+        <v>642</v>
+      </c>
+      <c r="I72" s="98">
+        <f t="shared" ref="I72:I76" si="13">SUM(C72+E72+G72)/3600</f>
+        <v>0.59669444444444442</v>
+      </c>
+      <c r="J72" s="89"/>
+      <c r="K72" s="135"/>
+      <c r="O72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A73" s="69">
+        <v>27</v>
+      </c>
+      <c r="B73" s="97">
+        <v>24</v>
+      </c>
+      <c r="C73" s="71">
+        <v>102</v>
+      </c>
+      <c r="D73" s="72">
+        <v>307</v>
+      </c>
+      <c r="E73" s="98">
+        <v>1386</v>
+      </c>
+      <c r="F73" s="72"/>
+      <c r="G73" s="98"/>
+      <c r="H73" s="72">
+        <f>SUM(B73+D73+F73)</f>
+        <v>331</v>
+      </c>
+      <c r="I73" s="98">
+        <f t="shared" si="13"/>
+        <v>0.41333333333333333</v>
+      </c>
+      <c r="J73" s="89">
+        <f>SUM(H71:H74)</f>
+        <v>1886</v>
+      </c>
+      <c r="K73" s="135">
+        <f>SUM(I71:I74)</f>
+        <v>5.4646388888888886</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="75">
+        <v>47</v>
+      </c>
+      <c r="B74" s="76">
+        <v>75</v>
+      </c>
+      <c r="C74" s="77">
+        <v>155.80000000000001</v>
+      </c>
+      <c r="D74" s="78">
+        <v>377</v>
+      </c>
+      <c r="E74" s="79">
+        <v>2233</v>
+      </c>
+      <c r="F74" s="78"/>
+      <c r="G74" s="79"/>
+      <c r="H74" s="78">
+        <f>SUM(B74+D74+F74)</f>
+        <v>452</v>
+      </c>
+      <c r="I74" s="79">
+        <f t="shared" si="13"/>
+        <v>0.66355555555555557</v>
+      </c>
+      <c r="J74" s="89"/>
+      <c r="K74" s="135">
+        <f>K73/4</f>
+        <v>1.3661597222222222</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="P74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="102">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" s="160">
+        <v>52</v>
+      </c>
+      <c r="B75" s="161">
+        <v>5</v>
+      </c>
+      <c r="C75" s="162">
+        <v>8.5749999999999993</v>
+      </c>
+      <c r="D75" s="163">
         <v>0</v>
       </c>
-      <c r="B69" s="50">
-        <v>20</v>
-      </c>
-      <c r="C69" s="51">
-        <v>72.84</v>
-      </c>
-      <c r="D69" s="49">
-        <v>245</v>
-      </c>
-      <c r="E69" s="85">
-        <v>608.79999999999995</v>
-      </c>
-      <c r="F69" s="49"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="96">
-        <f>SUM(B69+D69+F69)</f>
-        <v>265</v>
-      </c>
-      <c r="I69" s="113">
-        <f>SUM(C69+E69+G69)</f>
-        <v>681.64</v>
-      </c>
-      <c r="J69" s="75">
-        <v>137</v>
-      </c>
-      <c r="K69" s="69"/>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A70" s="102">
-        <v>3</v>
-      </c>
-      <c r="B70" s="50">
-        <v>9</v>
-      </c>
-      <c r="C70" s="51">
-        <v>104</v>
-      </c>
-      <c r="D70" s="49">
-        <v>373</v>
-      </c>
-      <c r="E70" s="85">
-        <v>1826</v>
-      </c>
-      <c r="F70" s="49"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="96">
-        <f t="shared" ref="H70:H72" si="12">SUM(B70+D70+F70)</f>
-        <v>382</v>
-      </c>
-      <c r="I70" s="113">
-        <f>SUM(C70+E70+G70)</f>
-        <v>1930</v>
-      </c>
-      <c r="J70" s="75">
-        <v>1024</v>
-      </c>
-      <c r="K70" s="69"/>
-      <c r="N70">
-        <v>2</v>
-      </c>
-      <c r="O70" s="147" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="122">
-        <v>52</v>
-      </c>
-      <c r="B71" s="71">
-        <v>5</v>
-      </c>
-      <c r="C71" s="72">
-        <v>8.5749999999999993</v>
-      </c>
-      <c r="D71" s="73">
+      <c r="E75" s="164">
+        <v>117.4</v>
+      </c>
+      <c r="F75" s="163">
         <v>0</v>
       </c>
-      <c r="E71" s="86">
-        <v>0</v>
-      </c>
-      <c r="F71" s="73"/>
-      <c r="G71" s="86"/>
-      <c r="H71" s="109">
+      <c r="G75" s="162">
+        <v>76.59</v>
+      </c>
+      <c r="H75" s="163">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="I71" s="114">
-        <f>SUM(C71+E71+G71)</f>
-        <v>8.5749999999999993</v>
-      </c>
-      <c r="J71" s="120">
+      <c r="I75" s="164">
+        <f t="shared" si="13"/>
+        <v>5.6268055555555557E-2</v>
+      </c>
+      <c r="J75" s="138">
         <v>52</v>
       </c>
-      <c r="K71" s="69"/>
-      <c r="N71">
+      <c r="K75" s="139" t="s">
+        <v>87</v>
+      </c>
+      <c r="N75">
         <v>3</v>
       </c>
-      <c r="O71" t="s">
+      <c r="O75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="140">
+        <v>163</v>
+      </c>
+      <c r="B76" s="125">
+        <v>18</v>
+      </c>
+      <c r="C76" s="126">
+        <v>56.07</v>
+      </c>
+      <c r="D76" s="59">
+        <v>240</v>
+      </c>
+      <c r="E76" s="153">
+        <v>936.5</v>
+      </c>
+      <c r="F76" s="59">
+        <v>32</v>
+      </c>
+      <c r="G76" s="153">
+        <v>8232</v>
+      </c>
+      <c r="H76" s="59">
+        <f t="shared" si="12"/>
+        <v>290</v>
+      </c>
+      <c r="I76" s="153">
+        <f t="shared" si="13"/>
+        <v>2.5623805555555554</v>
+      </c>
+      <c r="J76" s="87">
+        <v>229</v>
+      </c>
+      <c r="K76" s="137" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" s="141"/>
+      <c r="B77" s="142"/>
+      <c r="C77" s="142"/>
+      <c r="D77" s="142"/>
+      <c r="E77" s="142"/>
+      <c r="F77" s="154" t="s">
+        <v>77</v>
+      </c>
+      <c r="G77" s="154"/>
+      <c r="H77" s="142"/>
+      <c r="I77" s="142"/>
+      <c r="J77" s="142"/>
+      <c r="K77" s="143"/>
+      <c r="O77" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="141" t="s">
+        <v>46</v>
+      </c>
+      <c r="B78" s="144" t="s">
+        <v>85</v>
+      </c>
+      <c r="C78" s="142"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="142"/>
+      <c r="F78" s="144"/>
+      <c r="G78" s="142"/>
+      <c r="H78" s="142"/>
+      <c r="I78" s="142"/>
+      <c r="J78" s="142"/>
+      <c r="K78" s="145"/>
+      <c r="O78" t="s">
+        <v>69</v>
+      </c>
+      <c r="P78" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" s="134" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F79" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" s="128" t="s">
+        <v>82</v>
+      </c>
+      <c r="H79" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I79" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="J79" s="142"/>
+      <c r="K79" s="145"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B80" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="119"/>
+      <c r="D80" s="118" t="s">
+        <v>43</v>
+      </c>
+      <c r="E80" s="119"/>
+      <c r="F80" s="118" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="103">
-        <v>163</v>
-      </c>
-      <c r="B72" s="104">
-        <v>17</v>
-      </c>
-      <c r="C72" s="105">
-        <v>55.53</v>
-      </c>
-      <c r="D72" s="106">
-        <v>236</v>
-      </c>
-      <c r="E72" s="107">
-        <v>917.2</v>
-      </c>
-      <c r="F72" s="106"/>
-      <c r="G72" s="107"/>
-      <c r="H72" s="108">
-        <f t="shared" si="12"/>
-        <v>253</v>
-      </c>
-      <c r="I72" s="115">
-        <f t="shared" ref="I72" si="13">SUM(C72+E72+G72)</f>
-        <v>972.73</v>
-      </c>
-      <c r="J72" s="75">
-        <v>229</v>
-      </c>
-      <c r="K72" s="82"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="69"/>
-      <c r="B73" s="69"/>
-      <c r="C73" s="69"/>
-      <c r="D73" s="148">
-        <v>237</v>
-      </c>
-      <c r="E73" s="88">
-        <v>1001</v>
-      </c>
-      <c r="F73" s="69"/>
-      <c r="G73" s="69"/>
-      <c r="H73" s="69"/>
-      <c r="I73" s="69"/>
-      <c r="J73" s="69"/>
-      <c r="O73" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B74" s="69" t="s">
-        <v>62</v>
-      </c>
-      <c r="C74" s="69"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
-      <c r="J74" s="69"/>
-      <c r="K74" s="69"/>
-      <c r="O74" t="s">
-        <v>71</v>
-      </c>
-      <c r="P74" t="s">
+      <c r="G80" s="129"/>
+      <c r="H80" s="127" t="s">
+        <v>58</v>
+      </c>
+      <c r="I80" s="104"/>
+      <c r="J80" s="142"/>
+      <c r="K80" s="146"/>
+      <c r="O80" t="s">
+        <v>75</v>
+      </c>
+      <c r="P80" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q80" t="s">
         <v>73</v>
       </c>
-      <c r="Q74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="97" t="s">
-        <v>63</v>
-      </c>
-      <c r="B75" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="D75" s="110" t="s">
-        <v>44</v>
-      </c>
-      <c r="E75" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="G75" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="H75" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="I75" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="J75" s="69"/>
-      <c r="K75" s="69"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A76" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="B76" s="123" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" s="124"/>
-      <c r="D76" s="123" t="s">
-        <v>43</v>
-      </c>
-      <c r="E76" s="124"/>
-      <c r="F76" s="123" t="s">
-        <v>69</v>
-      </c>
-      <c r="G76" s="124"/>
-      <c r="H76" s="125" t="s">
-        <v>58</v>
-      </c>
-      <c r="I76" s="127"/>
-      <c r="J76" s="69"/>
-      <c r="K76" s="82"/>
-      <c r="O76" t="s">
-        <v>77</v>
-      </c>
-      <c r="P76" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q76" t="s">
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A81" s="95">
+        <v>3</v>
+      </c>
+      <c r="B81" s="97">
+        <v>9</v>
+      </c>
+      <c r="C81" s="71">
+        <v>104</v>
+      </c>
+      <c r="D81" s="72">
+        <v>373</v>
+      </c>
+      <c r="E81" s="98">
+        <v>1826</v>
+      </c>
+      <c r="F81" s="72"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="72">
+        <f>SUM(B81+D81+F81)</f>
+        <v>382</v>
+      </c>
+      <c r="I81" s="98">
+        <f>SUM(C81+E81+G81)</f>
+        <v>1930</v>
+      </c>
+      <c r="J81" s="89"/>
+      <c r="K81" s="143"/>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A82" s="95">
+        <v>12</v>
+      </c>
+      <c r="B82" s="97">
+        <v>152</v>
+      </c>
+      <c r="C82" s="71">
+        <v>182.1</v>
+      </c>
+      <c r="D82" s="82">
+        <v>490</v>
+      </c>
+      <c r="E82" s="98">
+        <v>1966</v>
+      </c>
+      <c r="F82" s="82"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="72">
+        <f t="shared" ref="H82" si="14">SUM(B82+D82+F82)</f>
+        <v>642</v>
+      </c>
+      <c r="I82" s="98">
+        <f>SUM(C82+E82+G82)</f>
+        <v>2148.1</v>
+      </c>
+      <c r="J82" s="89"/>
+      <c r="K82" s="145"/>
+      <c r="L82" s="68"/>
+      <c r="O82" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="P82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A83" s="95">
+        <v>27</v>
+      </c>
+      <c r="B83" s="97">
+        <v>24</v>
+      </c>
+      <c r="C83" s="71">
+        <v>102</v>
+      </c>
+      <c r="D83" s="82">
+        <v>307</v>
+      </c>
+      <c r="E83" s="98">
+        <v>1386</v>
+      </c>
+      <c r="F83" s="82"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="72">
+        <f>SUM(B83+D83+F83)</f>
+        <v>331</v>
+      </c>
+      <c r="I83" s="98">
+        <f t="shared" ref="I83:I84" si="15">SUM(C83+E83+G83)</f>
+        <v>1488</v>
+      </c>
+      <c r="J83" s="89"/>
+      <c r="K83" s="145"/>
+      <c r="L83" s="74"/>
+    </row>
+    <row r="84" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="147">
+        <v>47</v>
+      </c>
+      <c r="B84" s="76">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="102">
-        <v>3</v>
-      </c>
-      <c r="B77" s="50">
-        <v>9</v>
-      </c>
-      <c r="C77" s="51">
-        <v>104</v>
-      </c>
-      <c r="D77" s="49">
-        <v>373</v>
-      </c>
-      <c r="E77" s="52">
-        <v>1826</v>
-      </c>
-      <c r="F77" s="49"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="96">
-        <f>SUM(B77+D77+F77)</f>
-        <v>382</v>
-      </c>
-      <c r="I77" s="117">
-        <f>SUM(C77+E77+G77)</f>
-        <v>1930</v>
-      </c>
-      <c r="J77" s="75"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A78" s="102">
-        <v>12</v>
-      </c>
-      <c r="B78" s="50">
-        <v>152</v>
-      </c>
-      <c r="C78" s="51">
-        <v>182.1</v>
-      </c>
-      <c r="D78" s="111">
-        <v>490</v>
-      </c>
-      <c r="E78" s="52">
-        <v>1966</v>
-      </c>
-      <c r="F78" s="111"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="96">
-        <f t="shared" ref="H78" si="14">SUM(B78+D78+F78)</f>
-        <v>642</v>
-      </c>
-      <c r="I78" s="117">
-        <f>SUM(C78+E78+G78)</f>
-        <v>2148.1</v>
-      </c>
-      <c r="J78" s="90"/>
-      <c r="K78" s="69"/>
-      <c r="L78" s="69"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="102">
-        <v>27</v>
-      </c>
-      <c r="B79" s="50">
-        <v>24</v>
-      </c>
-      <c r="C79" s="51">
-        <v>102</v>
-      </c>
-      <c r="D79" s="111">
-        <v>307</v>
-      </c>
-      <c r="E79" s="52">
-        <v>1386</v>
-      </c>
-      <c r="F79" s="111"/>
-      <c r="G79" s="52"/>
-      <c r="H79" s="96">
-        <f>SUM(B79+D79+F79)</f>
-        <v>331</v>
-      </c>
-      <c r="I79" s="117">
-        <f t="shared" ref="I79:I80" si="15">SUM(C79+E79+G79)</f>
-        <v>1488</v>
-      </c>
-      <c r="J79" s="90"/>
-      <c r="K79" s="69"/>
-      <c r="L79" s="75"/>
-    </row>
-    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="103">
-        <v>47</v>
-      </c>
-      <c r="B80" s="104">
-        <v>75</v>
-      </c>
-      <c r="C80" s="105">
+      <c r="C84" s="77">
         <v>155.80000000000001</v>
       </c>
-      <c r="D80" s="112">
+      <c r="D84" s="83">
         <v>377</v>
       </c>
-      <c r="E80" s="118">
+      <c r="E84" s="79">
         <v>2233</v>
       </c>
-      <c r="F80" s="106"/>
-      <c r="G80" s="118"/>
-      <c r="H80" s="108">
-        <f>SUM(B80+D80+F80)</f>
+      <c r="F84" s="78"/>
+      <c r="G84" s="94"/>
+      <c r="H84" s="78">
+        <f>SUM(B84+D84+F84)</f>
         <v>452</v>
       </c>
-      <c r="I80" s="119">
+      <c r="I84" s="79">
         <f t="shared" si="15"/>
         <v>2388.8000000000002</v>
       </c>
-      <c r="J80" s="90"/>
-      <c r="K80" s="69"/>
-      <c r="L80" s="75"/>
-    </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="69"/>
-      <c r="B81" s="69"/>
-      <c r="C81" s="69"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="69"/>
-      <c r="F81" s="69"/>
-      <c r="G81" s="69"/>
-      <c r="H81" s="116">
-        <f>SUM(H77:H80)</f>
+      <c r="J84" s="89"/>
+      <c r="K84" s="145"/>
+      <c r="L84" s="74"/>
+    </row>
+    <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="148"/>
+      <c r="B85" s="149"/>
+      <c r="C85" s="149"/>
+      <c r="D85" s="149"/>
+      <c r="E85" s="149"/>
+      <c r="F85" s="149"/>
+      <c r="G85" s="149"/>
+      <c r="H85" s="150">
+        <f>SUM(H81:H84)</f>
         <v>1807</v>
       </c>
-      <c r="I81" s="75">
+      <c r="I85" s="151">
         <v>1024</v>
       </c>
-      <c r="J81" s="69"/>
-      <c r="K81" s="69"/>
-      <c r="L81" s="69"/>
-    </row>
-    <row r="82" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="69" t="s">
+      <c r="J85" s="149"/>
+      <c r="K85" s="152"/>
+      <c r="L85" s="68"/>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A86" s="142"/>
+      <c r="B86" s="142"/>
+      <c r="C86" s="142"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="89"/>
+      <c r="I86" s="89"/>
+      <c r="J86" s="142"/>
+      <c r="K86" s="142"/>
+      <c r="L86" s="68"/>
+    </row>
+    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="69" t="s">
+      <c r="B87" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+      <c r="G87" s="68"/>
+      <c r="H87" s="68"/>
+      <c r="I87" s="68"/>
+      <c r="J87" s="68"/>
+      <c r="K87" s="68"/>
+      <c r="L87" s="68"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A88" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="69"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="69"/>
-      <c r="F82" s="69"/>
-      <c r="G82" s="69"/>
-      <c r="H82" s="69"/>
-      <c r="I82" s="69"/>
-      <c r="J82" s="69"/>
-      <c r="K82" s="69"/>
-      <c r="L82" s="69"/>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A83" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B83" s="67" t="s">
+      <c r="B88" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C83" s="68" t="s">
+      <c r="C88" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D83" s="67" t="s">
+      <c r="D88" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="E83" s="68" t="s">
+      <c r="E88" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F83" s="94"/>
-      <c r="G83" s="94"/>
-      <c r="H83" s="67" t="s">
+      <c r="F88" s="93"/>
+      <c r="G88" s="93"/>
+      <c r="H88" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="I83" s="68" t="s">
+      <c r="I88" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="J83" s="90"/>
-      <c r="K83" s="69"/>
-      <c r="L83" s="69"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A84" s="70" t="s">
+      <c r="J88" s="89"/>
+      <c r="K88" s="68"/>
+      <c r="L88" s="68"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A89" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B84" s="123" t="s">
+      <c r="B89" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C84" s="124"/>
-      <c r="D84" s="123" t="s">
+      <c r="C89" s="119"/>
+      <c r="D89" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="124"/>
-      <c r="F84" s="86"/>
-      <c r="G84" s="86"/>
-      <c r="H84" s="125" t="s">
+      <c r="E89" s="119"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="I84" s="126"/>
-      <c r="J84" s="87"/>
-      <c r="K84" s="69"/>
-      <c r="L84" s="69"/>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="70">
+      <c r="I89" s="104"/>
+      <c r="J89" s="86"/>
+      <c r="K89" s="68"/>
+      <c r="L89" s="68"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A90" s="69">
         <v>0</v>
       </c>
-      <c r="B85" s="71">
+      <c r="B90" s="70">
         <v>20</v>
       </c>
-      <c r="C85" s="72">
+      <c r="C90" s="71">
         <v>47.96</v>
       </c>
-      <c r="D85" s="73">
+      <c r="D90" s="72">
         <v>254</v>
       </c>
-      <c r="E85" s="74">
+      <c r="E90" s="73">
         <v>540.29999999999995</v>
       </c>
-      <c r="F85" s="86"/>
-      <c r="G85" s="86"/>
-      <c r="H85" s="49">
-        <f>SUM(B85+D85)</f>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="49">
+        <f>SUM(B90+D90)</f>
         <v>274</v>
       </c>
-      <c r="I85" s="72">
-        <f>SUM(C85+E85)</f>
+      <c r="I90" s="71">
+        <f>SUM(C90+E90)</f>
         <v>588.26</v>
       </c>
-      <c r="J85" s="90"/>
-      <c r="K85" s="69"/>
-      <c r="L85" s="75">
+      <c r="J90" s="89"/>
+      <c r="K90" s="68"/>
+      <c r="L90" s="74">
         <v>137</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A86" s="70">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A91" s="69">
         <v>3</v>
       </c>
-      <c r="B86" s="71">
+      <c r="B91" s="70">
         <v>8</v>
       </c>
-      <c r="C86" s="72">
+      <c r="C91" s="71">
         <v>87.97</v>
       </c>
-      <c r="D86" s="73">
+      <c r="D91" s="72">
         <v>336</v>
       </c>
-      <c r="E86" s="74">
+      <c r="E91" s="73">
         <v>1643</v>
       </c>
-      <c r="F86" s="86"/>
-      <c r="G86" s="86"/>
-      <c r="H86" s="73">
-        <f t="shared" ref="H86:H87" si="16">SUM(B86+D86)</f>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="72">
+        <f t="shared" ref="H91:H92" si="16">SUM(B91+D91)</f>
         <v>344</v>
       </c>
-      <c r="I86" s="72">
-        <f>SUM(C86+E86)</f>
+      <c r="I91" s="71">
+        <f>SUM(C91+E91)</f>
         <v>1730.97</v>
       </c>
-      <c r="J86" s="90"/>
-      <c r="K86" s="69" t="s">
+      <c r="J91" s="89"/>
+      <c r="K91" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="L86" s="75">
+      <c r="L91" s="74">
         <v>1024</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="76">
+    <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="75">
         <v>163</v>
       </c>
-      <c r="B87" s="77">
+      <c r="B92" s="76">
         <v>17</v>
       </c>
-      <c r="C87" s="78">
+      <c r="C92" s="77">
         <v>53.38</v>
       </c>
-      <c r="D87" s="79">
+      <c r="D92" s="78">
         <v>6</v>
       </c>
-      <c r="E87" s="80">
+      <c r="E92" s="79">
         <v>976.9</v>
       </c>
-      <c r="F87" s="95"/>
-      <c r="G87" s="95"/>
-      <c r="H87" s="79">
+      <c r="F92" s="94"/>
+      <c r="G92" s="94"/>
+      <c r="H92" s="78">
         <f t="shared" si="16"/>
         <v>23</v>
       </c>
-      <c r="I87" s="78">
-        <f t="shared" ref="I87" si="17">SUM(C87+E87)</f>
+      <c r="I92" s="77">
+        <f t="shared" ref="I92" si="17">SUM(C92+E92)</f>
         <v>1030.28</v>
       </c>
-      <c r="J87" s="90"/>
-      <c r="K87" s="69"/>
-      <c r="L87" s="75">
+      <c r="J92" s="89"/>
+      <c r="K92" s="68"/>
+      <c r="L92" s="74">
         <v>229</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A88" s="69"/>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="69"/>
-      <c r="F88" s="69"/>
-      <c r="G88" s="69"/>
-      <c r="H88" s="69"/>
-      <c r="I88" s="69"/>
-      <c r="J88" s="69"/>
-      <c r="K88" s="69"/>
-      <c r="L88" s="69"/>
-    </row>
-    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="69" t="s">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="68"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="68"/>
+      <c r="F93" s="68"/>
+      <c r="G93" s="68"/>
+      <c r="H93" s="68"/>
+      <c r="I93" s="68"/>
+      <c r="J93" s="68"/>
+      <c r="K93" s="68"/>
+      <c r="L93" s="68"/>
+    </row>
+    <row r="94" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="B89" s="69" t="s">
+      <c r="B94" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="68"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="68"/>
+      <c r="F94" s="68"/>
+      <c r="G94" s="68"/>
+      <c r="H94" s="68"/>
+      <c r="I94" s="68"/>
+      <c r="J94" s="68"/>
+      <c r="K94" s="68"/>
+      <c r="L94" s="68"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A95" s="65" t="s">
         <v>64</v>
       </c>
-      <c r="C89" s="69"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="69"/>
-      <c r="F89" s="69"/>
-      <c r="G89" s="69"/>
-      <c r="H89" s="69"/>
-      <c r="I89" s="69"/>
-      <c r="J89" s="69"/>
-      <c r="K89" s="69"/>
-      <c r="L89" s="69"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A90" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B90" s="67" t="s">
+      <c r="B95" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C90" s="68" t="s">
+      <c r="C95" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D90" s="81" t="s">
+      <c r="D95" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="E90" s="68" t="s">
+      <c r="E95" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F90" s="94"/>
-      <c r="G90" s="94"/>
-      <c r="H90" s="67" t="s">
+      <c r="F95" s="93"/>
+      <c r="G95" s="93"/>
+      <c r="H95" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="I90" s="68" t="s">
+      <c r="I95" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="J90" s="90"/>
-      <c r="K90" s="69"/>
-      <c r="L90" s="69"/>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A91" s="70" t="s">
+      <c r="J95" s="89"/>
+      <c r="K95" s="68"/>
+      <c r="L95" s="68"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A96" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B91" s="123" t="s">
+      <c r="B96" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="C91" s="124"/>
-      <c r="D91" s="123" t="s">
+      <c r="C96" s="119"/>
+      <c r="D96" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="124"/>
-      <c r="F91" s="86"/>
-      <c r="G91" s="86"/>
-      <c r="H91" s="125" t="s">
+      <c r="E96" s="119"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="103" t="s">
         <v>58</v>
       </c>
-      <c r="I91" s="126"/>
-      <c r="J91" s="87"/>
-      <c r="K91" s="82" t="s">
+      <c r="I96" s="104"/>
+      <c r="J96" s="86"/>
+      <c r="K96" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="L91" s="69"/>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A92" s="70">
+      <c r="L96" s="68"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="69">
         <v>3</v>
       </c>
-      <c r="B92" s="71">
+      <c r="B97" s="70">
         <v>8</v>
       </c>
-      <c r="C92" s="72">
+      <c r="C97" s="71">
         <v>87.97</v>
       </c>
-      <c r="D92" s="73">
+      <c r="D97" s="72">
         <v>336</v>
       </c>
-      <c r="E92" s="74">
+      <c r="E97" s="73">
         <v>1643</v>
       </c>
-      <c r="F92" s="86"/>
-      <c r="G92" s="86"/>
-      <c r="H92" s="49">
-        <f>SUM(B92+D92)</f>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="49">
+        <f>SUM(B97+D97)</f>
         <v>344</v>
       </c>
-      <c r="I92" s="72">
-        <f>SUM(C92+E92)</f>
+      <c r="I97" s="71">
+        <f>SUM(C97+E97)</f>
         <v>1730.97</v>
       </c>
-      <c r="J92" s="90"/>
-      <c r="K92" s="58">
-        <f>SUM(H92:H95)</f>
+      <c r="J97" s="89"/>
+      <c r="K97" s="58">
+        <f>SUM(H97:H100)</f>
         <v>2053</v>
       </c>
-      <c r="L92" s="75">
+      <c r="L97" s="74">
         <v>1024</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A93" s="70">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="69">
         <v>12</v>
       </c>
-      <c r="B93" s="71">
+      <c r="B98" s="70">
         <v>134</v>
       </c>
-      <c r="C93" s="72">
+      <c r="C98" s="71">
         <v>160.69999999999999</v>
       </c>
-      <c r="D93" s="83">
+      <c r="D98" s="82">
         <v>495</v>
       </c>
-      <c r="E93" s="74">
+      <c r="E98" s="73">
         <v>1844</v>
       </c>
-      <c r="F93" s="86"/>
-      <c r="G93" s="86"/>
-      <c r="H93" s="49">
-        <f t="shared" ref="H93" si="18">SUM(B93+D93)</f>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="49">
+        <f t="shared" ref="H98" si="18">SUM(B98+D98)</f>
         <v>629</v>
       </c>
-      <c r="I93" s="72">
-        <f>SUM(C93+E93)</f>
+      <c r="I98" s="71">
+        <f>SUM(C98+E98)</f>
         <v>2004.7</v>
       </c>
-      <c r="J93" s="90"/>
-      <c r="K93" s="69"/>
-      <c r="L93" s="69"/>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A94" s="70">
+      <c r="J98" s="89"/>
+      <c r="K98" s="68"/>
+      <c r="L98" s="68"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="69">
         <v>27</v>
       </c>
-      <c r="B94" s="71">
+      <c r="B99" s="70">
         <v>31</v>
       </c>
-      <c r="C94" s="72">
+      <c r="C99" s="71">
         <v>228.8</v>
       </c>
-      <c r="D94" s="83">
+      <c r="D99" s="82">
         <v>34</v>
       </c>
-      <c r="E94" s="74">
+      <c r="E99" s="73">
         <v>1353</v>
       </c>
-      <c r="F94" s="86"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="49">
-        <f>SUM(B94+D95)</f>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="49">
+        <f>SUM(B99+D100)</f>
         <v>505</v>
       </c>
-      <c r="I94" s="72">
-        <f>SUM(C94+E94)</f>
+      <c r="I99" s="71">
+        <f>SUM(C99+E99)</f>
         <v>1581.8</v>
       </c>
-      <c r="J94" s="90"/>
-      <c r="K94" s="69"/>
-      <c r="L94" s="75"/>
-    </row>
-    <row r="95" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="76">
+      <c r="J99" s="89"/>
+      <c r="K99" s="68"/>
+      <c r="L99" s="74"/>
+    </row>
+    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="75">
         <v>47</v>
       </c>
-      <c r="B95" s="77">
+      <c r="B100" s="76">
         <v>101</v>
       </c>
-      <c r="C95" s="78">
+      <c r="C100" s="77">
         <v>159.30000000000001</v>
       </c>
-      <c r="D95" s="84">
+      <c r="D100" s="83">
         <v>474</v>
       </c>
-      <c r="E95" s="80">
+      <c r="E100" s="79">
         <v>1953</v>
       </c>
-      <c r="F95" s="95"/>
-      <c r="G95" s="95"/>
-      <c r="H95" s="59">
-        <f>SUM(B95+D95)</f>
+      <c r="F100" s="94"/>
+      <c r="G100" s="94"/>
+      <c r="H100" s="59">
+        <f>SUM(B100+D100)</f>
         <v>575</v>
       </c>
-      <c r="I95" s="78">
-        <f t="shared" ref="I95" si="19">SUM(C95+E95)</f>
+      <c r="I100" s="77">
+        <f t="shared" ref="I100" si="19">SUM(C100+E100)</f>
         <v>2112.3000000000002</v>
       </c>
-      <c r="J95" s="90"/>
-      <c r="K95" s="69"/>
-      <c r="L95" s="75"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D103" s="22"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D104" s="22"/>
-    </row>
-    <row r="105" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A105" s="9" t="s">
+      <c r="J100" s="89"/>
+      <c r="K100" s="68"/>
+      <c r="L100" s="74"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D108" s="22"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D109" s="22"/>
+    </row>
+    <row r="110" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B110" t="s">
         <v>37</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C110" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A106" s="21" t="s">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A111" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B106" s="21" t="s">
+      <c r="B111" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C111" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D106" s="21" t="s">
+      <c r="D111" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E106" s="21" t="s">
+      <c r="E111" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="I106" s="23" t="s">
+      <c r="F111" s="27"/>
+      <c r="G111" s="27"/>
+      <c r="I111" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J106" s="27"/>
-      <c r="K106" s="23" t="s">
+      <c r="J111" s="27"/>
+      <c r="K111" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L106" s="23" t="s">
+      <c r="L111" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>36</v>
       </c>
-      <c r="B107">
+      <c r="B112">
         <v>403</v>
       </c>
-      <c r="C107">
+      <c r="C112">
         <v>6</v>
       </c>
-      <c r="D107">
+      <c r="D112">
         <v>44</v>
       </c>
-      <c r="H107">
-        <f>SUM(C107:E107)</f>
+      <c r="H112">
+        <f>SUM(C112:E112)</f>
         <v>50</v>
       </c>
-      <c r="M107">
-        <f>SUM(I107:L107)</f>
+      <c r="M112">
+        <f>SUM(I112:L112)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C108">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C113">
         <v>7499.3</v>
       </c>
-      <c r="D108">
+      <c r="D113">
         <v>35248.199999999997</v>
       </c>
-      <c r="H108">
-        <f>SUM(C108:E108)/3600</f>
+      <c r="H113">
+        <f>SUM(C113:E113)/3600</f>
         <v>11.874305555555555</v>
       </c>
-      <c r="M108">
-        <f>SUM(I108:L108)/3600</f>
+      <c r="M113">
+        <f>SUM(I113:L113)/3600</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B109" s="26"/>
-      <c r="C109" s="143" t="s">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B114" s="26"/>
+      <c r="C114" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="D109" s="143"/>
-      <c r="E109" s="143"/>
-      <c r="F109" s="143"/>
-      <c r="G109" s="143"/>
-      <c r="H109" s="143"/>
-      <c r="I109" s="143" t="s">
+      <c r="D114" s="100"/>
+      <c r="E114" s="100"/>
+      <c r="F114" s="100"/>
+      <c r="G114" s="100"/>
+      <c r="H114" s="100"/>
+      <c r="I114" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="J109" s="143"/>
-      <c r="K109" s="143"/>
-      <c r="L109" s="143"/>
-      <c r="M109" s="143"/>
+      <c r="J114" s="100"/>
+      <c r="K114" s="100"/>
+      <c r="L114" s="100"/>
+      <c r="M114" s="100"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C109:H109"/>
-    <mergeCell ref="I109:M109"/>
+  <mergeCells count="41">
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="C114:H114"/>
+    <mergeCell ref="I114:M114"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="H27:I27"/>
@@ -4339,31 +4642,8 @@
     <mergeCell ref="B54:C54"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="H54:I54"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="K6:K8"/>
     <mergeCell ref="A43:I43"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="B69:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rulelearning/结果.xlsx
+++ b/rulelearning/结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA8C2AC-4A2E-4388-B12C-3A4DD6F35821}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE9D96-53A2-4C56-A358-E9CD37C8B2F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
   <si>
     <t>Entities</t>
   </si>
@@ -501,6 +501,10 @@
   </si>
   <si>
     <t>5h limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体数量不太对！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1369,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1654,92 +1658,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
@@ -1751,9 +1677,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,56 +1717,158 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -2163,8 +2188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2222,13 +2247,13 @@
       <c r="A2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="177">
         <v>11024066</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="176">
         <v>3102999</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="177">
         <v>650</v>
       </c>
       <c r="E2" s="12"/>
@@ -2254,13 +2279,13 @@
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="177">
         <v>8397936</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="176">
         <v>3085248</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="177">
         <v>430</v>
       </c>
       <c r="E3" s="12"/>
@@ -2277,13 +2302,13 @@
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="177">
         <v>4125967</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="176">
         <v>2260672</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="177">
         <v>37</v>
       </c>
       <c r="E4" s="12"/>
@@ -2320,16 +2345,16 @@
       <c r="M5" s="11"/>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="111" t="s">
+      <c r="B6" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="105">
+      <c r="C6" s="156">
         <v>14951</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="156">
         <v>1345</v>
       </c>
       <c r="E6" s="18"/>
@@ -2338,7 +2363,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
       <c r="J6" s="28"/>
-      <c r="K6" s="114" t="s">
+      <c r="K6" s="165" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="15" t="s">
@@ -2347,17 +2372,17 @@
       <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:14" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="109"/>
-      <c r="B7" s="112"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
+      <c r="A7" s="160"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
       <c r="E7" s="18"/>
       <c r="F7" s="28"/>
       <c r="G7" s="28"/>
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
       <c r="J7" s="28"/>
-      <c r="K7" s="115"/>
+      <c r="K7" s="166"/>
       <c r="L7" s="11" t="s">
         <v>16</v>
       </c>
@@ -2366,17 +2391,17 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="110"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
+      <c r="A8" s="161"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="18"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="116"/>
+      <c r="K8" s="167"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16"/>
     </row>
@@ -2452,7 +2477,7 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="150" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="14">
@@ -2475,7 +2500,7 @@
       <c r="M12" s="6"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="121"/>
+      <c r="A13" s="151"/>
       <c r="B13" s="17">
         <v>241158</v>
       </c>
@@ -2496,7 +2521,7 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="150" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="14">
@@ -2519,7 +2544,7 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="121"/>
+      <c r="A15" s="151"/>
       <c r="B15" s="17">
         <v>175412</v>
       </c>
@@ -2539,10 +2564,12 @@
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="6"/>
+      <c r="C16" s="175" t="s">
+        <v>88</v>
+      </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -2558,55 +2585,55 @@
       <c r="L17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="153" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="122"/>
-      <c r="C18" s="122"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="122"/>
-      <c r="M18" s="122"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="153"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="153"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="153"/>
+      <c r="M18" s="153"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="100"/>
-      <c r="I19" s="100"/>
-      <c r="J19" s="100"/>
-      <c r="K19" s="100"/>
-      <c r="L19" s="100"/>
-      <c r="M19" s="100"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="152"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="152"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="100"/>
-      <c r="K20" s="100"/>
-      <c r="L20" s="100"/>
-      <c r="M20" s="100"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="152"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="152"/>
     </row>
     <row r="23" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
@@ -2651,20 +2678,20 @@
       <c r="A27" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="101" t="s">
+      <c r="C27" s="169"/>
+      <c r="D27" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="102"/>
+      <c r="E27" s="169"/>
       <c r="F27" s="40"/>
       <c r="G27" s="40"/>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="104"/>
+      <c r="I27" s="146"/>
       <c r="J27" s="86"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2827,20 +2854,20 @@
       <c r="A35" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="101" t="s">
+      <c r="B35" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="102"/>
-      <c r="D35" s="101" t="s">
+      <c r="C35" s="169"/>
+      <c r="D35" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="102"/>
+      <c r="E35" s="169"/>
       <c r="F35" s="40"/>
       <c r="G35" s="40"/>
-      <c r="H35" s="103" t="s">
+      <c r="H35" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="I35" s="104"/>
+      <c r="I35" s="146"/>
       <c r="J35" s="86"/>
       <c r="K35" s="24" t="s">
         <v>51</v>
@@ -2978,17 +3005,17 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="170" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="117"/>
-      <c r="C43" s="117"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="117"/>
-      <c r="I43" s="117"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170"/>
+      <c r="D43" s="170"/>
+      <c r="E43" s="170"/>
+      <c r="F43" s="170"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="170"/>
+      <c r="I43" s="170"/>
       <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -3033,20 +3060,20 @@
       <c r="A46" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="101" t="s">
+      <c r="B46" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="102"/>
-      <c r="D46" s="101" t="s">
+      <c r="C46" s="169"/>
+      <c r="D46" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="102"/>
+      <c r="E46" s="169"/>
       <c r="F46" s="40"/>
       <c r="G46" s="40"/>
-      <c r="H46" s="103" t="s">
+      <c r="H46" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="I46" s="104"/>
+      <c r="I46" s="146"/>
       <c r="J46" s="86"/>
       <c r="N46" s="20"/>
       <c r="O46" s="20"/>
@@ -3222,20 +3249,20 @@
       <c r="A54" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="101" t="s">
+      <c r="B54" s="168" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="102"/>
-      <c r="D54" s="101" t="s">
+      <c r="C54" s="169"/>
+      <c r="D54" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="102"/>
+      <c r="E54" s="169"/>
       <c r="F54" s="40"/>
       <c r="G54" s="40"/>
-      <c r="H54" s="103" t="s">
+      <c r="H54" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="I54" s="104"/>
+      <c r="I54" s="146"/>
       <c r="J54" s="86"/>
       <c r="K54" s="24" t="s">
         <v>51</v>
@@ -3513,24 +3540,24 @@
       <c r="K66" s="68"/>
     </row>
     <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="130" t="s">
+      <c r="A67" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="131" t="s">
+      <c r="B67" s="105" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="131"/>
-      <c r="F67" s="131"/>
-      <c r="G67" s="131"/>
-      <c r="H67" s="131"/>
-      <c r="I67" s="131"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="133"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="106"/>
+      <c r="K67" s="107"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="134" t="s">
+      <c r="A68" s="108" t="s">
         <v>62</v>
       </c>
       <c r="B68" s="66" t="s">
@@ -3560,7 +3587,7 @@
       <c r="J68" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="K68" s="135" t="s">
+      <c r="K68" s="109" t="s">
         <v>84</v>
       </c>
       <c r="L68" s="68"/>
@@ -3569,167 +3596,171 @@
       <c r="A69" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B69" s="118" t="s">
+      <c r="B69" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="C69" s="119"/>
-      <c r="D69" s="118" t="s">
+      <c r="C69" s="144"/>
+      <c r="D69" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="E69" s="119"/>
-      <c r="F69" s="118" t="s">
+      <c r="E69" s="144"/>
+      <c r="F69" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="G69" s="119"/>
-      <c r="H69" s="103" t="s">
+      <c r="G69" s="144"/>
+      <c r="H69" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="I69" s="104"/>
-      <c r="J69" s="124" t="s">
+      <c r="I69" s="146"/>
+      <c r="J69" s="154" t="s">
         <v>81</v>
       </c>
-      <c r="K69" s="136"/>
+      <c r="K69" s="155"/>
       <c r="L69" s="68"/>
     </row>
     <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="155">
+      <c r="A70" s="127">
         <v>0</v>
       </c>
-      <c r="B70" s="156">
+      <c r="B70" s="128">
         <v>20</v>
       </c>
-      <c r="C70" s="157">
+      <c r="C70" s="129">
         <v>54.03</v>
       </c>
-      <c r="D70" s="158">
+      <c r="D70" s="130">
         <v>239</v>
       </c>
-      <c r="E70" s="159">
+      <c r="E70" s="131">
         <v>605.79999999999995</v>
       </c>
-      <c r="F70" s="158">
+      <c r="F70" s="130">
         <v>142</v>
       </c>
-      <c r="G70" s="159">
+      <c r="G70" s="131">
         <v>3415</v>
       </c>
-      <c r="H70" s="158">
+      <c r="H70" s="130">
         <f>SUM(B70+D70+F70)</f>
         <v>401</v>
       </c>
-      <c r="I70" s="159">
+      <c r="I70" s="131">
         <f>SUM(C70+E70+G70)/3600</f>
         <v>1.1318972222222221</v>
       </c>
       <c r="J70" s="87">
         <v>137</v>
       </c>
-      <c r="K70" s="137" t="s">
+      <c r="K70" s="110" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="165">
+      <c r="A71" s="137">
         <v>3</v>
       </c>
-      <c r="B71" s="166">
+      <c r="B71" s="138">
         <v>11</v>
       </c>
-      <c r="C71" s="167">
+      <c r="C71" s="139">
         <v>133.80000000000001</v>
       </c>
-      <c r="D71" s="168">
+      <c r="D71" s="140">
         <v>368</v>
       </c>
-      <c r="E71" s="169">
+      <c r="E71" s="141">
         <v>1813</v>
       </c>
-      <c r="F71" s="168">
+      <c r="F71" s="140">
         <v>82</v>
       </c>
-      <c r="G71" s="169">
+      <c r="G71" s="141">
         <v>11701</v>
       </c>
       <c r="H71" s="66">
         <f>SUM(B71+D71+F71)</f>
         <v>461</v>
       </c>
-      <c r="I71" s="170">
+      <c r="I71" s="142">
         <f>SUM(C71+E71+G71)/3600</f>
         <v>3.7910555555555554</v>
       </c>
       <c r="J71" s="89">
         <v>1024</v>
       </c>
-      <c r="K71" s="135" t="s">
+      <c r="K71" s="109" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="69">
+      <c r="A72" s="48">
         <v>12</v>
       </c>
-      <c r="B72" s="97">
+      <c r="B72" s="50">
         <v>152</v>
       </c>
-      <c r="C72" s="71">
+      <c r="C72" s="51">
         <v>182.1</v>
       </c>
-      <c r="D72" s="72">
-        <v>490</v>
-      </c>
-      <c r="E72" s="98">
-        <v>1966</v>
-      </c>
-      <c r="F72" s="72"/>
-      <c r="G72" s="98"/>
+      <c r="D72" s="49">
+        <v>493</v>
+      </c>
+      <c r="E72" s="52">
+        <v>1928</v>
+      </c>
+      <c r="F72" s="96"/>
+      <c r="G72" s="172"/>
       <c r="H72" s="72">
         <f t="shared" ref="H72:H76" si="12">SUM(B72+D72+F72)</f>
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="I72" s="98">
         <f t="shared" ref="I72:I76" si="13">SUM(C72+E72+G72)/3600</f>
-        <v>0.59669444444444442</v>
+        <v>0.58613888888888888</v>
       </c>
       <c r="J72" s="89"/>
-      <c r="K72" s="135"/>
+      <c r="K72" s="109"/>
       <c r="O72" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A73" s="69">
+      <c r="A73" s="48">
         <v>27</v>
       </c>
-      <c r="B73" s="97">
+      <c r="B73" s="50">
         <v>24</v>
       </c>
-      <c r="C73" s="71">
+      <c r="C73" s="51">
         <v>102</v>
       </c>
-      <c r="D73" s="72">
+      <c r="D73" s="49">
         <v>307</v>
       </c>
-      <c r="E73" s="98">
+      <c r="E73" s="52">
         <v>1386</v>
       </c>
-      <c r="F73" s="72"/>
-      <c r="G73" s="98"/>
+      <c r="F73" s="49">
+        <v>20</v>
+      </c>
+      <c r="G73" s="52">
+        <v>9853</v>
+      </c>
       <c r="H73" s="72">
         <f>SUM(B73+D73+F73)</f>
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="I73" s="98">
         <f t="shared" si="13"/>
-        <v>0.41333333333333333</v>
+        <v>3.1502777777777777</v>
       </c>
       <c r="J73" s="89">
         <f>SUM(H71:H74)</f>
-        <v>1886</v>
-      </c>
-      <c r="K73" s="135">
+        <v>1923</v>
+      </c>
+      <c r="K73" s="109">
         <f>SUM(I71:I74)</f>
-        <v>5.4646388888888886</v>
+        <v>8.1154722222222233</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3739,35 +3770,35 @@
       </c>
     </row>
     <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="75">
+      <c r="A74" s="171">
         <v>47</v>
       </c>
-      <c r="B74" s="76">
+      <c r="B74" s="101">
         <v>75</v>
       </c>
-      <c r="C74" s="77">
+      <c r="C74" s="102">
         <v>155.80000000000001</v>
       </c>
-      <c r="D74" s="78">
-        <v>377</v>
-      </c>
-      <c r="E74" s="79">
-        <v>2233</v>
-      </c>
-      <c r="F74" s="78"/>
-      <c r="G74" s="79"/>
+      <c r="D74" s="59">
+        <v>391</v>
+      </c>
+      <c r="E74" s="126">
+        <v>1961</v>
+      </c>
+      <c r="F74" s="173"/>
+      <c r="G74" s="174"/>
       <c r="H74" s="78">
         <f>SUM(B74+D74+F74)</f>
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="I74" s="79">
         <f t="shared" si="13"/>
-        <v>0.66355555555555557</v>
+        <v>0.58800000000000008</v>
       </c>
       <c r="J74" s="89"/>
-      <c r="K74" s="135">
+      <c r="K74" s="109">
         <f>K73/4</f>
-        <v>1.3661597222222222</v>
+        <v>2.0288680555555558</v>
       </c>
       <c r="N74">
         <v>2</v>
@@ -3780,39 +3811,39 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="160">
+      <c r="A75" s="132">
         <v>52</v>
       </c>
-      <c r="B75" s="161">
+      <c r="B75" s="133">
         <v>5</v>
       </c>
-      <c r="C75" s="162">
+      <c r="C75" s="134">
         <v>8.5749999999999993</v>
       </c>
-      <c r="D75" s="163">
+      <c r="D75" s="135">
         <v>0</v>
       </c>
-      <c r="E75" s="164">
+      <c r="E75" s="136">
         <v>117.4</v>
       </c>
-      <c r="F75" s="163">
+      <c r="F75" s="135">
         <v>0</v>
       </c>
-      <c r="G75" s="162">
+      <c r="G75" s="134">
         <v>76.59</v>
       </c>
-      <c r="H75" s="163">
+      <c r="H75" s="135">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="I75" s="164">
+      <c r="I75" s="136">
         <f t="shared" si="13"/>
         <v>5.6268055555555557E-2</v>
       </c>
-      <c r="J75" s="138">
+      <c r="J75" s="111">
         <v>52</v>
       </c>
-      <c r="K75" s="139" t="s">
+      <c r="K75" s="112" t="s">
         <v>87</v>
       </c>
       <c r="N75">
@@ -3823,76 +3854,76 @@
       </c>
     </row>
     <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="140">
+      <c r="A76" s="113">
         <v>163</v>
       </c>
-      <c r="B76" s="125">
+      <c r="B76" s="101">
         <v>18</v>
       </c>
-      <c r="C76" s="126">
+      <c r="C76" s="102">
         <v>56.07</v>
       </c>
       <c r="D76" s="59">
         <v>240</v>
       </c>
-      <c r="E76" s="153">
+      <c r="E76" s="126">
         <v>936.5</v>
       </c>
       <c r="F76" s="59">
         <v>32</v>
       </c>
-      <c r="G76" s="153">
+      <c r="G76" s="126">
         <v>8232</v>
       </c>
       <c r="H76" s="59">
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="I76" s="153">
+      <c r="I76" s="126">
         <f t="shared" si="13"/>
         <v>2.5623805555555554</v>
       </c>
       <c r="J76" s="87">
         <v>229</v>
       </c>
-      <c r="K76" s="137" t="s">
+      <c r="K76" s="110" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="141"/>
-      <c r="B77" s="142"/>
-      <c r="C77" s="142"/>
-      <c r="D77" s="142"/>
-      <c r="E77" s="142"/>
-      <c r="F77" s="154" t="s">
+      <c r="A77" s="114"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="149" t="s">
         <v>77</v>
       </c>
-      <c r="G77" s="154"/>
-      <c r="H77" s="142"/>
-      <c r="I77" s="142"/>
-      <c r="J77" s="142"/>
-      <c r="K77" s="143"/>
+      <c r="G77" s="149"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="116"/>
       <c r="O77" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="141" t="s">
+      <c r="A78" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="144" t="s">
+      <c r="B78" s="117" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="144"/>
-      <c r="G78" s="142"/>
-      <c r="H78" s="142"/>
-      <c r="I78" s="142"/>
-      <c r="J78" s="142"/>
-      <c r="K78" s="145"/>
+      <c r="C78" s="115"/>
+      <c r="D78" s="115"/>
+      <c r="E78" s="115"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="115"/>
+      <c r="H78" s="115"/>
+      <c r="I78" s="115"/>
+      <c r="J78" s="115"/>
+      <c r="K78" s="118"/>
       <c r="O78" t="s">
         <v>69</v>
       </c>
@@ -3904,7 +3935,7 @@
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="134" t="s">
+      <c r="A79" s="108" t="s">
         <v>62</v>
       </c>
       <c r="B79" s="66" t="s">
@@ -3922,7 +3953,7 @@
       <c r="F79" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="G79" s="128" t="s">
+      <c r="G79" s="103" t="s">
         <v>82</v>
       </c>
       <c r="H79" s="66" t="s">
@@ -3931,31 +3962,31 @@
       <c r="I79" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="J79" s="142"/>
-      <c r="K79" s="145"/>
+      <c r="J79" s="115"/>
+      <c r="K79" s="118"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="118" t="s">
+      <c r="B80" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="C80" s="119"/>
-      <c r="D80" s="118" t="s">
+      <c r="C80" s="144"/>
+      <c r="D80" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="119"/>
-      <c r="F80" s="118" t="s">
+      <c r="E80" s="144"/>
+      <c r="F80" s="143" t="s">
         <v>67</v>
       </c>
-      <c r="G80" s="129"/>
-      <c r="H80" s="127" t="s">
+      <c r="G80" s="147"/>
+      <c r="H80" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="I80" s="104"/>
-      <c r="J80" s="142"/>
-      <c r="K80" s="146"/>
+      <c r="I80" s="146"/>
+      <c r="J80" s="115"/>
+      <c r="K80" s="119"/>
       <c r="O80" t="s">
         <v>75</v>
       </c>
@@ -3993,7 +4024,7 @@
         <v>1930</v>
       </c>
       <c r="J81" s="89"/>
-      <c r="K81" s="143"/>
+      <c r="K81" s="116"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="95">
@@ -4022,9 +4053,9 @@
         <v>2148.1</v>
       </c>
       <c r="J82" s="89"/>
-      <c r="K82" s="145"/>
+      <c r="K82" s="118"/>
       <c r="L82" s="68"/>
-      <c r="O82" s="123" t="s">
+      <c r="O82" s="100" t="s">
         <v>79</v>
       </c>
       <c r="P82" t="s">
@@ -4058,11 +4089,11 @@
         <v>1488</v>
       </c>
       <c r="J83" s="89"/>
-      <c r="K83" s="145"/>
+      <c r="K83" s="118"/>
       <c r="L83" s="74"/>
     </row>
     <row r="84" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="147">
+      <c r="A84" s="120">
         <v>47</v>
       </c>
       <c r="B84" s="76">
@@ -4088,40 +4119,40 @@
         <v>2388.8000000000002</v>
       </c>
       <c r="J84" s="89"/>
-      <c r="K84" s="145"/>
+      <c r="K84" s="118"/>
       <c r="L84" s="74"/>
     </row>
     <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="148"/>
-      <c r="B85" s="149"/>
-      <c r="C85" s="149"/>
-      <c r="D85" s="149"/>
-      <c r="E85" s="149"/>
-      <c r="F85" s="149"/>
-      <c r="G85" s="149"/>
-      <c r="H85" s="150">
+      <c r="A85" s="121"/>
+      <c r="B85" s="122"/>
+      <c r="C85" s="122"/>
+      <c r="D85" s="122"/>
+      <c r="E85" s="122"/>
+      <c r="F85" s="122"/>
+      <c r="G85" s="122"/>
+      <c r="H85" s="123">
         <f>SUM(H81:H84)</f>
         <v>1807</v>
       </c>
-      <c r="I85" s="151">
+      <c r="I85" s="124">
         <v>1024</v>
       </c>
-      <c r="J85" s="149"/>
-      <c r="K85" s="152"/>
+      <c r="J85" s="122"/>
+      <c r="K85" s="125"/>
       <c r="L85" s="68"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="142"/>
-      <c r="B86" s="142"/>
-      <c r="C86" s="142"/>
-      <c r="D86" s="142"/>
-      <c r="E86" s="142"/>
-      <c r="F86" s="142"/>
-      <c r="G86" s="142"/>
+      <c r="A86" s="115"/>
+      <c r="B86" s="115"/>
+      <c r="C86" s="115"/>
+      <c r="D86" s="115"/>
+      <c r="E86" s="115"/>
+      <c r="F86" s="115"/>
+      <c r="G86" s="115"/>
       <c r="H86" s="89"/>
       <c r="I86" s="89"/>
-      <c r="J86" s="142"/>
-      <c r="K86" s="142"/>
+      <c r="J86" s="115"/>
+      <c r="K86" s="115"/>
       <c r="L86" s="68"/>
     </row>
     <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4174,20 +4205,20 @@
       <c r="A89" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B89" s="118" t="s">
+      <c r="B89" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="C89" s="119"/>
-      <c r="D89" s="118" t="s">
+      <c r="C89" s="144"/>
+      <c r="D89" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="E89" s="119"/>
+      <c r="E89" s="144"/>
       <c r="F89" s="85"/>
       <c r="G89" s="85"/>
-      <c r="H89" s="103" t="s">
+      <c r="H89" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="I89" s="104"/>
+      <c r="I89" s="146"/>
       <c r="J89" s="86"/>
       <c r="K89" s="68"/>
       <c r="L89" s="68"/>
@@ -4354,20 +4385,20 @@
       <c r="A96" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B96" s="118" t="s">
+      <c r="B96" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="C96" s="119"/>
-      <c r="D96" s="118" t="s">
+      <c r="C96" s="144"/>
+      <c r="D96" s="143" t="s">
         <v>43</v>
       </c>
-      <c r="E96" s="119"/>
+      <c r="E96" s="144"/>
       <c r="F96" s="85"/>
       <c r="G96" s="85"/>
-      <c r="H96" s="103" t="s">
+      <c r="H96" s="145" t="s">
         <v>58</v>
       </c>
-      <c r="I96" s="104"/>
+      <c r="I96" s="146"/>
       <c r="J96" s="86"/>
       <c r="K96" s="81" t="s">
         <v>51</v>
@@ -4585,49 +4616,24 @@
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B114" s="26"/>
-      <c r="C114" s="100" t="s">
+      <c r="C114" s="152" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="100"/>
-      <c r="E114" s="100"/>
-      <c r="F114" s="100"/>
-      <c r="G114" s="100"/>
-      <c r="H114" s="100"/>
-      <c r="I114" s="100" t="s">
+      <c r="D114" s="152"/>
+      <c r="E114" s="152"/>
+      <c r="F114" s="152"/>
+      <c r="G114" s="152"/>
+      <c r="H114" s="152"/>
+      <c r="I114" s="152" t="s">
         <v>39</v>
       </c>
-      <c r="J114" s="100"/>
-      <c r="K114" s="100"/>
-      <c r="L114" s="100"/>
-      <c r="M114" s="100"/>
+      <c r="J114" s="152"/>
+      <c r="K114" s="152"/>
+      <c r="L114" s="152"/>
+      <c r="M114" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="K6:K8"/>
     <mergeCell ref="C114:H114"/>
     <mergeCell ref="I114:M114"/>
     <mergeCell ref="B27:C27"/>
@@ -4644,6 +4650,31 @@
     <mergeCell ref="H54:I54"/>
     <mergeCell ref="A43:I43"/>
     <mergeCell ref="B69:C69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A19:M19"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A18:M18"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="H69:I69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rulelearning/结果.xlsx
+++ b/rulelearning/结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CE9D96-53A2-4C56-A358-E9CD37C8B2F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7066C47-9D4F-4DA3-8411-62CDC4995D5C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="99">
   <si>
     <t>Entities</t>
   </si>
@@ -468,10 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始跑DB的了，即使是在大的K上进行评估，看看效果？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -492,10 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>notoplen=4.txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>memorry error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,7 +496,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实体数量不太对！</t>
+    <t>FB75K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为len&lt;4时，速度提升不明显啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体、事实数量不太对！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxlen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wiki</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要不 top800？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no去掉top500len=4.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不重复的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高top能加很多规则啊，万一不好，可以再加top！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no去掉top800len=4K'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始跑DB的了，大的K上进行评估，or K‘ 看看效果？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1023,59 +1063,11 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFC00000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC00000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFC00000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1084,7 +1076,33 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FFC00000"/>
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1092,24 +1110,46 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FFC00000"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFC00000"/>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFC00000"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1118,7 +1158,55 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FFC00000"/>
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
@@ -1126,7 +1214,49 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFC00000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
@@ -1134,19 +1264,41 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFC00000"/>
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FFC00000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,31 +1307,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC00000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFC00000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFC00000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1189,106 +1317,8 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC00000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFC00000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1298,34 +1328,8 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,7 +1373,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1645,16 +1649,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1665,104 +1660,134 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1777,14 +1802,50 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -1798,48 +1859,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1849,26 +1868,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -2186,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q114"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M70" sqref="M70"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2208,7 +2215,7 @@
     <col min="13" max="13" width="10.875" customWidth="1"/>
     <col min="14" max="14" width="16.375" customWidth="1"/>
     <col min="15" max="15" width="50.125" customWidth="1"/>
-    <col min="16" max="16" width="19.125" customWidth="1"/>
+    <col min="16" max="16" width="13.375" customWidth="1"/>
     <col min="21" max="21" width="8.5" customWidth="1"/>
     <col min="22" max="22" width="22.5" customWidth="1"/>
     <col min="23" max="23" width="22.625" customWidth="1"/>
@@ -2243,72 +2250,65 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="177">
-        <v>11024066</v>
-      </c>
-      <c r="C2" s="176">
-        <v>3102999</v>
-      </c>
-      <c r="D2" s="177">
-        <v>650</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="6">
+        <v>14541</v>
+      </c>
+      <c r="D2" s="3">
+        <v>237</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="177">
-        <v>8397936</v>
-      </c>
-      <c r="C3" s="176">
-        <v>3085248</v>
-      </c>
-      <c r="D3" s="177">
-        <v>430</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="B3" s="125">
+        <v>316232</v>
+      </c>
+      <c r="C3" s="126">
+        <v>75043</v>
+      </c>
+      <c r="D3" s="126">
+        <v>13</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="118"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="177">
+      <c r="B4" s="122">
         <v>4125967</v>
       </c>
-      <c r="C4" s="176">
+      <c r="C4" s="121">
         <v>2260672</v>
       </c>
-      <c r="D4" s="177">
+      <c r="D4" s="122">
         <v>37</v>
       </c>
       <c r="E4" s="12"/>
@@ -2321,150 +2321,157 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="122">
+        <v>8397936</v>
+      </c>
+      <c r="C5" s="121">
+        <v>3085248</v>
+      </c>
+      <c r="D5" s="122">
+        <v>430</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="122">
+        <v>11024066</v>
+      </c>
+      <c r="C6" s="121">
+        <v>3102999</v>
+      </c>
+      <c r="D6" s="122">
+        <v>650</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B7" s="13">
         <v>151442</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C7" s="13">
         <v>40943</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D7" s="11">
         <v>18</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="159" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B8" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="156">
+      <c r="C8" s="157">
         <v>14951</v>
       </c>
-      <c r="D6" s="156">
+      <c r="D8" s="157">
         <v>1345</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="165" t="s">
-        <v>6</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="160"/>
-      <c r="B7" s="163"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="166"/>
-      <c r="L7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="161"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
       <c r="E8" s="18"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="6">
-        <v>14541</v>
-      </c>
-      <c r="D9" s="3">
-        <v>237</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="5" t="s">
+      <c r="K8" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="11">
-        <v>560209</v>
-      </c>
-      <c r="C10" s="11">
-        <v>14541</v>
-      </c>
-      <c r="D10" s="11">
-        <v>401</v>
-      </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="L8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="161"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="158"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="162"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="159"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>560209</v>
+      </c>
+      <c r="C11" s="11">
+        <v>14541</v>
       </c>
       <c r="D11" s="11">
-        <v>13</v>
+        <v>401</v>
       </c>
       <c r="E11" s="19"/>
       <c r="F11" s="29"/>
@@ -2476,985 +2483,977 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="150" t="s">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11">
+        <v>13</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="169" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B13" s="14">
         <v>3044163</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>1481946</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <v>47</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="151"/>
-      <c r="B13" s="17">
-        <v>241158</v>
-      </c>
-      <c r="C13" s="17">
-        <v>15000</v>
-      </c>
-      <c r="D13" s="17">
-        <v>36</v>
-      </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="29"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="150" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="14">
-        <v>644208</v>
-      </c>
-      <c r="C14" s="6">
-        <v>593689</v>
-      </c>
-      <c r="D14" s="6">
-        <v>832</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="A14" s="170"/>
+      <c r="B14" s="17">
+        <v>241158</v>
+      </c>
+      <c r="C14" s="17">
+        <v>15000</v>
+      </c>
+      <c r="D14" s="17">
+        <v>36</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="151"/>
-      <c r="B15" s="17">
-        <v>175412</v>
-      </c>
-      <c r="C15" s="17">
-        <v>27221</v>
-      </c>
-      <c r="D15" s="17">
-        <v>404</v>
-      </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="29"/>
+      <c r="A15" s="169" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="14">
+        <v>644208</v>
+      </c>
+      <c r="C15" s="6">
+        <v>593689</v>
+      </c>
+      <c r="D15" s="6">
+        <v>832</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
     </row>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="175" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="170"/>
+      <c r="B16" s="17">
+        <v>175412</v>
+      </c>
+      <c r="C16" s="17">
+        <v>27221</v>
+      </c>
+      <c r="D16" s="17">
+        <v>404</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="153" t="s">
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="9"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="120" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="172" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="153"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="153"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="153"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="152" t="s">
+      <c r="B19" s="172"/>
+      <c r="C19" s="172"/>
+      <c r="D19" s="172"/>
+      <c r="E19" s="172"/>
+      <c r="F19" s="172"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="172"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="171" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="152"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="152"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
-      <c r="H19" s="152"/>
-      <c r="I19" s="152"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="152"/>
-      <c r="L19" s="152"/>
-      <c r="M19" s="152"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="152" t="s">
+      <c r="B20" s="171"/>
+      <c r="C20" s="171"/>
+      <c r="D20" s="171"/>
+      <c r="E20" s="171"/>
+      <c r="F20" s="171"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="171"/>
+      <c r="L20" s="171"/>
+      <c r="M20" s="171"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="152"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="152"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="152"/>
-      <c r="H20" s="152"/>
-      <c r="I20" s="152"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="152"/>
-      <c r="L20" s="152"/>
-      <c r="M20" s="152"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="B21" s="171"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="171"/>
+      <c r="L21" s="171"/>
+      <c r="M21" s="171"/>
+    </row>
+    <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>46</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="31" t="s">
+      <c r="B27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="31" t="s">
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I27" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="38" t="s">
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="168" t="s">
+      <c r="B28" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="169"/>
-      <c r="D27" s="168" t="s">
+      <c r="C28" s="174"/>
+      <c r="D28" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="169"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="145" t="s">
+      <c r="E28" s="174"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="152" t="s">
         <v>48</v>
       </c>
-      <c r="I27" s="146"/>
-      <c r="J27" s="86"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="48">
+      <c r="I28" s="153"/>
+      <c r="J28" s="86"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="48">
         <v>0</v>
       </c>
-      <c r="B28" s="50">
+      <c r="B29" s="50">
         <v>15</v>
       </c>
-      <c r="C28" s="51">
+      <c r="C29" s="51">
         <v>24.49</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D29" s="49">
         <v>158</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E29" s="52">
         <v>212.6</v>
       </c>
-      <c r="F28" s="84"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="49">
-        <f>SUM(B28+D28)</f>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="49">
+        <f>SUM(B29+D29)</f>
         <v>173</v>
       </c>
-      <c r="I28" s="51">
-        <f>SUM(C28+E28)</f>
+      <c r="I29" s="51">
+        <f>SUM(C29+E29)</f>
         <v>237.09</v>
       </c>
-      <c r="J28" s="87"/>
-      <c r="L28" s="25">
+      <c r="J29" s="87"/>
+      <c r="L29" s="25">
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="38">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="38">
         <v>3</v>
       </c>
-      <c r="B29" s="43">
+      <c r="B30" s="43">
         <v>51</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C30" s="34">
         <v>43.62</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D30" s="33">
         <v>179</v>
       </c>
-      <c r="E29" s="44">
+      <c r="E30" s="44">
         <v>283.5</v>
       </c>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="46">
-        <f t="shared" ref="H29:H31" si="0">SUM(B29+D29)</f>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="46">
+        <f t="shared" ref="H30:H32" si="0">SUM(B30+D30)</f>
         <v>230</v>
       </c>
-      <c r="I29" s="34">
-        <f>SUM(C29+E29)</f>
+      <c r="I30" s="34">
+        <f>SUM(C30+E30)</f>
         <v>327.12</v>
       </c>
-      <c r="J29" s="42"/>
-      <c r="L29" s="25">
+      <c r="J30" s="42"/>
+      <c r="L30" s="25">
         <v>1024</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="48">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="48">
         <v>57</v>
       </c>
-      <c r="B30" s="50">
+      <c r="B31" s="50">
         <v>59</v>
       </c>
-      <c r="C30" s="51">
+      <c r="C31" s="51">
         <v>34.42</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D31" s="49">
         <v>0</v>
       </c>
-      <c r="E30" s="52">
+      <c r="E31" s="52">
         <v>53.54</v>
       </c>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="96">
+      <c r="F31" s="84"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="95">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="I30" s="51">
-        <f>SUM(C30+E30)</f>
+      <c r="I31" s="51">
+        <f>SUM(C31+E31)</f>
         <v>87.960000000000008</v>
       </c>
-      <c r="J30" s="87"/>
-      <c r="L30" s="25">
+      <c r="J31" s="87"/>
+      <c r="L31" s="25">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="39">
         <v>163</v>
       </c>
-      <c r="B31" s="45">
+      <c r="B32" s="45">
         <v>12</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C32" s="36">
         <v>41.43</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D32" s="35">
         <v>0</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="47">
+      <c r="E32" s="41"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="47">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="I31" s="36">
-        <f t="shared" ref="I31" si="1">SUM(C31+E31)</f>
+      <c r="I32" s="36">
+        <f t="shared" ref="I32" si="1">SUM(C32+E32)</f>
         <v>41.43</v>
       </c>
-      <c r="J31" s="42"/>
-      <c r="L31" s="25">
+      <c r="J32" s="42"/>
+      <c r="L32" s="25">
         <v>229</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="34" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>46</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A35" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B35" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C35" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D35" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E35" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="31" t="s">
+      <c r="F35" s="90"/>
+      <c r="G35" s="90"/>
+      <c r="H35" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I35" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J34" s="42"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
+      <c r="J35" s="42"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="168" t="s">
+      <c r="B36" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="169"/>
-      <c r="D35" s="168" t="s">
+      <c r="C36" s="174"/>
+      <c r="D36" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="E35" s="169"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="145" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="146"/>
-      <c r="J35" s="86"/>
-      <c r="K35" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A36" s="53">
-        <v>3</v>
-      </c>
-      <c r="B36" s="43">
-        <v>51</v>
-      </c>
-      <c r="C36" s="34">
-        <v>45.68</v>
-      </c>
-      <c r="D36" s="33">
-        <v>185</v>
-      </c>
-      <c r="E36" s="44">
-        <v>286.5</v>
-      </c>
+      <c r="E36" s="174"/>
       <c r="F36" s="40"/>
       <c r="G36" s="40"/>
-      <c r="H36" s="46">
-        <f>SUM(B36+D36)</f>
-        <v>236</v>
-      </c>
-      <c r="I36" s="34">
-        <f>SUM(C36+E36)</f>
-        <v>332.18</v>
-      </c>
-      <c r="J36" s="42"/>
-      <c r="K36" s="54">
-        <f>SUM(H36:H39)</f>
-        <v>815</v>
-      </c>
-      <c r="L36" s="25">
-        <v>1024</v>
+      <c r="H36" s="152" t="s">
+        <v>48</v>
+      </c>
+      <c r="I36" s="153"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A37" s="38">
-        <v>12</v>
+      <c r="A37" s="53">
+        <v>3</v>
       </c>
       <c r="B37" s="43">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="C37" s="34">
-        <v>94.06</v>
+        <v>45.68</v>
       </c>
       <c r="D37" s="33">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="E37" s="44">
-        <v>710.7</v>
+        <v>286.5</v>
       </c>
       <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="46">
-        <f t="shared" ref="H37:H39" si="2">SUM(B37+D37)</f>
-        <v>332</v>
+        <f>SUM(B37+D37)</f>
+        <v>236</v>
       </c>
       <c r="I37" s="34">
         <f>SUM(C37+E37)</f>
-        <v>804.76</v>
+        <v>332.18</v>
       </c>
       <c r="J37" s="42"/>
+      <c r="K37" s="54">
+        <f>SUM(H37:H40)</f>
+        <v>815</v>
+      </c>
+      <c r="L37" s="25">
+        <v>1024</v>
+      </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" s="38">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B38" s="43">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="C38" s="34">
-        <v>141.69999999999999</v>
+        <v>94.06</v>
       </c>
       <c r="D38" s="33">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="E38" s="44">
-        <v>345</v>
+        <v>710.7</v>
       </c>
       <c r="F38" s="40"/>
       <c r="G38" s="40"/>
       <c r="H38" s="46">
+        <f t="shared" ref="H38:H40" si="2">SUM(B38+D38)</f>
+        <v>332</v>
+      </c>
+      <c r="I38" s="34">
+        <f>SUM(C38+E38)</f>
+        <v>804.76</v>
+      </c>
+      <c r="J38" s="42"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" s="38">
+        <v>27</v>
+      </c>
+      <c r="B39" s="43">
+        <v>19</v>
+      </c>
+      <c r="C39" s="34">
+        <v>141.69999999999999</v>
+      </c>
+      <c r="D39" s="33">
+        <v>170</v>
+      </c>
+      <c r="E39" s="44">
+        <v>345</v>
+      </c>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="46">
         <f t="shared" si="2"/>
         <v>189</v>
       </c>
-      <c r="I38" s="34">
-        <f>SUM(C38+E38)</f>
+      <c r="I39" s="34">
+        <f>SUM(C39+E39)</f>
         <v>486.7</v>
       </c>
-      <c r="J38" s="42"/>
-      <c r="L38" s="25"/>
-    </row>
-    <row r="39" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
+      <c r="J39" s="42"/>
+      <c r="L39" s="25"/>
+    </row>
+    <row r="40" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39">
         <v>47</v>
       </c>
-      <c r="B39" s="45">
+      <c r="B40" s="45">
         <v>6</v>
       </c>
-      <c r="C39" s="36">
+      <c r="C40" s="36">
         <v>111.4</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D40" s="35">
         <v>52</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E40" s="41">
         <v>531</v>
       </c>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="47">
+      <c r="F40" s="91"/>
+      <c r="G40" s="91"/>
+      <c r="H40" s="47">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="I39" s="36">
-        <f t="shared" ref="I39" si="3">SUM(C39+E39)</f>
+      <c r="I40" s="36">
+        <f t="shared" ref="I40" si="3">SUM(C40+E40)</f>
         <v>642.4</v>
       </c>
-      <c r="J39" s="42"/>
-      <c r="L39" s="25"/>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B40">
-        <f>SUM(B36:B39)</f>
+      <c r="J40" s="42"/>
+      <c r="L40" s="25"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <f>SUM(B37:B40)</f>
         <v>208</v>
       </c>
-      <c r="D40">
-        <f>SUM(D36:D39)</f>
+      <c r="D41">
+        <f>SUM(D37:D40)</f>
         <v>607</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A43" s="170" t="s">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" s="175" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="30"/>
-    </row>
-    <row r="44" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" s="175"/>
+      <c r="C44" s="175"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="30"/>
+    </row>
+    <row r="45" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>46</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A45" s="37" t="s">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="31" t="s">
+      <c r="B46" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="32" t="s">
+      <c r="C46" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="31" t="s">
+      <c r="D46" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E46" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="31" t="s">
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I45" s="32" t="s">
+      <c r="I46" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J45" s="42"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="27"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="27"/>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A46" s="38" t="s">
+      <c r="J46" s="42"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="27"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="168" t="s">
+      <c r="B47" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="169"/>
-      <c r="D46" s="168" t="s">
+      <c r="C47" s="174"/>
+      <c r="D47" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="169"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="145" t="s">
+      <c r="E47" s="174"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="I46" s="146"/>
-      <c r="J46" s="86"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A47" s="48">
+      <c r="I47" s="153"/>
+      <c r="J47" s="86"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="20"/>
+      <c r="P47" s="20"/>
+      <c r="Q47" s="20"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" s="48">
         <v>0</v>
       </c>
-      <c r="B47" s="50">
+      <c r="B48" s="50">
         <v>16</v>
       </c>
-      <c r="C47" s="51">
+      <c r="C48" s="51">
         <v>47.94</v>
       </c>
-      <c r="D47" s="49">
+      <c r="D48" s="49">
         <v>211</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E48" s="52">
         <v>230.9</v>
       </c>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="49">
-        <f>SUM(B47+D47)</f>
+      <c r="F48" s="84"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="49">
+        <f>SUM(B48+D48)</f>
         <v>227</v>
       </c>
-      <c r="I47" s="51">
-        <f>SUM(C47+E47)</f>
+      <c r="I48" s="51">
+        <f>SUM(C48+E48)</f>
         <v>278.84000000000003</v>
       </c>
-      <c r="J47" s="87"/>
-      <c r="L47" s="25">
+      <c r="J48" s="87"/>
+      <c r="L48" s="25">
         <v>137</v>
       </c>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A48" s="60">
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="60">
         <v>3</v>
       </c>
-      <c r="B48" s="61">
+      <c r="B49" s="61">
         <v>51</v>
       </c>
-      <c r="C48" s="62">
+      <c r="C49" s="62">
         <v>112.1</v>
       </c>
-      <c r="D48" s="63">
+      <c r="D49" s="63">
         <v>395</v>
       </c>
-      <c r="E48" s="64">
+      <c r="E49" s="64">
         <v>340</v>
       </c>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="63">
-        <f t="shared" ref="H48:H50" si="4">SUM(B48+D48)</f>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="63">
+        <f t="shared" ref="H49:H51" si="4">SUM(B49+D49)</f>
         <v>446</v>
       </c>
-      <c r="I48" s="62">
-        <f>SUM(C48+E48)</f>
+      <c r="I49" s="62">
+        <f>SUM(C49+E49)</f>
         <v>452.1</v>
       </c>
-      <c r="J48" s="88"/>
-      <c r="K48" t="s">
+      <c r="J49" s="88"/>
+      <c r="K49" t="s">
         <v>54</v>
       </c>
-      <c r="L48" s="25">
+      <c r="L49" s="25">
         <v>1024</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="48">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="48">
         <v>57</v>
       </c>
-      <c r="B49" s="50">
+      <c r="B50" s="50">
         <v>59</v>
       </c>
-      <c r="C49" s="51">
+      <c r="C50" s="51">
         <v>38.22</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D50" s="49">
         <v>0</v>
       </c>
-      <c r="E49" s="52">
+      <c r="E50" s="52">
         <v>95.87</v>
       </c>
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="96">
+      <c r="F50" s="84"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="95">
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
-      <c r="I49" s="51">
-        <f>SUM(C49+E49)</f>
+      <c r="I50" s="51">
+        <f>SUM(C50+E50)</f>
         <v>134.09</v>
       </c>
-      <c r="J49" s="87"/>
-      <c r="L49" s="25">
+      <c r="J50" s="87"/>
+      <c r="L50" s="25">
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39">
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39">
         <v>163</v>
       </c>
-      <c r="B50" s="45">
+      <c r="B51" s="45">
         <v>19</v>
       </c>
-      <c r="C50" s="36">
+      <c r="C51" s="36">
         <v>73.319999999999993</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D51" s="35">
         <v>0</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E51" s="41">
         <v>424.8</v>
       </c>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="47">
+      <c r="F51" s="91"/>
+      <c r="G51" s="91"/>
+      <c r="H51" s="47">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
-      <c r="I50" s="36">
-        <f t="shared" ref="I50" si="5">SUM(C50+E50)</f>
+      <c r="I51" s="36">
+        <f t="shared" ref="I51" si="5">SUM(C51+E51)</f>
         <v>498.12</v>
       </c>
-      <c r="J50" s="42"/>
-      <c r="L50" s="25">
+      <c r="J51" s="42"/>
+      <c r="L51" s="25">
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>46</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="37" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="31" t="s">
+      <c r="B54" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C53" s="32" t="s">
+      <c r="C54" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D54" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E53" s="32" t="s">
+      <c r="E54" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="31" t="s">
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I53" s="32" t="s">
+      <c r="I54" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J53" s="42"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="38" t="s">
+      <c r="J54" s="42"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="B54" s="168" t="s">
+      <c r="B55" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="C54" s="169"/>
-      <c r="D54" s="168" t="s">
+      <c r="C55" s="174"/>
+      <c r="D55" s="173" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="169"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="I54" s="146"/>
-      <c r="J54" s="86"/>
-      <c r="K54" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="48">
-        <v>3</v>
-      </c>
-      <c r="B55" s="43">
-        <v>51</v>
-      </c>
-      <c r="C55" s="34">
-        <v>112.1</v>
-      </c>
-      <c r="D55" s="56">
-        <v>395</v>
-      </c>
-      <c r="E55" s="44">
-        <v>340</v>
-      </c>
+      <c r="E55" s="174"/>
       <c r="F55" s="40"/>
       <c r="G55" s="40"/>
-      <c r="H55" s="49">
-        <f>SUM(B55+D55)</f>
-        <v>446</v>
-      </c>
-      <c r="I55" s="34">
-        <f>SUM(C55+E55)</f>
-        <v>452.1</v>
-      </c>
-      <c r="J55" s="42"/>
-      <c r="K55" s="58">
-        <f>SUM(H55:H58)</f>
-        <v>1320</v>
-      </c>
-      <c r="L55" s="25">
-        <v>1024</v>
+      <c r="H55" s="152" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" s="153"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="38">
-        <v>12</v>
+      <c r="A56" s="48">
+        <v>3</v>
       </c>
       <c r="B56" s="43">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="C56" s="34">
-        <v>167.1</v>
+        <v>112.1</v>
       </c>
       <c r="D56" s="56">
-        <v>494</v>
+        <v>395</v>
       </c>
       <c r="E56" s="44">
-        <v>830.4</v>
+        <v>340</v>
       </c>
       <c r="F56" s="40"/>
       <c r="G56" s="40"/>
       <c r="H56" s="49">
-        <f t="shared" ref="H56" si="6">SUM(B56+D56)</f>
-        <v>639</v>
+        <f>SUM(B56+D56)</f>
+        <v>446</v>
       </c>
       <c r="I56" s="34">
         <f>SUM(C56+E56)</f>
-        <v>997.5</v>
+        <v>452.1</v>
       </c>
       <c r="J56" s="42"/>
+      <c r="K56" s="58">
+        <f>SUM(H56:H59)</f>
+        <v>1320</v>
+      </c>
+      <c r="L56" s="25">
+        <v>1024</v>
+      </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="38">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B57" s="43">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="C57" s="34">
-        <v>263.3</v>
+        <v>167.1</v>
       </c>
       <c r="D57" s="56">
-        <v>202</v>
+        <v>494</v>
       </c>
       <c r="E57" s="44">
-        <v>417</v>
+        <v>830.4</v>
       </c>
       <c r="F57" s="40"/>
       <c r="G57" s="40"/>
       <c r="H57" s="49">
-        <f>SUM(B57+D58)</f>
-        <v>124</v>
+        <f t="shared" ref="H57" si="6">SUM(B57+D57)</f>
+        <v>639</v>
       </c>
       <c r="I57" s="34">
         <f>SUM(C57+E57)</f>
+        <v>997.5</v>
+      </c>
+      <c r="J57" s="42"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="38">
+        <v>27</v>
+      </c>
+      <c r="B58" s="43">
+        <v>19</v>
+      </c>
+      <c r="C58" s="34">
+        <v>263.3</v>
+      </c>
+      <c r="D58" s="56">
+        <v>202</v>
+      </c>
+      <c r="E58" s="44">
+        <v>417</v>
+      </c>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="49">
+        <f>SUM(B58+D59)</f>
+        <v>124</v>
+      </c>
+      <c r="I58" s="34">
+        <f>SUM(C58+E58)</f>
         <v>680.3</v>
-      </c>
-      <c r="J57" s="42"/>
-      <c r="L57" s="25"/>
-    </row>
-    <row r="58" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="39">
-        <v>47</v>
-      </c>
-      <c r="B58" s="45">
-        <v>6</v>
-      </c>
-      <c r="C58" s="36">
-        <v>139.9</v>
-      </c>
-      <c r="D58" s="57">
-        <v>105</v>
-      </c>
-      <c r="E58" s="41">
-        <v>510.9</v>
-      </c>
-      <c r="F58" s="91"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="59">
-        <f>SUM(B58+D58)</f>
-        <v>111</v>
-      </c>
-      <c r="I58" s="36">
-        <f t="shared" ref="I58" si="7">SUM(C58+E58)</f>
-        <v>650.79999999999995</v>
       </c>
       <c r="J58" s="42"/>
       <c r="L58" s="25"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B59">
-        <f>SUM(B55:B58)</f>
+    <row r="59" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="39">
+        <v>47</v>
+      </c>
+      <c r="B59" s="45">
+        <v>6</v>
+      </c>
+      <c r="C59" s="36">
+        <v>139.9</v>
+      </c>
+      <c r="D59" s="57">
+        <v>105</v>
+      </c>
+      <c r="E59" s="41">
+        <v>510.9</v>
+      </c>
+      <c r="F59" s="91"/>
+      <c r="G59" s="91"/>
+      <c r="H59" s="59">
+        <f>SUM(B59+D59)</f>
+        <v>111</v>
+      </c>
+      <c r="I59" s="36">
+        <f t="shared" ref="I59" si="7">SUM(C59+E59)</f>
+        <v>650.79999999999995</v>
+      </c>
+      <c r="J59" s="42"/>
+      <c r="L59" s="25"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <f>SUM(B56:B59)</f>
         <v>221</v>
       </c>
-      <c r="D59">
-        <f>SUM(D55:D58)</f>
+      <c r="D60">
+        <f>SUM(D56:D59)</f>
         <v>1196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61" s="45">
-        <v>41</v>
-      </c>
-      <c r="C61" s="36">
-        <v>42.88</v>
-      </c>
-      <c r="D61" s="35">
-        <v>160</v>
-      </c>
-      <c r="E61" s="41">
-        <v>566.1</v>
-      </c>
-      <c r="F61" s="91"/>
-      <c r="G61" s="91"/>
-      <c r="H61" s="47">
-        <f t="shared" ref="H61" si="8">SUM(B61+D61)</f>
-        <v>201</v>
-      </c>
-      <c r="I61" s="36">
-        <f t="shared" ref="I61" si="9">SUM(C61+E61)</f>
-        <v>608.98</v>
-      </c>
-      <c r="J61" s="42"/>
-      <c r="L61" s="27">
-        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62" s="45">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C62" s="36">
-        <v>73.319999999999993</v>
+        <v>42.88</v>
       </c>
       <c r="D62" s="35">
-        <v>222</v>
+        <v>160</v>
       </c>
       <c r="E62" s="41">
-        <v>919.4</v>
+        <v>566.1</v>
       </c>
       <c r="F62" s="91"/>
       <c r="G62" s="91"/>
-      <c r="H62" s="59">
-        <f>SUM(B62+D62)</f>
-        <v>240</v>
+      <c r="H62" s="47">
+        <f t="shared" ref="H62" si="8">SUM(B62+D62)</f>
+        <v>201</v>
       </c>
       <c r="I62" s="36">
-        <f>SUM(C62+E62)</f>
-        <v>992.72</v>
+        <f t="shared" ref="I62" si="9">SUM(C62+E62)</f>
+        <v>608.98</v>
       </c>
       <c r="J62" s="42"/>
       <c r="L62" s="27">
@@ -3463,29 +3462,29 @@
     </row>
     <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63" s="45">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C63" s="36">
-        <v>44.27</v>
+        <v>73.319999999999993</v>
       </c>
       <c r="D63" s="35">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="E63" s="41">
-        <v>629.79999999999995</v>
+        <v>919.4</v>
       </c>
       <c r="F63" s="91"/>
       <c r="G63" s="91"/>
-      <c r="H63" s="47">
-        <f t="shared" ref="H63:H64" si="10">SUM(B63+D63)</f>
-        <v>157</v>
+      <c r="H63" s="59">
+        <f>SUM(B63+D63)</f>
+        <v>240</v>
       </c>
       <c r="I63" s="36">
-        <f t="shared" ref="I63:I64" si="11">SUM(C63+E63)</f>
-        <v>674.06999999999994</v>
+        <f>SUM(C63+E63)</f>
+        <v>992.72</v>
       </c>
       <c r="J63" s="42"/>
       <c r="L63" s="27">
@@ -3494,44 +3493,67 @@
     </row>
     <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B64" s="45">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C64" s="36">
-        <v>43.76</v>
+        <v>44.27</v>
       </c>
       <c r="D64" s="35">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="E64" s="41">
-        <v>583.79999999999995</v>
+        <v>629.79999999999995</v>
       </c>
       <c r="F64" s="91"/>
       <c r="G64" s="91"/>
       <c r="H64" s="47">
-        <f t="shared" si="10"/>
-        <v>194</v>
+        <f t="shared" ref="H64:H65" si="10">SUM(B64+D64)</f>
+        <v>157</v>
       </c>
       <c r="I64" s="36">
-        <f t="shared" si="11"/>
-        <v>627.55999999999995</v>
+        <f t="shared" ref="I64:I65" si="11">SUM(C64+E64)</f>
+        <v>674.06999999999994</v>
       </c>
       <c r="J64" s="42"/>
       <c r="L64" s="27">
         <v>229</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="J65" s="89"/>
-      <c r="K65" s="68"/>
-    </row>
-    <row r="66" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" s="45">
+        <v>41</v>
+      </c>
+      <c r="C65" s="36">
+        <v>43.76</v>
+      </c>
+      <c r="D65" s="35">
+        <v>153</v>
+      </c>
+      <c r="E65" s="41">
+        <v>583.79999999999995</v>
+      </c>
+      <c r="F65" s="91"/>
+      <c r="G65" s="91"/>
+      <c r="H65" s="47">
+        <f t="shared" si="10"/>
+        <v>194</v>
+      </c>
+      <c r="I65" s="36">
+        <f t="shared" si="11"/>
+        <v>627.55999999999995</v>
+      </c>
+      <c r="J65" s="42"/>
+      <c r="L65" s="27">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="27"/>
       <c r="C66" s="27"/>
@@ -3540,1141 +3562,1413 @@
       <c r="K66" s="68"/>
     </row>
     <row r="67" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="27"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
+      <c r="D67" s="27"/>
+      <c r="G67">
+        <f>SUM(F72:F75)</f>
+        <v>105</v>
+      </c>
+      <c r="J67" s="89"/>
+      <c r="K67" s="68"/>
+    </row>
+    <row r="68" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B67" s="105" t="s">
+      <c r="B68" s="138" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="138"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="138"/>
+      <c r="F68" s="138"/>
+      <c r="G68" s="138"/>
+      <c r="H68" s="138"/>
+      <c r="I68" s="138"/>
+      <c r="J68" s="139"/>
+      <c r="K68" s="140"/>
+      <c r="L68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E69" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F69" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H69" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I69" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="J69" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="K69" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="L69" s="68"/>
+      <c r="O69" s="68"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A70" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="150" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="151"/>
+      <c r="D70" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="E70" s="151"/>
+      <c r="F70" s="150" t="s">
+        <v>67</v>
+      </c>
+      <c r="G70" s="151"/>
+      <c r="H70" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" s="153"/>
+      <c r="J70" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="K70" s="156"/>
+      <c r="L70" s="68"/>
+      <c r="O70" s="68"/>
+    </row>
+    <row r="71" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="141">
+        <v>0</v>
+      </c>
+      <c r="B71" s="104">
+        <v>20</v>
+      </c>
+      <c r="C71" s="105">
+        <v>54.03</v>
+      </c>
+      <c r="D71" s="106">
+        <v>239</v>
+      </c>
+      <c r="E71" s="107">
+        <v>605.79999999999995</v>
+      </c>
+      <c r="F71" s="106">
+        <v>142</v>
+      </c>
+      <c r="G71" s="107">
+        <v>3415</v>
+      </c>
+      <c r="H71" s="106">
+        <f>SUM(B71+D71+F71)</f>
+        <v>401</v>
+      </c>
+      <c r="I71" s="107">
+        <f>SUM(C71+E71+G71)/3600</f>
+        <v>1.1318972222222221</v>
+      </c>
+      <c r="J71" s="87">
+        <v>137</v>
+      </c>
+      <c r="K71" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="106"/>
-      <c r="K67" s="107"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A68" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="B68" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C68" s="67" t="s">
+      <c r="O71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A72" s="112">
+        <v>3</v>
+      </c>
+      <c r="B72" s="113">
+        <v>11</v>
+      </c>
+      <c r="C72" s="114">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="D72" s="115">
+        <v>368</v>
+      </c>
+      <c r="E72" s="116">
+        <v>1813</v>
+      </c>
+      <c r="F72" s="115">
         <v>82</v>
       </c>
-      <c r="D68" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E68" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="F68" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="G68" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="H68" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="I68" s="67" t="s">
-        <v>83</v>
-      </c>
-      <c r="J68" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="K68" s="109" t="s">
-        <v>84</v>
-      </c>
-      <c r="L68" s="68"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A69" s="95" t="s">
-        <v>31</v>
-      </c>
-      <c r="B69" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="C69" s="144"/>
-      <c r="D69" s="143" t="s">
-        <v>43</v>
-      </c>
-      <c r="E69" s="144"/>
-      <c r="F69" s="143" t="s">
-        <v>67</v>
-      </c>
-      <c r="G69" s="144"/>
-      <c r="H69" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="I69" s="146"/>
-      <c r="J69" s="154" t="s">
-        <v>81</v>
-      </c>
-      <c r="K69" s="155"/>
-      <c r="L69" s="68"/>
-    </row>
-    <row r="70" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="127">
-        <v>0</v>
-      </c>
-      <c r="B70" s="128">
-        <v>20</v>
-      </c>
-      <c r="C70" s="129">
-        <v>54.03</v>
-      </c>
-      <c r="D70" s="130">
-        <v>239</v>
-      </c>
-      <c r="E70" s="131">
-        <v>605.79999999999995</v>
-      </c>
-      <c r="F70" s="130">
-        <v>142</v>
-      </c>
-      <c r="G70" s="131">
-        <v>3415</v>
-      </c>
-      <c r="H70" s="130">
-        <f>SUM(B70+D70+F70)</f>
-        <v>401</v>
-      </c>
-      <c r="I70" s="131">
-        <f>SUM(C70+E70+G70)/3600</f>
-        <v>1.1318972222222221</v>
-      </c>
-      <c r="J70" s="87">
-        <v>137</v>
-      </c>
-      <c r="K70" s="110" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A71" s="137">
-        <v>3</v>
-      </c>
-      <c r="B71" s="138">
-        <v>11</v>
-      </c>
-      <c r="C71" s="139">
-        <v>133.80000000000001</v>
-      </c>
-      <c r="D71" s="140">
-        <v>368</v>
-      </c>
-      <c r="E71" s="141">
-        <v>1813</v>
-      </c>
-      <c r="F71" s="140">
-        <v>82</v>
-      </c>
-      <c r="G71" s="141">
+      <c r="G72" s="116">
         <v>11701</v>
       </c>
-      <c r="H71" s="66">
-        <f>SUM(B71+D71+F71)</f>
+      <c r="H72" s="115">
+        <f>SUM(B72+D72+F72)</f>
         <v>461</v>
       </c>
-      <c r="I71" s="142">
-        <f>SUM(C71+E71+G71)/3600</f>
+      <c r="I72" s="116">
+        <f>SUM(C72+E72+G72)/3600</f>
         <v>3.7910555555555554</v>
       </c>
-      <c r="J71" s="89">
+      <c r="J72" s="87">
         <v>1024</v>
       </c>
-      <c r="K71" s="109" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A72" s="48">
-        <v>12</v>
-      </c>
-      <c r="B72" s="50">
-        <v>152</v>
-      </c>
-      <c r="C72" s="51">
-        <v>182.1</v>
-      </c>
-      <c r="D72" s="49">
-        <v>493</v>
-      </c>
-      <c r="E72" s="52">
-        <v>1928</v>
-      </c>
-      <c r="F72" s="96"/>
-      <c r="G72" s="172"/>
-      <c r="H72" s="72">
-        <f t="shared" ref="H72:H76" si="12">SUM(B72+D72+F72)</f>
-        <v>645</v>
-      </c>
-      <c r="I72" s="98">
-        <f t="shared" ref="I72:I76" si="13">SUM(C72+E72+G72)/3600</f>
-        <v>0.58613888888888888</v>
-      </c>
-      <c r="J72" s="89"/>
-      <c r="K72" s="109"/>
-      <c r="O72" t="s">
-        <v>76</v>
+      <c r="K72" s="129" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="48">
+        <v>12</v>
+      </c>
+      <c r="B73" s="50">
+        <v>152</v>
+      </c>
+      <c r="C73" s="51">
+        <v>182.1</v>
+      </c>
+      <c r="D73" s="49">
+        <v>496</v>
+      </c>
+      <c r="E73" s="52">
+        <v>2020</v>
+      </c>
+      <c r="F73" s="49">
+        <v>0</v>
+      </c>
+      <c r="G73" s="52">
+        <v>21592</v>
+      </c>
+      <c r="H73" s="49">
+        <f t="shared" ref="H73:H78" si="12">SUM(B73+D73+F73)</f>
+        <v>648</v>
+      </c>
+      <c r="I73" s="52">
+        <f t="shared" ref="I73:I78" si="13">SUM(C73+E73+G73)/3600</f>
+        <v>6.6094722222222222</v>
+      </c>
+      <c r="J73" s="124"/>
+      <c r="K73" s="129"/>
+      <c r="O73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" s="48">
         <v>27</v>
       </c>
-      <c r="B73" s="50">
+      <c r="B74" s="50">
         <v>24</v>
       </c>
-      <c r="C73" s="51">
+      <c r="C74" s="51">
         <v>102</v>
       </c>
-      <c r="D73" s="49">
-        <v>307</v>
-      </c>
-      <c r="E73" s="52">
+      <c r="D74" s="49">
+        <v>324</v>
+      </c>
+      <c r="E74" s="52">
         <v>1386</v>
       </c>
-      <c r="F73" s="49">
-        <v>20</v>
-      </c>
-      <c r="G73" s="52">
-        <v>9853</v>
-      </c>
-      <c r="H73" s="72">
-        <f>SUM(B73+D73+F73)</f>
-        <v>351</v>
-      </c>
-      <c r="I73" s="98">
+      <c r="F74" s="49">
+        <v>21</v>
+      </c>
+      <c r="G74" s="52">
+        <v>11985</v>
+      </c>
+      <c r="H74" s="49">
+        <f>SUM(B74+D74+F74)</f>
+        <v>369</v>
+      </c>
+      <c r="I74" s="52">
         <f t="shared" si="13"/>
-        <v>3.1502777777777777</v>
-      </c>
-      <c r="J73" s="89">
-        <f>SUM(H71:H74)</f>
-        <v>1923</v>
-      </c>
-      <c r="K73" s="109">
-        <f>SUM(I71:I74)</f>
-        <v>8.1154722222222233</v>
-      </c>
-      <c r="N73">
+        <v>3.7425000000000002</v>
+      </c>
+      <c r="J74" s="87">
+        <f>SUM(H72:H75)</f>
+        <v>1948</v>
+      </c>
+      <c r="K74" s="129">
+        <f>SUM(I72:I75)</f>
+        <v>19.989805555555556</v>
+      </c>
+      <c r="N74">
         <v>1</v>
       </c>
-      <c r="O73" s="1" t="s">
+      <c r="O74" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="171">
+    <row r="75" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="119">
         <v>47</v>
       </c>
-      <c r="B74" s="101">
-        <v>75</v>
-      </c>
-      <c r="C74" s="102">
-        <v>155.80000000000001</v>
-      </c>
-      <c r="D74" s="59">
-        <v>391</v>
-      </c>
-      <c r="E74" s="126">
-        <v>1961</v>
-      </c>
-      <c r="F74" s="173"/>
-      <c r="G74" s="174"/>
-      <c r="H74" s="78">
-        <f>SUM(B74+D74+F74)</f>
-        <v>466</v>
-      </c>
-      <c r="I74" s="79">
+      <c r="B75" s="98">
+        <v>76</v>
+      </c>
+      <c r="C75" s="99">
+        <v>153.4</v>
+      </c>
+      <c r="D75" s="59">
+        <v>392</v>
+      </c>
+      <c r="E75" s="103">
+        <v>2218</v>
+      </c>
+      <c r="F75" s="59">
+        <v>2</v>
+      </c>
+      <c r="G75" s="103">
+        <v>18677</v>
+      </c>
+      <c r="H75" s="59">
+        <f>SUM(B75+D75+F75)</f>
+        <v>470</v>
+      </c>
+      <c r="I75" s="103">
         <f t="shared" si="13"/>
-        <v>0.58800000000000008</v>
-      </c>
-      <c r="J74" s="89"/>
-      <c r="K74" s="109">
-        <f>K73/4</f>
-        <v>2.0288680555555558</v>
-      </c>
-      <c r="N74">
+        <v>5.8467777777777785</v>
+      </c>
+      <c r="J75" s="124"/>
+      <c r="K75" s="129">
+        <f>K74/4</f>
+        <v>4.997451388888889</v>
+      </c>
+      <c r="N75">
         <v>2</v>
       </c>
-      <c r="O74" s="99" t="s">
+      <c r="O75" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P75" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A75" s="132">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" s="142">
         <v>52</v>
       </c>
-      <c r="B75" s="133">
+      <c r="B76" s="108">
         <v>5</v>
       </c>
-      <c r="C75" s="134">
+      <c r="C76" s="109">
         <v>8.5749999999999993</v>
       </c>
-      <c r="D75" s="135">
+      <c r="D76" s="110">
         <v>0</v>
       </c>
-      <c r="E75" s="136">
+      <c r="E76" s="111">
         <v>117.4</v>
       </c>
-      <c r="F75" s="135">
+      <c r="F76" s="110">
         <v>0</v>
       </c>
-      <c r="G75" s="134">
+      <c r="G76" s="109">
         <v>76.59</v>
       </c>
-      <c r="H75" s="135">
+      <c r="H76" s="110">
         <f t="shared" si="12"/>
         <v>5</v>
       </c>
-      <c r="I75" s="136">
+      <c r="I76" s="111">
         <f t="shared" si="13"/>
         <v>5.6268055555555557E-2</v>
       </c>
-      <c r="J75" s="111">
+      <c r="J76" s="100">
         <v>52</v>
       </c>
-      <c r="K75" s="112" t="s">
-        <v>87</v>
-      </c>
-      <c r="N75">
+      <c r="K76" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="N76">
         <v>3</v>
       </c>
-      <c r="O75" t="s">
+      <c r="O76" s="127" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="113">
+      <c r="P76" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q76" s="128" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="143">
+        <v>102</v>
+      </c>
+      <c r="B77" s="132">
+        <v>236</v>
+      </c>
+      <c r="C77" s="133">
+        <v>162.69999999999999</v>
+      </c>
+      <c r="D77" s="134">
+        <v>350</v>
+      </c>
+      <c r="E77" s="135">
+        <v>1228.5999999999999</v>
+      </c>
+      <c r="F77" s="130">
+        <v>0</v>
+      </c>
+      <c r="G77" s="135">
+        <v>7303</v>
+      </c>
+      <c r="H77" s="148">
+        <f>SUM(B77+D77+F77)</f>
+        <v>586</v>
+      </c>
+      <c r="I77" s="149">
+        <f t="shared" si="13"/>
+        <v>2.415083333333333</v>
+      </c>
+      <c r="J77" s="100">
+        <v>691</v>
+      </c>
+      <c r="K77" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="O77" s="127"/>
+    </row>
+    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="119">
         <v>163</v>
       </c>
-      <c r="B76" s="101">
+      <c r="B78" s="98">
         <v>18</v>
       </c>
-      <c r="C76" s="102">
+      <c r="C78" s="99">
         <v>56.07</v>
       </c>
-      <c r="D76" s="59">
+      <c r="D78" s="59">
         <v>240</v>
       </c>
-      <c r="E76" s="126">
+      <c r="E78" s="103">
         <v>936.5</v>
       </c>
-      <c r="F76" s="59">
+      <c r="F78" s="59">
         <v>32</v>
       </c>
-      <c r="G76" s="126">
+      <c r="G78" s="103">
         <v>8232</v>
       </c>
-      <c r="H76" s="59">
+      <c r="H78" s="59">
         <f t="shared" si="12"/>
         <v>290</v>
       </c>
-      <c r="I76" s="126">
+      <c r="I78" s="103">
         <f t="shared" si="13"/>
         <v>2.5623805555555554</v>
       </c>
-      <c r="J76" s="87">
+      <c r="J78" s="87">
         <v>229</v>
       </c>
-      <c r="K76" s="110" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A77" s="114"/>
-      <c r="B77" s="115"/>
-      <c r="C77" s="115"/>
-      <c r="D77" s="115"/>
-      <c r="E77" s="115"/>
-      <c r="F77" s="149" t="s">
+      <c r="K78" s="135" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="144"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="145"/>
+      <c r="D79" s="145"/>
+      <c r="E79" s="145"/>
+      <c r="F79" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="G77" s="149"/>
-      <c r="H77" s="115"/>
-      <c r="I77" s="115"/>
-      <c r="J77" s="115"/>
-      <c r="K77" s="116"/>
-      <c r="O77" t="s">
+      <c r="G79" s="154"/>
+      <c r="H79" s="145"/>
+      <c r="I79" s="145"/>
+      <c r="J79" s="145"/>
+      <c r="K79" s="146"/>
+      <c r="O79" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="114" t="s">
+    <row r="80" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="101"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="101"/>
+      <c r="D80" s="101"/>
+      <c r="E80" s="101"/>
+      <c r="F80" s="102"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="101"/>
+      <c r="I80" s="101"/>
+      <c r="J80" s="101"/>
+      <c r="K80" s="101"/>
+      <c r="O80" t="s">
+        <v>69</v>
+      </c>
+      <c r="P80" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="137" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="117" t="s">
+      <c r="B81" s="176" t="s">
+        <v>97</v>
+      </c>
+      <c r="C81" s="176"/>
+      <c r="D81" s="138"/>
+      <c r="E81" s="138"/>
+      <c r="F81" s="138"/>
+      <c r="G81" s="138"/>
+      <c r="H81" s="138"/>
+      <c r="I81" s="138"/>
+      <c r="J81" s="139"/>
+      <c r="K81" s="140"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="D82" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="F82" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="G82" s="67" t="s">
+        <v>81</v>
+      </c>
+      <c r="H82" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I82" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="J82" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="K82" s="129" t="s">
+        <v>82</v>
+      </c>
+      <c r="L82" s="124" t="s">
+        <v>44</v>
+      </c>
+      <c r="M82" s="124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="150" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="151"/>
+      <c r="D83" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="151"/>
+      <c r="F83" s="150" t="s">
+        <v>67</v>
+      </c>
+      <c r="G83" s="151"/>
+      <c r="H83" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="I83" s="153"/>
+      <c r="J83" s="155" t="s">
+        <v>80</v>
+      </c>
+      <c r="K83" s="156"/>
+      <c r="L83" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="M83" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="141">
+        <v>0</v>
+      </c>
+      <c r="B84" s="104">
+        <v>20</v>
+      </c>
+      <c r="C84" s="105">
+        <v>93.74</v>
+      </c>
+      <c r="D84" s="106">
+        <v>287</v>
+      </c>
+      <c r="E84" s="107">
+        <v>642.5</v>
+      </c>
+      <c r="F84" s="106">
+        <v>176</v>
+      </c>
+      <c r="G84" s="107">
+        <v>3436</v>
+      </c>
+      <c r="H84" s="106">
+        <f>SUM(B84+D84+F84)</f>
+        <v>483</v>
+      </c>
+      <c r="I84" s="107">
+        <f>SUM(C84+E84+G84)/3600</f>
+        <v>1.1589555555555555</v>
+      </c>
+      <c r="J84" s="87">
+        <v>137</v>
+      </c>
+      <c r="K84" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="115"/>
-      <c r="H78" s="115"/>
-      <c r="I78" s="115"/>
-      <c r="J78" s="115"/>
-      <c r="K78" s="118"/>
-      <c r="O78" t="s">
-        <v>69</v>
-      </c>
-      <c r="P78" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A79" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="B79" s="66" t="s">
+      <c r="L84" s="58">
+        <f>H84-J84</f>
+        <v>346</v>
+      </c>
+      <c r="M84" s="58">
+        <v>189</v>
+      </c>
+      <c r="O84" t="s">
+        <v>75</v>
+      </c>
+      <c r="P84" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" s="112">
+        <v>3</v>
+      </c>
+      <c r="B85" s="113">
+        <v>12</v>
+      </c>
+      <c r="C85" s="114">
+        <v>142.5</v>
+      </c>
+      <c r="D85" s="115">
+        <v>526</v>
+      </c>
+      <c r="E85" s="116">
+        <v>1882</v>
+      </c>
+      <c r="F85" s="115">
+        <v>111</v>
+      </c>
+      <c r="G85" s="116">
+        <v>11553</v>
+      </c>
+      <c r="H85" s="66">
+        <f>SUM(B85+D85+F85)</f>
+        <v>649</v>
+      </c>
+      <c r="I85" s="117">
+        <f>SUM(C85+E85+G85)/3600</f>
+        <v>3.7715277777777776</v>
+      </c>
+      <c r="J85" s="124">
+        <v>1024</v>
+      </c>
+      <c r="K85" s="129" t="s">
+        <v>85</v>
+      </c>
+      <c r="L85">
+        <f>J87-J85</f>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="48">
+        <v>12</v>
+      </c>
+      <c r="B86" s="50">
+        <v>154</v>
+      </c>
+      <c r="C86" s="51">
+        <v>324.89999999999998</v>
+      </c>
+      <c r="D86" s="49">
+        <v>727</v>
+      </c>
+      <c r="E86" s="52">
+        <v>2343</v>
+      </c>
+      <c r="F86" s="49">
+        <v>0</v>
+      </c>
+      <c r="G86" s="178">
+        <v>22163</v>
+      </c>
+      <c r="H86" s="72">
+        <f t="shared" ref="H86" si="14">SUM(B86+D86+F86)</f>
+        <v>881</v>
+      </c>
+      <c r="I86" s="178">
+        <f t="shared" ref="I86:I91" si="15">SUM(C86+E86+G86)/3600</f>
+        <v>6.8974722222222224</v>
+      </c>
+      <c r="J86" s="124"/>
+      <c r="K86" s="129"/>
+      <c r="L86" s="68"/>
+      <c r="O86" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="P86" s="128" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" s="48">
+        <v>27</v>
+      </c>
+      <c r="B87" s="50">
+        <v>25</v>
+      </c>
+      <c r="C87" s="51">
+        <v>160.6</v>
+      </c>
+      <c r="D87" s="49">
+        <v>341</v>
+      </c>
+      <c r="E87" s="52">
+        <v>1718</v>
+      </c>
+      <c r="F87" s="72"/>
+      <c r="G87" s="123"/>
+      <c r="H87" s="72">
+        <f>SUM(B87+D87+F87)</f>
+        <v>366</v>
+      </c>
+      <c r="I87" s="123">
+        <f t="shared" si="15"/>
+        <v>0.52183333333333326</v>
+      </c>
+      <c r="J87" s="124">
+        <f>SUM(H85:H88)</f>
+        <v>1896</v>
+      </c>
+      <c r="K87" s="129">
+        <f>SUM(I85:I88)</f>
+        <v>11.190833333333334</v>
+      </c>
+      <c r="L87" s="74"/>
+    </row>
+    <row r="88" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="119">
+        <v>47</v>
+      </c>
+      <c r="B88" s="76"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="78"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="79"/>
+      <c r="H88" s="78">
+        <f>SUM(B88+D88+F88)</f>
+        <v>0</v>
+      </c>
+      <c r="I88" s="79">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="124"/>
+      <c r="K88" s="129">
+        <f>K87/4</f>
+        <v>2.7977083333333335</v>
+      </c>
+      <c r="L88" s="74"/>
+      <c r="O88" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" s="142">
+        <v>52</v>
+      </c>
+      <c r="B89" s="108">
+        <v>5</v>
+      </c>
+      <c r="C89" s="109">
+        <v>98.37</v>
+      </c>
+      <c r="D89" s="110">
+        <v>0</v>
+      </c>
+      <c r="E89" s="111">
+        <v>183.6</v>
+      </c>
+      <c r="F89" s="110">
+        <v>0</v>
+      </c>
+      <c r="G89" s="109">
+        <v>22.72</v>
+      </c>
+      <c r="H89" s="110">
+        <f t="shared" ref="H89" si="16">SUM(B89+D89+F89)</f>
+        <v>5</v>
+      </c>
+      <c r="I89" s="111">
+        <f t="shared" si="15"/>
+        <v>8.463611111111112E-2</v>
+      </c>
+      <c r="J89" s="100">
+        <v>52</v>
+      </c>
+      <c r="K89" s="131" t="s">
+        <v>85</v>
+      </c>
+      <c r="L89" s="128">
+        <f>H89-J89</f>
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="143">
+        <v>102</v>
+      </c>
+      <c r="B90" s="132">
+        <v>254</v>
+      </c>
+      <c r="C90" s="133">
+        <v>215.01</v>
+      </c>
+      <c r="D90" s="134">
+        <v>479</v>
+      </c>
+      <c r="E90" s="135">
+        <v>1258</v>
+      </c>
+      <c r="F90" s="134">
+        <v>2</v>
+      </c>
+      <c r="G90" s="135">
+        <v>7052</v>
+      </c>
+      <c r="H90" s="59">
+        <f>SUM(B90+D90+F90)</f>
+        <v>735</v>
+      </c>
+      <c r="I90" s="103">
+        <f t="shared" si="15"/>
+        <v>2.3680583333333334</v>
+      </c>
+      <c r="J90" s="177">
+        <v>691</v>
+      </c>
+      <c r="K90" s="135" t="s">
+        <v>85</v>
+      </c>
+      <c r="L90" s="58">
+        <f>H90-J90</f>
         <v>44</v>
       </c>
-      <c r="C79" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="D79" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="F79" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="G79" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="H79" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="I79" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="J79" s="115"/>
-      <c r="K79" s="118"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A80" s="95" t="s">
+    </row>
+    <row r="91" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="119">
+        <v>163</v>
+      </c>
+      <c r="B91" s="98">
+        <v>18</v>
+      </c>
+      <c r="C91" s="99">
+        <v>72.62</v>
+      </c>
+      <c r="D91" s="59">
+        <v>286</v>
+      </c>
+      <c r="E91" s="103">
+        <v>1181</v>
+      </c>
+      <c r="F91" s="59">
+        <v>32</v>
+      </c>
+      <c r="G91" s="103">
+        <v>8232</v>
+      </c>
+      <c r="H91" s="59">
+        <f t="shared" ref="H91" si="17">SUM(B91+D91+F91)</f>
+        <v>336</v>
+      </c>
+      <c r="I91" s="103">
+        <f t="shared" si="15"/>
+        <v>2.634894444444444</v>
+      </c>
+      <c r="J91" s="87">
+        <v>229</v>
+      </c>
+      <c r="K91" s="135" t="s">
+        <v>85</v>
+      </c>
+      <c r="L91" s="58">
+        <f>H91-J91</f>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="144"/>
+      <c r="B92" s="145"/>
+      <c r="C92" s="145"/>
+      <c r="D92" s="145"/>
+      <c r="E92" s="145"/>
+      <c r="F92" s="154" t="s">
+        <v>77</v>
+      </c>
+      <c r="G92" s="154"/>
+      <c r="H92" s="145"/>
+      <c r="I92" s="145"/>
+      <c r="J92" s="145"/>
+      <c r="K92" s="146"/>
+      <c r="L92" s="68"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" s="147"/>
+      <c r="B93" s="101"/>
+      <c r="C93" s="101"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="101"/>
+      <c r="F93" s="136"/>
+      <c r="G93" s="136"/>
+      <c r="H93" s="101"/>
+      <c r="I93" s="101"/>
+      <c r="J93" s="101"/>
+      <c r="K93" s="102"/>
+      <c r="L93" s="68"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B80" s="143" t="s">
+      <c r="B94" s="150" t="s">
         <v>42</v>
       </c>
-      <c r="C80" s="144"/>
-      <c r="D80" s="143" t="s">
+      <c r="C94" s="151"/>
+      <c r="D94" s="150" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="144"/>
-      <c r="F80" s="143" t="s">
-        <v>67</v>
-      </c>
-      <c r="G80" s="147"/>
-      <c r="H80" s="148" t="s">
+      <c r="E94" s="151"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="152" t="s">
         <v>58</v>
       </c>
-      <c r="I80" s="146"/>
-      <c r="J80" s="115"/>
-      <c r="K80" s="119"/>
-      <c r="O80" t="s">
-        <v>75</v>
-      </c>
-      <c r="P80" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="95">
-        <v>3</v>
-      </c>
-      <c r="B81" s="97">
-        <v>9</v>
-      </c>
-      <c r="C81" s="71">
-        <v>104</v>
-      </c>
-      <c r="D81" s="72">
-        <v>373</v>
-      </c>
-      <c r="E81" s="98">
-        <v>1826</v>
-      </c>
-      <c r="F81" s="72"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="72">
-        <f>SUM(B81+D81+F81)</f>
-        <v>382</v>
-      </c>
-      <c r="I81" s="98">
-        <f>SUM(C81+E81+G81)</f>
-        <v>1930</v>
-      </c>
-      <c r="J81" s="89"/>
-      <c r="K81" s="116"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="95">
-        <v>12</v>
-      </c>
-      <c r="B82" s="97">
-        <v>152</v>
-      </c>
-      <c r="C82" s="71">
-        <v>182.1</v>
-      </c>
-      <c r="D82" s="82">
-        <v>490</v>
-      </c>
-      <c r="E82" s="98">
-        <v>1966</v>
-      </c>
-      <c r="F82" s="82"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="72">
-        <f t="shared" ref="H82" si="14">SUM(B82+D82+F82)</f>
-        <v>642</v>
-      </c>
-      <c r="I82" s="98">
-        <f>SUM(C82+E82+G82)</f>
-        <v>2148.1</v>
-      </c>
-      <c r="J82" s="89"/>
-      <c r="K82" s="118"/>
-      <c r="L82" s="68"/>
-      <c r="O82" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="P82" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" s="95">
-        <v>27</v>
-      </c>
-      <c r="B83" s="97">
-        <v>24</v>
-      </c>
-      <c r="C83" s="71">
-        <v>102</v>
-      </c>
-      <c r="D83" s="82">
-        <v>307</v>
-      </c>
-      <c r="E83" s="98">
-        <v>1386</v>
-      </c>
-      <c r="F83" s="82"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="72">
-        <f>SUM(B83+D83+F83)</f>
-        <v>331</v>
-      </c>
-      <c r="I83" s="98">
-        <f t="shared" ref="I83:I84" si="15">SUM(C83+E83+G83)</f>
-        <v>1488</v>
-      </c>
-      <c r="J83" s="89"/>
-      <c r="K83" s="118"/>
-      <c r="L83" s="74"/>
-    </row>
-    <row r="84" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="120">
-        <v>47</v>
-      </c>
-      <c r="B84" s="76">
-        <v>75</v>
-      </c>
-      <c r="C84" s="77">
-        <v>155.80000000000001</v>
-      </c>
-      <c r="D84" s="83">
-        <v>377</v>
-      </c>
-      <c r="E84" s="79">
-        <v>2233</v>
-      </c>
-      <c r="F84" s="78"/>
-      <c r="G84" s="94"/>
-      <c r="H84" s="78">
-        <f>SUM(B84+D84+F84)</f>
-        <v>452</v>
-      </c>
-      <c r="I84" s="79">
-        <f t="shared" si="15"/>
-        <v>2388.8000000000002</v>
-      </c>
-      <c r="J84" s="89"/>
-      <c r="K84" s="118"/>
-      <c r="L84" s="74"/>
-    </row>
-    <row r="85" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="121"/>
-      <c r="B85" s="122"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
-      <c r="F85" s="122"/>
-      <c r="G85" s="122"/>
-      <c r="H85" s="123">
-        <f>SUM(H81:H84)</f>
-        <v>1807</v>
-      </c>
-      <c r="I85" s="124">
-        <v>1024</v>
-      </c>
-      <c r="J85" s="122"/>
-      <c r="K85" s="125"/>
-      <c r="L85" s="68"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A86" s="115"/>
-      <c r="B86" s="115"/>
-      <c r="C86" s="115"/>
-      <c r="D86" s="115"/>
-      <c r="E86" s="115"/>
-      <c r="F86" s="115"/>
-      <c r="G86" s="115"/>
-      <c r="H86" s="89"/>
-      <c r="I86" s="89"/>
-      <c r="J86" s="115"/>
-      <c r="K86" s="115"/>
-      <c r="L86" s="68"/>
-    </row>
-    <row r="87" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B87" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-      <c r="G87" s="68"/>
-      <c r="H87" s="68"/>
-      <c r="I87" s="68"/>
-      <c r="J87" s="68"/>
-      <c r="K87" s="68"/>
-      <c r="L87" s="68"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C88" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D88" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E88" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88" s="93"/>
-      <c r="G88" s="93"/>
-      <c r="H88" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="I88" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="J88" s="89"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="68"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A89" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="C89" s="144"/>
-      <c r="D89" s="143" t="s">
-        <v>43</v>
-      </c>
-      <c r="E89" s="144"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="I89" s="146"/>
-      <c r="J89" s="86"/>
-      <c r="K89" s="68"/>
-      <c r="L89" s="68"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A90" s="69">
-        <v>0</v>
-      </c>
-      <c r="B90" s="70">
-        <v>20</v>
-      </c>
-      <c r="C90" s="71">
-        <v>47.96</v>
-      </c>
-      <c r="D90" s="72">
-        <v>254</v>
-      </c>
-      <c r="E90" s="73">
-        <v>540.29999999999995</v>
-      </c>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="49">
-        <f>SUM(B90+D90)</f>
-        <v>274</v>
-      </c>
-      <c r="I90" s="71">
-        <f>SUM(C90+E90)</f>
-        <v>588.26</v>
-      </c>
-      <c r="J90" s="89"/>
-      <c r="K90" s="68"/>
-      <c r="L90" s="74">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" s="69">
-        <v>3</v>
-      </c>
-      <c r="B91" s="70">
-        <v>8</v>
-      </c>
-      <c r="C91" s="71">
-        <v>87.97</v>
-      </c>
-      <c r="D91" s="72">
-        <v>336</v>
-      </c>
-      <c r="E91" s="73">
-        <v>1643</v>
-      </c>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="72">
-        <f t="shared" ref="H91:H92" si="16">SUM(B91+D91)</f>
-        <v>344</v>
-      </c>
-      <c r="I91" s="71">
-        <f>SUM(C91+E91)</f>
-        <v>1730.97</v>
-      </c>
-      <c r="J91" s="89"/>
-      <c r="K91" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="L91" s="74">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="75">
-        <v>163</v>
-      </c>
-      <c r="B92" s="76">
-        <v>17</v>
-      </c>
-      <c r="C92" s="77">
-        <v>53.38</v>
-      </c>
-      <c r="D92" s="78">
-        <v>6</v>
-      </c>
-      <c r="E92" s="79">
-        <v>976.9</v>
-      </c>
-      <c r="F92" s="94"/>
-      <c r="G92" s="94"/>
-      <c r="H92" s="78">
-        <f t="shared" si="16"/>
-        <v>23</v>
-      </c>
-      <c r="I92" s="77">
-        <f t="shared" ref="I92" si="17">SUM(C92+E92)</f>
-        <v>1030.28</v>
-      </c>
-      <c r="J92" s="89"/>
-      <c r="K92" s="68"/>
-      <c r="L92" s="74">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93" s="68"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="68"/>
-      <c r="G93" s="68"/>
-      <c r="H93" s="68"/>
-      <c r="I93" s="68"/>
-      <c r="J93" s="68"/>
-      <c r="K93" s="68"/>
-      <c r="L93" s="68"/>
-    </row>
-    <row r="94" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C94" s="68"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="68"/>
-      <c r="H94" s="68"/>
-      <c r="I94" s="68"/>
-      <c r="J94" s="68"/>
+      <c r="I94" s="153"/>
+      <c r="J94" s="86"/>
       <c r="K94" s="68"/>
       <c r="L94" s="68"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A95" s="65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B95" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C95" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="E95" s="67" t="s">
-        <v>45</v>
-      </c>
-      <c r="F95" s="93"/>
-      <c r="G95" s="93"/>
-      <c r="H95" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="I95" s="67" t="s">
-        <v>45</v>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" s="69">
+        <v>0</v>
+      </c>
+      <c r="B95" s="70">
+        <v>20</v>
+      </c>
+      <c r="C95" s="71">
+        <v>47.96</v>
+      </c>
+      <c r="D95" s="72">
+        <v>254</v>
+      </c>
+      <c r="E95" s="73">
+        <v>540.29999999999995</v>
+      </c>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="49">
+        <f>SUM(B95+D95)</f>
+        <v>274</v>
+      </c>
+      <c r="I95" s="71">
+        <f>SUM(C95+E95)</f>
+        <v>588.26</v>
       </c>
       <c r="J95" s="89"/>
       <c r="K95" s="68"/>
-      <c r="L95" s="68"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A96" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="B96" s="143" t="s">
-        <v>42</v>
-      </c>
-      <c r="C96" s="144"/>
-      <c r="D96" s="143" t="s">
-        <v>43</v>
-      </c>
-      <c r="E96" s="144"/>
+      <c r="L95" s="74">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" s="69">
+        <v>3</v>
+      </c>
+      <c r="B96" s="70">
+        <v>8</v>
+      </c>
+      <c r="C96" s="71">
+        <v>87.97</v>
+      </c>
+      <c r="D96" s="72">
+        <v>336</v>
+      </c>
+      <c r="E96" s="73">
+        <v>1643</v>
+      </c>
       <c r="F96" s="85"/>
       <c r="G96" s="85"/>
-      <c r="H96" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="I96" s="146"/>
-      <c r="J96" s="86"/>
-      <c r="K96" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="L96" s="68"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A97" s="69">
-        <v>3</v>
-      </c>
-      <c r="B97" s="70">
-        <v>8</v>
-      </c>
-      <c r="C97" s="71">
-        <v>87.97</v>
-      </c>
-      <c r="D97" s="72">
-        <v>336</v>
-      </c>
-      <c r="E97" s="73">
-        <v>1643</v>
-      </c>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="49">
-        <f>SUM(B97+D97)</f>
+      <c r="H96" s="72">
+        <f t="shared" ref="H96:H97" si="18">SUM(B96+D96)</f>
         <v>344</v>
       </c>
-      <c r="I97" s="71">
-        <f>SUM(C97+E97)</f>
+      <c r="I96" s="71">
+        <f>SUM(C96+E96)</f>
         <v>1730.97</v>
       </c>
+      <c r="J96" s="89"/>
+      <c r="K96" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="L96" s="74">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="75">
+        <v>163</v>
+      </c>
+      <c r="B97" s="76">
+        <v>17</v>
+      </c>
+      <c r="C97" s="77">
+        <v>53.38</v>
+      </c>
+      <c r="D97" s="78">
+        <v>6</v>
+      </c>
+      <c r="E97" s="79">
+        <v>976.9</v>
+      </c>
+      <c r="F97" s="94"/>
+      <c r="G97" s="94"/>
+      <c r="H97" s="78">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="I97" s="77">
+        <f t="shared" ref="I97" si="19">SUM(C97+E97)</f>
+        <v>1030.28</v>
+      </c>
       <c r="J97" s="89"/>
-      <c r="K97" s="58">
-        <f>SUM(H97:H100)</f>
-        <v>2053</v>
-      </c>
+      <c r="K97" s="68"/>
       <c r="L97" s="74">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A98" s="69">
-        <v>12</v>
-      </c>
-      <c r="B98" s="70">
-        <v>134</v>
-      </c>
-      <c r="C98" s="71">
-        <v>160.69999999999999</v>
-      </c>
-      <c r="D98" s="82">
-        <v>495</v>
-      </c>
-      <c r="E98" s="73">
-        <v>1844</v>
-      </c>
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="49">
-        <f t="shared" ref="H98" si="18">SUM(B98+D98)</f>
-        <v>629</v>
-      </c>
-      <c r="I98" s="71">
-        <f>SUM(C98+E98)</f>
-        <v>2004.7</v>
-      </c>
-      <c r="J98" s="89"/>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="68"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="68"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="68"/>
+      <c r="F98" s="68"/>
+      <c r="G98" s="68"/>
+      <c r="H98" s="68"/>
+      <c r="I98" s="68"/>
+      <c r="J98" s="68"/>
       <c r="K98" s="68"/>
       <c r="L98" s="68"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A99" s="69">
-        <v>27</v>
-      </c>
-      <c r="B99" s="70">
-        <v>31</v>
-      </c>
-      <c r="C99" s="71">
-        <v>228.8</v>
-      </c>
-      <c r="D99" s="82">
-        <v>34</v>
-      </c>
-      <c r="E99" s="73">
-        <v>1353</v>
-      </c>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="49">
-        <f>SUM(B99+D100)</f>
-        <v>505</v>
-      </c>
-      <c r="I99" s="71">
-        <f>SUM(C99+E99)</f>
-        <v>1581.8</v>
-      </c>
-      <c r="J99" s="89"/>
+    <row r="99" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="B99" s="68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C99" s="68"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="68"/>
+      <c r="F99" s="68"/>
+      <c r="G99" s="68"/>
+      <c r="H99" s="68"/>
+      <c r="I99" s="68"/>
+      <c r="J99" s="68"/>
       <c r="K99" s="68"/>
-      <c r="L99" s="74"/>
-    </row>
-    <row r="100" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="75">
-        <v>47</v>
-      </c>
-      <c r="B100" s="76">
-        <v>101</v>
-      </c>
-      <c r="C100" s="77">
-        <v>159.30000000000001</v>
-      </c>
-      <c r="D100" s="83">
-        <v>474</v>
-      </c>
-      <c r="E100" s="79">
-        <v>1953</v>
-      </c>
-      <c r="F100" s="94"/>
-      <c r="G100" s="94"/>
-      <c r="H100" s="59">
-        <f>SUM(B100+D100)</f>
-        <v>575</v>
-      </c>
-      <c r="I100" s="77">
-        <f t="shared" ref="I100" si="19">SUM(C100+E100)</f>
-        <v>2112.3000000000002</v>
+      <c r="L99" s="68"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="D100" s="80" t="s">
+        <v>44</v>
+      </c>
+      <c r="E100" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="F100" s="93"/>
+      <c r="G100" s="93"/>
+      <c r="H100" s="66" t="s">
+        <v>44</v>
+      </c>
+      <c r="I100" s="67" t="s">
+        <v>45</v>
       </c>
       <c r="J100" s="89"/>
       <c r="K100" s="68"/>
-      <c r="L100" s="74"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D108" s="22"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="D109" s="22"/>
-    </row>
-    <row r="110" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
+      <c r="L100" s="68"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="150" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="151"/>
+      <c r="D101" s="150" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="151"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="152" t="s">
+        <v>58</v>
+      </c>
+      <c r="I101" s="153"/>
+      <c r="J101" s="86"/>
+      <c r="K101" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="L101" s="68"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A102" s="69">
+        <v>3</v>
+      </c>
+      <c r="B102" s="70">
+        <v>8</v>
+      </c>
+      <c r="C102" s="71">
+        <v>87.97</v>
+      </c>
+      <c r="D102" s="72">
+        <v>336</v>
+      </c>
+      <c r="E102" s="73">
+        <v>1643</v>
+      </c>
+      <c r="F102" s="85"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="49">
+        <f>SUM(B102+D102)</f>
+        <v>344</v>
+      </c>
+      <c r="I102" s="71">
+        <f>SUM(C102+E102)</f>
+        <v>1730.97</v>
+      </c>
+      <c r="J102" s="89"/>
+      <c r="K102" s="58">
+        <f>SUM(H102:H105)</f>
+        <v>2053</v>
+      </c>
+      <c r="L102" s="74">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="69">
+        <v>12</v>
+      </c>
+      <c r="B103" s="70">
+        <v>134</v>
+      </c>
+      <c r="C103" s="71">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="D103" s="82">
+        <v>495</v>
+      </c>
+      <c r="E103" s="73">
+        <v>1844</v>
+      </c>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="49">
+        <f t="shared" ref="H103" si="20">SUM(B103+D103)</f>
+        <v>629</v>
+      </c>
+      <c r="I103" s="71">
+        <f>SUM(C103+E103)</f>
+        <v>2004.7</v>
+      </c>
+      <c r="J103" s="89"/>
+      <c r="K103" s="68"/>
+      <c r="L103" s="68"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="69">
+        <v>27</v>
+      </c>
+      <c r="B104" s="70">
+        <v>31</v>
+      </c>
+      <c r="C104" s="71">
+        <v>228.8</v>
+      </c>
+      <c r="D104" s="82">
+        <v>34</v>
+      </c>
+      <c r="E104" s="73">
+        <v>1353</v>
+      </c>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="49">
+        <f>SUM(B104+D105)</f>
+        <v>505</v>
+      </c>
+      <c r="I104" s="71">
+        <f>SUM(C104+E104)</f>
+        <v>1581.8</v>
+      </c>
+      <c r="J104" s="89"/>
+      <c r="K104" s="68"/>
+      <c r="L104" s="74"/>
+    </row>
+    <row r="105" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="75">
+        <v>47</v>
+      </c>
+      <c r="B105" s="76">
+        <v>101</v>
+      </c>
+      <c r="C105" s="77">
+        <v>159.30000000000001</v>
+      </c>
+      <c r="D105" s="83">
+        <v>474</v>
+      </c>
+      <c r="E105" s="79">
+        <v>1953</v>
+      </c>
+      <c r="F105" s="94"/>
+      <c r="G105" s="94"/>
+      <c r="H105" s="59">
+        <f>SUM(B105+D105)</f>
+        <v>575</v>
+      </c>
+      <c r="I105" s="77">
+        <f t="shared" ref="I105" si="21">SUM(C105+E105)</f>
+        <v>2112.3000000000002</v>
+      </c>
+      <c r="J105" s="89"/>
+      <c r="K105" s="68"/>
+      <c r="L105" s="74"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D113" s="22"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D114" s="22"/>
+    </row>
+    <row r="115" spans="1:13" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B115" t="s">
         <v>37</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C115" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A111" s="21" t="s">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A116" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B111" s="21" t="s">
+      <c r="B116" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C111" s="21" t="s">
+      <c r="C116" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D111" s="21" t="s">
+      <c r="D116" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E111" s="21" t="s">
+      <c r="E116" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="I111" s="23" t="s">
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
+      <c r="I116" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="J111" s="27"/>
-      <c r="K111" s="23" t="s">
+      <c r="J116" s="27"/>
+      <c r="K116" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="L111" s="23" t="s">
+      <c r="L116" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>36</v>
       </c>
-      <c r="B112">
+      <c r="B117">
         <v>403</v>
       </c>
-      <c r="C112">
+      <c r="C117">
         <v>6</v>
       </c>
-      <c r="D112">
+      <c r="D117">
         <v>44</v>
       </c>
-      <c r="H112">
-        <f>SUM(C112:E112)</f>
+      <c r="H117">
+        <f>SUM(C117:E117)</f>
         <v>50</v>
       </c>
-      <c r="M112">
-        <f>SUM(I112:L112)</f>
+      <c r="M117">
+        <f>SUM(I117:L117)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="C113">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C118">
         <v>7499.3</v>
       </c>
-      <c r="D113">
+      <c r="D118">
         <v>35248.199999999997</v>
       </c>
-      <c r="H113">
-        <f>SUM(C113:E113)/3600</f>
+      <c r="H118">
+        <f>SUM(C118:E118)/3600</f>
         <v>11.874305555555555</v>
       </c>
-      <c r="M113">
-        <f>SUM(I113:L113)/3600</f>
+      <c r="M118">
+        <f>SUM(I118:L118)/3600</f>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B114" s="26"/>
-      <c r="C114" s="152" t="s">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B119" s="26"/>
+      <c r="C119" s="171" t="s">
         <v>38</v>
       </c>
-      <c r="D114" s="152"/>
-      <c r="E114" s="152"/>
-      <c r="F114" s="152"/>
-      <c r="G114" s="152"/>
-      <c r="H114" s="152"/>
-      <c r="I114" s="152" t="s">
+      <c r="D119" s="171"/>
+      <c r="E119" s="171"/>
+      <c r="F119" s="171"/>
+      <c r="G119" s="171"/>
+      <c r="H119" s="171"/>
+      <c r="I119" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="J114" s="152"/>
-      <c r="K114" s="152"/>
-      <c r="L114" s="152"/>
-      <c r="M114" s="152"/>
+      <c r="J119" s="171"/>
+      <c r="K119" s="171"/>
+      <c r="L119" s="171"/>
+      <c r="M119" s="171"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>91</v>
+      </c>
+      <c r="B131" t="s">
+        <v>45</v>
+      </c>
+      <c r="C131" t="s">
+        <v>44</v>
+      </c>
+      <c r="D131" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>3797.5441448699999</v>
+      </c>
+      <c r="C132">
+        <v>115</v>
+      </c>
+      <c r="D132" s="127">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="C114:H114"/>
-    <mergeCell ref="I114:M114"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
+  <mergeCells count="44">
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="C119:H119"/>
+    <mergeCell ref="I119:M119"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:M20"/>
+    <mergeCell ref="A21:M21"/>
     <mergeCell ref="A19:M19"/>
-    <mergeCell ref="A20:M20"/>
-    <mergeCell ref="A18:M18"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rulelearning/结果.xlsx
+++ b/rulelearning/结果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB727995-EA35-4076-88B9-A9872CBDD28D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50A309-EF4D-4BB9-AAEC-076E2C1F7E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>Entities</t>
   </si>
@@ -392,14 +392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TransE 和 DistMult对比！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以随机选择，将里面额外20个谓词跑一下计算一下不同长度的平均时间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Killed！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,6 +401,50 @@
   </si>
   <si>
     <t>固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransE 和 DistMult对比！随机选择20个对比数量？（syn的前提下有意义）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用规则？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coooc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对比syn和coooc，看他们哪个挖的规则多且快，也选择那5个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>win</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;691</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;229</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>syn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -988,7 +1024,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1046,9 +1082,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1126,54 +1159,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,9 +1191,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,9 +1212,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1240,24 +1219,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,6 +1235,90 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1590,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1611,8 +1656,8 @@
     <col min="12" max="12" width="12.75" customWidth="1"/>
     <col min="13" max="13" width="10.875" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="63.375" customWidth="1"/>
-    <col min="16" max="16" width="13.375" customWidth="1"/>
+    <col min="15" max="15" width="61.125" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
     <col min="21" max="21" width="8.5" customWidth="1"/>
     <col min="22" max="22" width="22.5" customWidth="1"/>
     <col min="23" max="23" width="22.625" customWidth="1"/>
@@ -1676,22 +1721,22 @@
       <c r="A3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>316232</v>
       </c>
-      <c r="C3" s="47">
+      <c r="C3" s="46">
         <v>75043</v>
       </c>
-      <c r="D3" s="47">
+      <c r="D3" s="46">
         <v>13</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="41"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
     </row>
@@ -1699,13 +1744,13 @@
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>4125967</v>
       </c>
-      <c r="C4" s="44">
+      <c r="C4" s="43">
         <v>2260672</v>
       </c>
-      <c r="D4" s="45">
+      <c r="D4" s="44">
         <v>37</v>
       </c>
       <c r="E4" s="12"/>
@@ -1722,13 +1767,13 @@
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>8397936</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="43">
         <v>3085248</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="44">
         <v>430</v>
       </c>
       <c r="E5" s="12"/>
@@ -1745,13 +1790,13 @@
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>11024066</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="43">
         <v>3102999</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="44">
         <v>650</v>
       </c>
       <c r="E6" s="12"/>
@@ -1787,35 +1832,35 @@
         <v>18</v>
       </c>
       <c r="E7" s="19"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="19"/>
       <c r="I7" s="19"/>
-      <c r="J7" s="26"/>
+      <c r="J7" s="25"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="50">
+      <c r="C8" s="84">
         <v>14951</v>
       </c>
-      <c r="D8" s="50">
+      <c r="D8" s="84">
         <v>1345</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="59" t="s">
+      <c r="J8" s="24"/>
+      <c r="K8" s="93" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="15" t="s">
@@ -1824,17 +1869,17 @@
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="54"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="60"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="94"/>
       <c r="L9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1843,17 +1888,17 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
       <c r="E10" s="18"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="95"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
@@ -1871,11 +1916,11 @@
         <v>401</v>
       </c>
       <c r="E11" s="19"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
-      <c r="J11" s="26"/>
+      <c r="J11" s="25"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -1894,17 +1939,17 @@
         <v>13</v>
       </c>
       <c r="E12" s="19"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
-      <c r="J12" s="26"/>
+      <c r="J12" s="25"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="96" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="14">
@@ -1927,7 +1972,7 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="17">
         <v>241158</v>
       </c>
@@ -1938,17 +1983,17 @@
         <v>36</v>
       </c>
       <c r="E14" s="19"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
-      <c r="J14" s="26"/>
+      <c r="J14" s="25"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="96" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="14">
@@ -1971,7 +2016,7 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="17">
         <v>175412</v>
       </c>
@@ -1982,19 +2027,19 @@
         <v>404</v>
       </c>
       <c r="E16" s="19"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
-      <c r="J16" s="26"/>
+      <c r="J16" s="25"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:16" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="6"/>
@@ -2008,435 +2053,446 @@
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="64"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="49" t="s">
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="49" t="s">
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
-      <c r="L21" s="49"/>
-      <c r="M21" s="49"/>
-    </row>
-    <row r="24" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="98"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+    </row>
+    <row r="24" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="90" t="s">
+    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+    </row>
+    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="87" t="s">
+      <c r="B26" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="77" t="s">
+      <c r="C26" s="103"/>
+      <c r="D26" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="77"/>
-      <c r="M26" s="82"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="E26" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="64"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="78" t="s">
+      <c r="C27" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="D27" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="78" t="s">
+      <c r="E27" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="78" t="s">
+      <c r="F27" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="G27" s="78" t="s">
+      <c r="G27" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="78" t="s">
+      <c r="H27" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="32" t="s">
+      <c r="I27" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="31" t="s">
+      <c r="J27" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="K27" s="32" t="s">
+      <c r="K27" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="L27" s="30" t="s">
+      <c r="L27" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="30" t="s">
+      <c r="M27" s="29" t="s">
         <v>43</v>
       </c>
       <c r="O27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48" t="s">
+    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B28" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92" t="s">
+      <c r="C28" s="81"/>
+      <c r="D28" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92" t="s">
+      <c r="E28" s="81"/>
+      <c r="F28" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="92"/>
-      <c r="H28" s="93" t="s">
+      <c r="G28" s="81"/>
+      <c r="H28" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="94"/>
-      <c r="J28" s="95" t="s">
+      <c r="I28" s="83"/>
+      <c r="J28" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="96"/>
-      <c r="L28" s="97" t="s">
+      <c r="K28" s="101"/>
+      <c r="L28" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="M28" s="97" t="s">
+      <c r="M28" s="72" t="s">
         <v>58</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
-      <c r="O28" t="s">
-        <v>71</v>
+      <c r="O28" s="77" t="s">
+        <v>69</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="38">
+        <v>74</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="37">
         <v>0</v>
       </c>
-      <c r="B29" s="98">
+      <c r="B29" s="73">
         <v>20</v>
       </c>
-      <c r="C29" s="99">
+      <c r="C29" s="74">
         <v>94.41</v>
       </c>
-      <c r="D29" s="99">
+      <c r="D29" s="74">
         <v>295</v>
       </c>
-      <c r="E29" s="99">
+      <c r="E29" s="74">
         <v>864.5</v>
       </c>
-      <c r="F29" s="99">
+      <c r="F29" s="74">
         <v>165</v>
       </c>
-      <c r="G29" s="99">
+      <c r="G29" s="74">
         <v>3689</v>
       </c>
-      <c r="H29" s="99">
+      <c r="H29" s="74">
         <f>SUM(B29+D29+F29)</f>
         <v>480</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="38">
         <f>SUM(C29+E29+G29)/3600</f>
         <v>1.2910861111111112</v>
       </c>
-      <c r="J29" s="40">
+      <c r="J29" s="39">
         <v>137</v>
       </c>
-      <c r="K29" s="39" t="s">
+      <c r="K29" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="L29" s="100">
+      <c r="L29" s="75">
         <f>H29-J29</f>
         <v>343</v>
       </c>
-      <c r="M29" s="101" t="s">
+      <c r="M29" s="76" t="s">
         <v>63</v>
       </c>
       <c r="N29">
         <v>2</v>
       </c>
-      <c r="O29" s="102" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="66">
+      <c r="O29" s="77" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="49">
         <v>3</v>
       </c>
-      <c r="B30" s="72">
+      <c r="B30" s="55">
         <v>219</v>
       </c>
-      <c r="C30" s="70">
+      <c r="C30" s="53">
         <v>327.60000000000002</v>
       </c>
-      <c r="D30" s="70">
+      <c r="D30" s="53">
         <v>590</v>
       </c>
-      <c r="E30" s="70">
+      <c r="E30" s="53">
         <v>2811</v>
       </c>
-      <c r="F30" s="70">
+      <c r="F30" s="53">
         <v>618</v>
       </c>
-      <c r="G30" s="70">
+      <c r="G30" s="53">
         <v>14459</v>
       </c>
-      <c r="H30" s="70">
+      <c r="H30" s="53">
         <f>SUM(B30+D30+F30)</f>
         <v>1427</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="50">
         <f>SUM(C30+E30+G30)/3600</f>
         <v>4.8882222222222218</v>
       </c>
-      <c r="J30" s="68">
+      <c r="J30" s="51">
         <v>1024</v>
       </c>
-      <c r="K30" s="67" t="s">
+      <c r="K30" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="L30" s="80">
-        <f>J32-J30</f>
-        <v>-1024</v>
-      </c>
-      <c r="M30" s="84"/>
+      <c r="L30" s="62">
+        <f>H30-J30</f>
+        <v>403</v>
+      </c>
+      <c r="M30" s="66"/>
       <c r="N30">
         <v>3</v>
       </c>
       <c r="O30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="66">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="49">
         <v>12</v>
       </c>
-      <c r="B31" s="72"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70">
+      <c r="B31" s="55"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="53">
         <f t="shared" ref="H31" si="0">SUM(B31+D31+F31)</f>
         <v>0</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="50">
         <f t="shared" ref="I31:I36" si="1">SUM(C31+E31+G31)/3600</f>
         <v>0</v>
       </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="84"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="66">
+      <c r="J31" s="51"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="66"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="49">
         <v>27</v>
       </c>
-      <c r="B32" s="72"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70">
+      <c r="B32" s="55"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53">
         <f>SUM(B32+D32+F32)</f>
         <v>0</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J32" s="68"/>
-      <c r="K32" s="67"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="84"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="66"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="66">
+      <c r="A33" s="49">
         <v>47</v>
       </c>
-      <c r="B33" s="72"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70">
+      <c r="B33" s="55"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53">
         <f>SUM(B33+D33+F33)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="50">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="84"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="66"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="27">
+      <c r="A34" s="26">
         <v>52</v>
       </c>
-      <c r="B34" s="88">
+      <c r="B34" s="69">
         <v>10</v>
       </c>
-      <c r="C34" s="69">
+      <c r="C34" s="52">
         <v>130.80000000000001</v>
       </c>
-      <c r="D34" s="69">
+      <c r="D34" s="52">
         <v>70</v>
       </c>
-      <c r="E34" s="69">
+      <c r="E34" s="52">
         <v>200.2</v>
       </c>
-      <c r="F34" s="69">
+      <c r="F34" s="52">
         <v>28</v>
       </c>
-      <c r="G34" s="69">
+      <c r="G34" s="52">
         <v>45.7</v>
       </c>
-      <c r="H34" s="69">
+      <c r="H34" s="52">
         <f t="shared" ref="H34" si="2">SUM(B34+D34+F34)</f>
         <v>108</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="27">
         <f t="shared" si="1"/>
         <v>0.10463888888888889</v>
       </c>
-      <c r="J34" s="75">
+      <c r="J34" s="58">
         <v>52</v>
       </c>
-      <c r="K34" s="28" t="s">
+      <c r="K34" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="79">
+      <c r="L34" s="61">
         <f>H34-J34</f>
         <v>56</v>
       </c>
-      <c r="M34" s="83" t="s">
+      <c r="M34" s="65" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" s="27">
+      <c r="A35" s="26">
         <v>102</v>
       </c>
-      <c r="B35" s="88">
+      <c r="B35" s="69">
         <v>128</v>
       </c>
-      <c r="C35" s="69">
+      <c r="C35" s="52">
         <v>150.6</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="52">
         <v>494</v>
       </c>
-      <c r="E35" s="69">
+      <c r="E35" s="52">
         <v>1532</v>
       </c>
-      <c r="F35" s="69">
+      <c r="F35" s="52">
         <v>141</v>
       </c>
-      <c r="G35" s="69">
+      <c r="G35" s="52">
         <v>7844</v>
       </c>
-      <c r="H35" s="69">
+      <c r="H35" s="52">
         <f>SUM(B35+D35+F35)</f>
         <v>763</v>
       </c>
-      <c r="I35" s="28">
+      <c r="I35" s="27">
         <f t="shared" si="1"/>
         <v>2.6462777777777777</v>
       </c>
-      <c r="J35" s="75">
+      <c r="J35" s="58">
         <v>691</v>
       </c>
-      <c r="K35" s="28" t="s">
+      <c r="K35" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="L35" s="79">
+      <c r="L35" s="61">
         <f>H35-J35</f>
         <v>72</v>
       </c>
-      <c r="M35" s="85" t="s">
+      <c r="M35" s="67" t="s">
         <v>65</v>
       </c>
       <c r="O35" t="s">
@@ -2444,213 +2500,539 @@
       </c>
     </row>
     <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <v>163</v>
       </c>
-      <c r="B36" s="89">
+      <c r="B36" s="70">
         <v>45</v>
       </c>
-      <c r="C36" s="71">
+      <c r="C36" s="54">
         <v>99.47</v>
       </c>
-      <c r="D36" s="71">
+      <c r="D36" s="54">
         <v>280</v>
       </c>
-      <c r="E36" s="71">
+      <c r="E36" s="54">
         <v>910.8</v>
       </c>
-      <c r="F36" s="71">
+      <c r="F36" s="54">
         <v>198</v>
       </c>
-      <c r="G36" s="71">
+      <c r="G36" s="54">
         <v>7401</v>
       </c>
-      <c r="H36" s="71">
+      <c r="H36" s="54">
         <f t="shared" ref="H36" si="3">SUM(B36+D36+F36)</f>
         <v>523</v>
       </c>
-      <c r="I36" s="65">
+      <c r="I36" s="48">
         <f t="shared" si="1"/>
         <v>2.3364638888888889</v>
       </c>
-      <c r="J36" s="29">
+      <c r="J36" s="28">
         <v>229</v>
       </c>
-      <c r="K36" s="65" t="s">
+      <c r="K36" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="L36" s="81">
+      <c r="L36" s="63">
         <f>H36-J36</f>
         <v>294</v>
       </c>
-      <c r="M36" s="86" t="s">
+      <c r="M36" s="68" t="s">
         <v>66</v>
       </c>
     </row>
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="102" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="103"/>
+      <c r="D38" s="104" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="56"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="64"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A39" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="F39" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H39" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="I39" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J39" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="K39" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="L39" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="81"/>
+      <c r="H40" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="83"/>
+      <c r="J40" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40" s="101"/>
+      <c r="L40" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40" s="72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" s="37">
+        <v>0</v>
+      </c>
+      <c r="B41" s="73"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="74"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="74"/>
+      <c r="H41" s="74">
+        <f>SUM(B41+D41+F41)</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="38">
+        <f>SUM(C41+E41+G41)/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="39">
+        <v>137</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="75">
+        <f>H41-J41</f>
+        <v>-137</v>
+      </c>
+      <c r="M41" s="106" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" s="49">
+        <v>3</v>
+      </c>
+      <c r="B42" s="55"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53">
+        <f>SUM(B42+D42+F42)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="50">
+        <f>SUM(C42+E42+G42)/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="51">
+        <v>1024</v>
+      </c>
+      <c r="K42" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" s="62">
+        <f>H42-J42</f>
+        <v>-1024</v>
+      </c>
+      <c r="M42" s="107"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A43" s="49">
+        <v>12</v>
+      </c>
+      <c r="B43" s="55"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="53">
+        <f t="shared" ref="H43" si="4">SUM(B43+D43+F43)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="50">
+        <f t="shared" ref="I43:I48" si="5">SUM(C43+E43+G43)/3600</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="51"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="107"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="49">
+        <v>27</v>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53">
+        <f>SUM(B44+D44+F44)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="51"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="107"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" s="49">
+        <v>47</v>
+      </c>
+      <c r="B45" s="55"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53">
+        <f>SUM(B45+D45+F45)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="50">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="51"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="107"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A46" s="26">
+        <v>52</v>
+      </c>
+      <c r="B46" s="69"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52">
+        <f t="shared" ref="H46" si="6">SUM(B46+D46+F46)</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="58">
+        <v>52</v>
+      </c>
+      <c r="K46" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="61">
+        <f>H46-J46</f>
+        <v>-52</v>
+      </c>
+      <c r="M46" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D47" s="21"/>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D48" s="21"/>
-    </row>
-    <row r="49" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="A47" s="26">
+        <v>102</v>
+      </c>
+      <c r="B47" s="69"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52">
+        <f>SUM(B47+D47+F47)</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="58">
+        <v>691</v>
+      </c>
+      <c r="K47" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="61">
+        <f>H47-J47</f>
+        <v>-691</v>
+      </c>
+      <c r="M47" s="107" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="41">
+        <v>163</v>
+      </c>
+      <c r="B48" s="70"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54">
+        <f t="shared" ref="H48" si="7">SUM(B48+D48+F48)</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="48">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="28">
+        <v>229</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" s="63">
+        <f>H48-J48</f>
+        <v>-229</v>
+      </c>
+      <c r="M48" s="108" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M49" s="109"/>
+    </row>
+    <row r="52" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B52" t="s">
         <v>37</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C52" t="s">
         <v>40</v>
       </c>
-      <c r="O49" s="35" t="s">
+      <c r="O52" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A53" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="I53" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="23"/>
+      <c r="K53" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54">
+        <v>403</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
+      </c>
+      <c r="D54">
+        <v>44</v>
+      </c>
+      <c r="H54">
+        <f>SUM(C54:E54)</f>
+        <v>50</v>
+      </c>
+      <c r="M54">
+        <f>SUM(I54:L54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C55">
+        <v>7499.3</v>
+      </c>
+      <c r="D55">
+        <v>35248.199999999997</v>
+      </c>
+      <c r="H55">
+        <f>SUM(C55:E55)/3600</f>
+        <v>11.874305555555555</v>
+      </c>
+      <c r="M55">
+        <f>SUM(I55:L55)/3600</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B56" s="22"/>
+      <c r="C56" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="98"/>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="I50" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J50" s="24"/>
-      <c r="K50" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="L50" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>36</v>
-      </c>
-      <c r="B51">
-        <v>403</v>
-      </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-      <c r="D51">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" t="s">
         <v>44</v>
       </c>
-      <c r="H51">
-        <f>SUM(C51:E51)</f>
-        <v>50</v>
-      </c>
-      <c r="M51">
-        <f>SUM(I51:L51)</f>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62" s="78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C52">
-        <v>7499.3</v>
-      </c>
-      <c r="D52">
-        <v>35248.199999999997</v>
-      </c>
-      <c r="H52">
-        <f>SUM(C52:E52)/3600</f>
-        <v>11.874305555555555</v>
-      </c>
-      <c r="M52">
-        <f>SUM(I52:L52)/3600</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B53" s="23"/>
-      <c r="C53" s="49" t="s">
-        <v>38</v>
-      </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>44</v>
-      </c>
-      <c r="C59" t="s">
-        <v>43</v>
-      </c>
-      <c r="D59" s="103" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>0</v>
-      </c>
-      <c r="B60">
+      <c r="B63">
         <v>3797.5441448699999</v>
       </c>
-      <c r="C60">
+      <c r="C63">
         <v>115</v>
       </c>
-      <c r="D60" s="104">
+      <c r="D63" s="79">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="24">
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:M56"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
     <mergeCell ref="H28:I28"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="D8:D10"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A20:M20"/>
     <mergeCell ref="A21:M21"/>
     <mergeCell ref="A19:M19"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:M53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/rulelearning/结果.xlsx
+++ b/rulelearning/结果.xlsx
@@ -1,29 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B50A309-EF4D-4BB9-AAEC-076E2C1F7E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rainbow/Desktop/test/rulelearning/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>Entities</t>
   </si>
@@ -259,8 +263,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>top500</t>
@@ -447,11 +450,83 @@
     <t>syn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>syn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coocc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>len =2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>len =3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>len =4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index = 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index = 52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index = 102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index = 163</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进之后的syn更快，而且效果和RLvLR相当。</t>
+    <rPh sb="0" eb="1">
+      <t>gai jin</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi hou</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>geng kuai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>er qie</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>xiao guo</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>he</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xiang dnag</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -684,13 +759,13 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -702,10 +777,10 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -714,7 +789,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -732,7 +807,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -744,7 +819,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -753,7 +828,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -762,25 +837,25 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -789,10 +864,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -804,16 +879,16 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,7 +898,7 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -852,16 +927,16 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -872,7 +947,7 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -882,7 +957,7 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
@@ -895,10 +970,10 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color auto="1"/>
@@ -914,7 +989,7 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
@@ -932,7 +1007,7 @@
         <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -944,7 +1019,7 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -954,10 +1029,10 @@
         <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -968,7 +1043,7 @@
         <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1024,7 +1099,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1235,76 +1310,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1319,6 +1325,81 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="37">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1634,38 +1715,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="136" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.25" customWidth="1"/>
-    <col min="2" max="2" width="10.875" customWidth="1"/>
-    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.75" customWidth="1"/>
-    <col min="6" max="6" width="7.625" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="5" max="6" width="7.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="12.75" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="11" max="11" width="10.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="14" max="14" width="8.5" customWidth="1"/>
-    <col min="15" max="15" width="61.125" customWidth="1"/>
+    <col min="15" max="15" width="61.1640625" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
     <col min="21" max="21" width="8.5" customWidth="1"/>
     <col min="22" max="22" width="22.5" customWidth="1"/>
-    <col min="23" max="23" width="22.625" customWidth="1"/>
-    <col min="24" max="24" width="14.375" customWidth="1"/>
-    <col min="25" max="25" width="14.625" customWidth="1"/>
+    <col min="23" max="23" width="22.6640625" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
+    <col min="25" max="25" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="48.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
         <v>21</v>
@@ -1692,7 +1772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
@@ -1740,7 +1820,7 @@
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>8</v>
       </c>
@@ -1763,7 +1843,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1786,7 +1866,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
@@ -1842,16 +1922,16 @@
       <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="96" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="107">
         <v>14951</v>
       </c>
-      <c r="D8" s="84">
+      <c r="D8" s="107">
         <v>1345</v>
       </c>
       <c r="E8" s="18"/>
@@ -1860,7 +1940,7 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="24"/>
-      <c r="K8" s="93" t="s">
+      <c r="K8" s="102" t="s">
         <v>6</v>
       </c>
       <c r="L8" s="15" t="s">
@@ -1869,17 +1949,17 @@
       <c r="M8" s="11"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="88"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="18"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="24"/>
-      <c r="K9" s="94"/>
+      <c r="K9" s="103"/>
       <c r="L9" s="11" t="s">
         <v>16</v>
       </c>
@@ -1888,21 +1968,21 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
       <c r="E10" s="18"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="95"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -1925,7 +2005,7 @@
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>11</v>
       </c>
@@ -1949,7 +2029,7 @@
       <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="105" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="14">
@@ -1972,7 +2052,7 @@
       <c r="M13" s="6"/>
     </row>
     <row r="14" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="97"/>
+      <c r="A14" s="106"/>
       <c r="B14" s="17">
         <v>241158</v>
       </c>
@@ -1993,7 +2073,7 @@
       <c r="M14" s="6"/>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="96" t="s">
+      <c r="A15" s="105" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="14">
@@ -2016,7 +2096,7 @@
       <c r="M15" s="6"/>
     </row>
     <row r="16" spans="1:14" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
+      <c r="A16" s="106"/>
       <c r="B16" s="17">
         <v>175412</v>
       </c>
@@ -2036,7 +2116,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="14"/>
       <c r="C17" s="42" t="s">
@@ -2057,62 +2137,62 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="99" t="s">
+      <c r="A19" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="110"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="110"/>
+      <c r="L19" s="110"/>
+      <c r="M19" s="110"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A20" s="98" t="s">
+      <c r="A20" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A21" s="98" t="s">
+      <c r="A21" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-    </row>
-    <row r="24" spans="1:17" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+    </row>
+    <row r="24" spans="1:17" ht="21" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="35"/>
@@ -2125,18 +2205,18 @@
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
     </row>
-    <row r="26" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="102" t="s">
+      <c r="B26" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104" t="s">
+      <c r="C26" s="89"/>
+      <c r="D26" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="105" t="s">
+      <c r="E26" s="82" t="s">
         <v>75</v>
       </c>
       <c r="F26" s="59"/>
@@ -2192,30 +2272,30 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81" t="s">
+      <c r="C28" s="91"/>
+      <c r="D28" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81" t="s">
+      <c r="E28" s="91"/>
+      <c r="F28" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="81"/>
-      <c r="H28" s="82" t="s">
+      <c r="G28" s="91"/>
+      <c r="H28" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="I28" s="83"/>
-      <c r="J28" s="100" t="s">
+      <c r="I28" s="93"/>
+      <c r="J28" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="K28" s="101"/>
+      <c r="K28" s="95"/>
       <c r="L28" s="72" t="s">
         <v>59</v>
       </c>
@@ -2246,20 +2326,20 @@
         <v>94.41</v>
       </c>
       <c r="D29" s="74">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E29" s="74">
         <v>864.5</v>
       </c>
       <c r="F29" s="74">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G29" s="74">
         <v>3689</v>
       </c>
       <c r="H29" s="74">
         <f>SUM(B29+D29+F29)</f>
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="I29" s="38">
         <f>SUM(C29+E29+G29)/3600</f>
@@ -2273,7 +2353,7 @@
       </c>
       <c r="L29" s="75">
         <f>H29-J29</f>
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="M29" s="76" t="s">
         <v>63</v>
@@ -2296,10 +2376,10 @@
         <v>3</v>
       </c>
       <c r="B30" s="55">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="C30" s="53">
-        <v>327.60000000000002</v>
+        <v>334.9</v>
       </c>
       <c r="D30" s="53">
         <v>590</v>
@@ -2315,11 +2395,11 @@
       </c>
       <c r="H30" s="53">
         <f>SUM(B30+D30+F30)</f>
-        <v>1427</v>
+        <v>1442</v>
       </c>
       <c r="I30" s="50">
         <f>SUM(C30+E30+G30)/3600</f>
-        <v>4.8882222222222218</v>
+        <v>4.89025</v>
       </c>
       <c r="J30" s="51">
         <v>1024</v>
@@ -2329,7 +2409,7 @@
       </c>
       <c r="L30" s="62">
         <f>H30-J30</f>
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="M30" s="66"/>
       <c r="N30">
@@ -2343,19 +2423,29 @@
       <c r="A31" s="49">
         <v>12</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
+      <c r="B31" s="55">
+        <v>247</v>
+      </c>
+      <c r="C31" s="53">
+        <v>241.9</v>
+      </c>
+      <c r="D31" s="53">
+        <v>570</v>
+      </c>
+      <c r="E31" s="53">
+        <v>2441</v>
+      </c>
+      <c r="F31" s="53">
+        <v>421</v>
+      </c>
       <c r="G31" s="53"/>
       <c r="H31" s="53">
         <f t="shared" ref="H31" si="0">SUM(B31+D31+F31)</f>
-        <v>0</v>
+        <v>1238</v>
       </c>
       <c r="I31" s="50">
         <f t="shared" ref="I31:I36" si="1">SUM(C31+E31+G31)/3600</f>
-        <v>0</v>
+        <v>0.74525000000000008</v>
       </c>
       <c r="J31" s="51"/>
       <c r="K31" s="50"/>
@@ -2366,19 +2456,31 @@
       <c r="A32" s="49">
         <v>27</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
+      <c r="B32" s="55">
+        <v>54</v>
+      </c>
+      <c r="C32" s="53">
+        <v>217.8</v>
+      </c>
+      <c r="D32" s="53">
+        <v>659</v>
+      </c>
+      <c r="E32" s="53">
+        <v>1880</v>
+      </c>
+      <c r="F32" s="53">
+        <v>211</v>
+      </c>
+      <c r="G32" s="53">
+        <v>14462</v>
+      </c>
       <c r="H32" s="53">
         <f>SUM(B32+D32+F32)</f>
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="I32" s="50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.5999444444444446</v>
       </c>
       <c r="J32" s="51"/>
       <c r="K32" s="50"/>
@@ -2389,19 +2491,29 @@
       <c r="A33" s="49">
         <v>47</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
+      <c r="B33" s="55">
+        <v>123</v>
+      </c>
+      <c r="C33" s="53">
+        <v>337.6</v>
+      </c>
+      <c r="D33" s="53">
+        <v>686</v>
+      </c>
+      <c r="E33" s="53">
+        <v>2841</v>
+      </c>
+      <c r="F33" s="53">
+        <v>539</v>
+      </c>
       <c r="G33" s="53"/>
       <c r="H33" s="53">
         <f>SUM(B33+D33+F33)</f>
-        <v>0</v>
+        <v>1348</v>
       </c>
       <c r="I33" s="50">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.88294444444444442</v>
       </c>
       <c r="J33" s="51"/>
       <c r="K33" s="50"/>
@@ -2499,7 +2611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>163</v>
       </c>
@@ -2543,19 +2655,19 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="102" t="s">
+      <c r="B38" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="C38" s="103"/>
-      <c r="D38" s="104" t="s">
+      <c r="C38" s="89"/>
+      <c r="D38" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="105" t="s">
+      <c r="E38" s="82" t="s">
         <v>83</v>
       </c>
       <c r="F38" s="59"/>
@@ -2608,30 +2720,30 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="80" t="s">
+      <c r="B40" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81" t="s">
+      <c r="C40" s="91"/>
+      <c r="D40" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81" t="s">
+      <c r="E40" s="91"/>
+      <c r="F40" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="81"/>
-      <c r="H40" s="82" t="s">
+      <c r="G40" s="91"/>
+      <c r="H40" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="I40" s="83"/>
-      <c r="J40" s="100" t="s">
+      <c r="I40" s="93"/>
+      <c r="J40" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="K40" s="101"/>
+      <c r="K40" s="95"/>
       <c r="L40" s="72" t="s">
         <v>59</v>
       </c>
@@ -2643,19 +2755,31 @@
       <c r="A41" s="37">
         <v>0</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-      <c r="G41" s="74"/>
+      <c r="B41" s="73">
+        <v>20</v>
+      </c>
+      <c r="C41" s="74">
+        <v>59.8</v>
+      </c>
+      <c r="D41" s="74">
+        <v>114</v>
+      </c>
+      <c r="E41" s="74">
+        <v>364.1</v>
+      </c>
+      <c r="F41" s="74">
+        <v>4</v>
+      </c>
+      <c r="G41" s="74">
+        <v>567.79999999999995</v>
+      </c>
       <c r="H41" s="74">
         <f>SUM(B41+D41+F41)</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="I41" s="38">
         <f>SUM(C41+E41+G41)/3600</f>
-        <v>0</v>
+        <v>0.27547222222222223</v>
       </c>
       <c r="J41" s="39">
         <v>137</v>
@@ -2665,9 +2789,9 @@
       </c>
       <c r="L41" s="75">
         <f>H41-J41</f>
-        <v>-137</v>
-      </c>
-      <c r="M41" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="M41" s="83" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2675,19 +2799,31 @@
       <c r="A42" s="49">
         <v>3</v>
       </c>
-      <c r="B42" s="55"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="53"/>
+      <c r="B42" s="55">
+        <v>198</v>
+      </c>
+      <c r="C42" s="53">
+        <v>314.3</v>
+      </c>
+      <c r="D42" s="53">
+        <v>807</v>
+      </c>
+      <c r="E42" s="53">
+        <v>1573</v>
+      </c>
+      <c r="F42" s="53">
+        <v>496</v>
+      </c>
+      <c r="G42" s="53">
+        <v>5775</v>
+      </c>
       <c r="H42" s="53">
         <f>SUM(B42+D42+F42)</f>
-        <v>0</v>
+        <v>1501</v>
       </c>
       <c r="I42" s="50">
         <f>SUM(C42+E42+G42)/3600</f>
-        <v>0</v>
+        <v>2.1284166666666668</v>
       </c>
       <c r="J42" s="51">
         <v>1024</v>
@@ -2697,331 +2833,517 @@
       </c>
       <c r="L42" s="62">
         <f>H42-J42</f>
-        <v>-1024</v>
-      </c>
-      <c r="M42" s="107"/>
+        <v>477</v>
+      </c>
+      <c r="M42" s="84"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" s="49">
-        <v>12</v>
-      </c>
-      <c r="B43" s="55"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53">
+      <c r="A43" s="26">
+        <v>52</v>
+      </c>
+      <c r="B43" s="69">
+        <v>10</v>
+      </c>
+      <c r="C43" s="52">
+        <v>164.2</v>
+      </c>
+      <c r="D43" s="52">
+        <v>24</v>
+      </c>
+      <c r="E43" s="52">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="F43" s="52">
+        <v>19</v>
+      </c>
+      <c r="G43" s="52">
+        <v>593.6</v>
+      </c>
+      <c r="H43" s="52">
         <f t="shared" ref="H43" si="4">SUM(B43+D43+F43)</f>
+        <v>53</v>
+      </c>
+      <c r="I43" s="27">
+        <f t="shared" ref="I43:I45" si="5">SUM(C43+E43+G43)/3600</f>
+        <v>0.29302777777777778</v>
+      </c>
+      <c r="J43" s="58">
+        <v>52</v>
+      </c>
+      <c r="K43" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" s="61">
+        <f>H43-J43</f>
+        <v>1</v>
+      </c>
+      <c r="M43" s="84" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" s="26">
+        <v>102</v>
+      </c>
+      <c r="B44" s="69">
+        <v>72</v>
+      </c>
+      <c r="C44" s="52">
+        <v>134</v>
+      </c>
+      <c r="D44" s="52">
+        <v>297</v>
+      </c>
+      <c r="E44" s="52">
+        <v>636.5</v>
+      </c>
+      <c r="F44" s="52">
+        <v>31</v>
+      </c>
+      <c r="G44" s="52">
+        <v>1008</v>
+      </c>
+      <c r="H44" s="52">
+        <f>SUM(B44+D44+F44)</f>
+        <v>400</v>
+      </c>
+      <c r="I44" s="27">
+        <f t="shared" si="5"/>
+        <v>0.49402777777777779</v>
+      </c>
+      <c r="J44" s="58">
+        <v>691</v>
+      </c>
+      <c r="K44" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" s="61">
+        <f>H44-J44</f>
+        <v>-291</v>
+      </c>
+      <c r="M44" s="84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="41">
+        <v>163</v>
+      </c>
+      <c r="B45" s="70">
+        <v>29</v>
+      </c>
+      <c r="C45" s="54">
+        <v>60.47</v>
+      </c>
+      <c r="D45" s="54">
+        <v>234</v>
+      </c>
+      <c r="E45" s="54">
+        <v>361.4</v>
+      </c>
+      <c r="F45" s="54">
+        <v>24</v>
+      </c>
+      <c r="G45" s="54">
+        <v>975.2</v>
+      </c>
+      <c r="H45" s="54">
+        <f t="shared" ref="H45" si="6">SUM(B45+D45+F45)</f>
+        <v>287</v>
+      </c>
+      <c r="I45" s="48">
+        <f t="shared" si="5"/>
+        <v>0.38807500000000006</v>
+      </c>
+      <c r="J45" s="28">
+        <v>229</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="63">
+        <f>H45-J45</f>
+        <v>58</v>
+      </c>
+      <c r="M45" s="85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M46" s="86"/>
+    </row>
+    <row r="49" spans="1:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="O49" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A50" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="I50" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J50" s="23"/>
+      <c r="K50" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51">
+        <v>403</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>44</v>
+      </c>
+      <c r="H51">
+        <f>SUM(C51:E51)</f>
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <f>SUM(I51:L51)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="50">
-        <f t="shared" ref="I43:I48" si="5">SUM(C43+E43+G43)/3600</f>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>7499.3</v>
+      </c>
+      <c r="D52">
+        <v>35248.199999999997</v>
+      </c>
+      <c r="H52">
+        <f>SUM(C52:E52)/3600</f>
+        <v>11.874305555555555</v>
+      </c>
+      <c r="M52">
+        <f>SUM(I52:L52)/3600</f>
         <v>0</v>
       </c>
-      <c r="J43" s="51"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="107"/>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" s="49">
-        <v>27</v>
-      </c>
-      <c r="B44" s="55"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53">
-        <f>SUM(B44+D44+F44)</f>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B53" s="22"/>
+      <c r="C53" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="87"/>
+      <c r="I53" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" s="87"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="87"/>
+      <c r="M53" s="87"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" s="78" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>0</v>
       </c>
-      <c r="I44" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="51"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="49"/>
-      <c r="M44" s="107"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" s="49">
-        <v>47</v>
-      </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53">
-        <f>SUM(B45+D45+F45)</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="50">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="51"/>
-      <c r="K45" s="50"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="107"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" s="26">
-        <v>52</v>
-      </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52">
-        <f t="shared" ref="H46" si="6">SUM(B46+D46+F46)</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="58">
-        <v>52</v>
-      </c>
-      <c r="K46" s="27" t="s">
+      <c r="B60">
+        <v>3797.5441448699999</v>
+      </c>
+      <c r="C60">
+        <v>115</v>
+      </c>
+      <c r="D60" s="79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B65" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="87"/>
+      <c r="D65" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="87"/>
+      <c r="F65" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="G65" s="87"/>
+      <c r="H65" s="87" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="87"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B66" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="C66" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="F66" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="80" t="s">
+        <v>85</v>
+      </c>
+      <c r="H66" s="80" t="s">
+        <v>84</v>
+      </c>
+      <c r="I66" s="80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67">
+        <v>20</v>
+      </c>
+      <c r="C67">
+        <v>20</v>
+      </c>
+      <c r="D67">
+        <v>114</v>
+      </c>
+      <c r="E67">
+        <v>314</v>
+      </c>
+      <c r="F67">
+        <v>4</v>
+      </c>
+      <c r="G67">
+        <v>167</v>
+      </c>
+      <c r="H67">
+        <f xml:space="preserve"> B67+D67+F67</f>
+        <v>138</v>
+      </c>
+      <c r="I67">
+        <f>C67+E67+G67</f>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68">
+        <v>198</v>
+      </c>
+      <c r="C68">
+        <v>237</v>
+      </c>
+      <c r="D68">
+        <v>807</v>
+      </c>
+      <c r="E68">
+        <v>588</v>
+      </c>
+      <c r="F68">
+        <v>496</v>
+      </c>
+      <c r="G68">
+        <v>615</v>
+      </c>
+      <c r="H68">
+        <f t="shared" ref="H68:H71" si="7" xml:space="preserve"> B68+D68+F68</f>
+        <v>1501</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I71" si="8">C68+E68+G68</f>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>24</v>
+      </c>
+      <c r="E69">
+        <v>71</v>
+      </c>
+      <c r="F69">
+        <v>19</v>
+      </c>
+      <c r="G69">
+        <v>28</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
-      <c r="L46" s="61">
-        <f>H46-J46</f>
-        <v>-52</v>
-      </c>
-      <c r="M46" s="107" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" s="26">
-        <v>102</v>
-      </c>
-      <c r="B47" s="69"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52">
-        <f>SUM(B47+D47+F47)</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="27">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="58">
-        <v>691</v>
-      </c>
-      <c r="K47" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="L47" s="61">
-        <f>H47-J47</f>
-        <v>-691</v>
-      </c>
-      <c r="M47" s="107" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="41">
-        <v>163</v>
-      </c>
-      <c r="B48" s="70"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54">
-        <f t="shared" ref="H48" si="7">SUM(B48+D48+F48)</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="48">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="28">
-        <v>229</v>
-      </c>
-      <c r="K48" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="L48" s="63">
-        <f>H48-J48</f>
-        <v>-229</v>
-      </c>
-      <c r="M48" s="108" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="M49" s="109"/>
-    </row>
-    <row r="52" spans="1:16" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B52" t="s">
-        <v>37</v>
-      </c>
-      <c r="C52" t="s">
-        <v>40</v>
-      </c>
-      <c r="O52" s="34" t="s">
-        <v>62</v>
-      </c>
-      <c r="P52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="20" t="s">
+      <c r="I69">
+        <f t="shared" si="8"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70">
+        <v>72</v>
+      </c>
+      <c r="C70">
+        <v>134</v>
+      </c>
+      <c r="D70">
+        <v>297</v>
+      </c>
+      <c r="E70">
+        <v>495</v>
+      </c>
+      <c r="F70">
         <v>31</v>
       </c>
-      <c r="C53" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="I53" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="23"/>
-      <c r="K53" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="L53" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54">
-        <v>403</v>
-      </c>
-      <c r="C54">
-        <v>6</v>
-      </c>
-      <c r="D54">
-        <v>44</v>
-      </c>
-      <c r="H54">
-        <f>SUM(C54:E54)</f>
-        <v>50</v>
-      </c>
-      <c r="M54">
-        <f>SUM(I54:L54)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C55">
-        <v>7499.3</v>
-      </c>
-      <c r="D55">
-        <v>35248.199999999997</v>
-      </c>
-      <c r="H55">
-        <f>SUM(C55:E55)/3600</f>
-        <v>11.874305555555555</v>
-      </c>
-      <c r="M55">
-        <f>SUM(I55:L55)/3600</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B56" s="22"/>
-      <c r="C56" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="D56" s="98"/>
-      <c r="E56" s="98"/>
-      <c r="F56" s="98"/>
-      <c r="G56" s="98"/>
-      <c r="H56" s="98"/>
-      <c r="I56" s="98" t="s">
-        <v>39</v>
-      </c>
-      <c r="J56" s="98"/>
-      <c r="K56" s="98"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="98"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>71</v>
-      </c>
-      <c r="D61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="78" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>0</v>
-      </c>
-      <c r="B63">
-        <v>3797.5441448699999</v>
-      </c>
-      <c r="C63">
-        <v>115</v>
-      </c>
-      <c r="D63" s="79">
-        <v>3</v>
-      </c>
+      <c r="G70">
+        <v>138</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>400</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="8"/>
+        <v>767</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71">
+        <v>29</v>
+      </c>
+      <c r="C71">
+        <v>41</v>
+      </c>
+      <c r="D71">
+        <v>234</v>
+      </c>
+      <c r="E71">
+        <v>277</v>
+      </c>
+      <c r="F71">
+        <v>24</v>
+      </c>
+      <c r="G71">
+        <v>188</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>287</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="8"/>
+        <v>506</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B72" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="111"/>
+      <c r="D72" s="111"/>
+      <c r="E72" s="111"/>
+      <c r="F72" s="111"/>
+      <c r="G72" s="111"/>
+      <c r="H72" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
+      <c r="E73" s="87"/>
+      <c r="F73" s="87"/>
+      <c r="G73" s="87"/>
+      <c r="H73" s="87"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:M56"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="K8:K10"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
+  <mergeCells count="30">
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B72:G72"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:G28"/>
@@ -3033,6 +3355,19 @@
     <mergeCell ref="A19:M19"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="K8:K10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:M53"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
